--- a/Leetcode problem tracker.xlsx
+++ b/Leetcode problem tracker.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Coding\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0548A6DF-091A-4124-9769-CDCDADD40C09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1B0A5BF-BD73-4641-8882-C4D2899DE5FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{365DB2E8-E54E-499E-9AF1-AA44A1C62DEA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{365DB2E8-E54E-499E-9AF1-AA44A1C62DEA}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Problems" sheetId="1" r:id="rId1"/>
+    <sheet name="Algos" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$1:$C$108</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Problems!$E$1:$E$110</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="124">
   <si>
     <t>Medium</t>
   </si>
@@ -373,19 +374,57 @@
   </si>
   <si>
     <t>Binary Search</t>
+  </si>
+  <si>
+    <t>Find Minimum in Rotated Sorted Array</t>
+  </si>
+  <si>
+    <t>Find Minimum in Rotated Sorted Array II</t>
+  </si>
+  <si>
+    <t>Linear search</t>
+  </si>
+  <si>
+    <t>Floor</t>
+  </si>
+  <si>
+    <t>Ceil</t>
+  </si>
+  <si>
+    <t>Bubble Sort</t>
+  </si>
+  <si>
+    <t>Selection Sort</t>
+  </si>
+  <si>
+    <t>Insertion Sort</t>
+  </si>
+  <si>
+    <t>Cyclic Sort</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -408,7 +447,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -416,6 +455,9 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -730,16 +772,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C0ADE24-140B-4EE6-A32B-01D05623BF43}">
-  <dimension ref="A1:E108"/>
+  <dimension ref="A1:E110"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.88671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="45.6640625" customWidth="1"/>
+    <col min="2" max="2" width="45.6640625" style="3" customWidth="1"/>
     <col min="3" max="3" width="16.33203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="19.109375" style="1" customWidth="1"/>
     <col min="5" max="6" width="8.88671875" style="1"/>
@@ -751,7 +793,7 @@
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -768,7 +810,7 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -779,7 +821,7 @@
       <c r="A4" s="1">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -790,7 +832,7 @@
       <c r="A5" s="1">
         <v>9</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -801,7 +843,7 @@
       <c r="A6" s="1">
         <v>13</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -812,7 +854,7 @@
       <c r="A7" s="1">
         <v>14</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -823,7 +865,7 @@
       <c r="A8" s="1">
         <v>17</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -834,7 +876,7 @@
       <c r="A9" s="1">
         <v>20</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -845,7 +887,7 @@
       <c r="A10" s="1">
         <v>21</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -856,7 +898,7 @@
       <c r="A11" s="1">
         <v>25</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -867,7 +909,7 @@
       <c r="A12" s="1">
         <v>26</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -878,7 +920,7 @@
       <c r="A13" s="1">
         <v>27</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -889,7 +931,7 @@
       <c r="A14" s="1">
         <v>28</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -900,7 +942,7 @@
       <c r="A15" s="1">
         <v>29</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -911,18 +953,24 @@
       <c r="A16" s="1">
         <v>33</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="3" t="s">
         <v>36</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>0</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E16" s="2">
+        <v>45115</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>34</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="3" t="s">
         <v>37</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -939,7 +987,7 @@
       <c r="A18" s="1">
         <v>35</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="3" t="s">
         <v>38</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -956,7 +1004,7 @@
       <c r="A19" s="1">
         <v>36</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="3" t="s">
         <v>39</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -967,18 +1015,24 @@
       <c r="A20" s="1">
         <v>37</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="3" t="s">
         <v>40</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="D20" t="s">
+        <v>123</v>
+      </c>
+      <c r="E20" s="2">
+        <v>45149</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>41</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="3" t="s">
         <v>41</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -989,7 +1043,7 @@
       <c r="A22" s="1">
         <v>46</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="3" t="s">
         <v>42</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -1000,7 +1054,7 @@
       <c r="A23" s="1">
         <v>47</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="3" t="s">
         <v>43</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -1011,7 +1065,7 @@
       <c r="A24" s="1">
         <v>51</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="3" t="s">
         <v>44</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -1022,7 +1076,7 @@
       <c r="A25" s="1">
         <v>52</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="3" t="s">
         <v>45</v>
       </c>
       <c r="C25" s="1" t="s">
@@ -1033,7 +1087,7 @@
       <c r="A26" s="1">
         <v>58</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="3" t="s">
         <v>46</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -1044,7 +1098,7 @@
       <c r="A27" s="1">
         <v>61</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="3" t="s">
         <v>47</v>
       </c>
       <c r="C27" s="1" t="s">
@@ -1055,7 +1109,7 @@
       <c r="A28" s="1">
         <v>66</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="3" t="s">
         <v>48</v>
       </c>
       <c r="C28" s="1" t="s">
@@ -1066,7 +1120,7 @@
       <c r="A29" s="1">
         <v>67</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="3" t="s">
         <v>49</v>
       </c>
       <c r="C29" s="1" t="s">
@@ -1077,7 +1131,7 @@
       <c r="A30" s="1">
         <v>69</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="3" t="s">
         <v>50</v>
       </c>
       <c r="C30" s="1" t="s">
@@ -1094,7 +1148,7 @@
       <c r="A31" s="1">
         <v>73</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="3" t="s">
         <v>51</v>
       </c>
       <c r="C31" s="1" t="s">
@@ -1105,18 +1159,24 @@
       <c r="A32" s="1">
         <v>74</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>0</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E32" s="2">
+        <v>45119</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>75</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="3" t="s">
         <v>53</v>
       </c>
       <c r="C33" s="1" t="s">
@@ -1127,7 +1187,7 @@
       <c r="A34" s="1">
         <v>78</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="3" t="s">
         <v>54</v>
       </c>
       <c r="C34" s="1" t="s">
@@ -1138,18 +1198,24 @@
       <c r="A35" s="1">
         <v>81</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="3" t="s">
         <v>55</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>0</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E35" s="2">
+        <v>45115</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>83</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="3" t="s">
         <v>56</v>
       </c>
       <c r="C36" s="1" t="s">
@@ -1160,7 +1226,7 @@
       <c r="A37" s="1">
         <v>88</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="3" t="s">
         <v>57</v>
       </c>
       <c r="C37" s="1" t="s">
@@ -1171,7 +1237,7 @@
       <c r="A38" s="1">
         <v>90</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="3" t="s">
         <v>58</v>
       </c>
       <c r="C38" s="1" t="s">
@@ -1182,7 +1248,7 @@
       <c r="A39" s="1">
         <v>92</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="3" t="s">
         <v>59</v>
       </c>
       <c r="C39" s="1" t="s">
@@ -1193,7 +1259,7 @@
       <c r="A40" s="1">
         <v>118</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="3" t="s">
         <v>60</v>
       </c>
       <c r="C40" s="1" t="s">
@@ -1204,7 +1270,7 @@
       <c r="A41" s="1">
         <v>119</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="3" t="s">
         <v>61</v>
       </c>
       <c r="C41" s="1" t="s">
@@ -1215,7 +1281,7 @@
       <c r="A42" s="1">
         <v>125</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="3" t="s">
         <v>62</v>
       </c>
       <c r="C42" s="1" t="s">
@@ -1226,7 +1292,7 @@
       <c r="A43" s="1">
         <v>136</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="3" t="s">
         <v>63</v>
       </c>
       <c r="C43" s="1" t="s">
@@ -1237,7 +1303,7 @@
       <c r="A44" s="1">
         <v>141</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="3" t="s">
         <v>64</v>
       </c>
       <c r="C44" s="1" t="s">
@@ -1248,7 +1314,7 @@
       <c r="A45" s="1">
         <v>142</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="3" t="s">
         <v>65</v>
       </c>
       <c r="C45" s="1" t="s">
@@ -1259,7 +1325,7 @@
       <c r="A46" s="1">
         <v>143</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="3" t="s">
         <v>66</v>
       </c>
       <c r="C46" s="1" t="s">
@@ -1270,19 +1336,19 @@
       <c r="A47" s="1">
         <v>148</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="3" t="s">
         <v>67</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A48" s="1">
-        <v>162</v>
-      </c>
-      <c r="B48" t="s">
-        <v>68</v>
+        <v>153</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>115</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>0</v>
@@ -1291,180 +1357,198 @@
         <v>114</v>
       </c>
       <c r="E48" s="2">
+        <v>45115</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="A49" s="1">
+        <v>154</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E49" s="2">
+        <v>45115</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
+        <v>162</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E50" s="2">
         <v>45095</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="1">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
         <v>169</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B51" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C49" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="1">
+      <c r="C51" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
         <v>172</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B52" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C50" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" s="1">
+      <c r="C52" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="1">
         <v>183</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B53" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C51" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="1">
+      <c r="C53" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="1">
         <v>202</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B54" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C52" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" s="1">
+      <c r="C54" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
         <v>204</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B55" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C53" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" s="1">
+      <c r="C55" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="1">
         <v>206</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B56" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C54" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" s="1">
+      <c r="C56" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="1">
         <v>215</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B57" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C55" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" s="1">
+      <c r="C57" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="1">
         <v>217</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B58" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C56" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" s="1">
+      <c r="C58" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="1">
         <v>229</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B59" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C57" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" s="1">
+      <c r="C59" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="1">
         <v>231</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B60" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C58" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" s="1">
+      <c r="C60" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" s="1">
         <v>232</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B61" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C59" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" s="1">
+      <c r="C61" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" s="1">
         <v>234</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B62" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C60" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" s="1">
+      <c r="C62" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" s="1">
         <v>240</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B63" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C61" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62" s="1">
+      <c r="C63" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E63" s="2">
+        <v>45119</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" s="1">
         <v>242</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B64" s="3" t="s">
         <v>82</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" s="1">
-        <v>258</v>
-      </c>
-      <c r="B63" t="s">
-        <v>83</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" s="1">
-        <v>268</v>
-      </c>
-      <c r="B64" t="s">
-        <v>84</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>1</v>
@@ -1472,43 +1556,55 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
-        <v>287</v>
-      </c>
-      <c r="B65" t="s">
-        <v>85</v>
+        <v>258</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>83</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
-        <v>326</v>
-      </c>
-      <c r="B66" t="s">
-        <v>86</v>
+        <v>268</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>84</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>1</v>
+      </c>
+      <c r="D66" t="s">
+        <v>123</v>
+      </c>
+      <c r="E66" s="2">
+        <v>45149</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
-        <v>338</v>
-      </c>
-      <c r="B67" t="s">
-        <v>87</v>
+        <v>287</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>85</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D67" t="s">
+        <v>123</v>
+      </c>
+      <c r="E67" s="2">
+        <v>45149</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
-        <v>342</v>
-      </c>
-      <c r="B68" t="s">
-        <v>88</v>
+        <v>326</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>86</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>1</v>
@@ -1516,10 +1612,10 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
-        <v>344</v>
-      </c>
-      <c r="B69" t="s">
-        <v>89</v>
+        <v>338</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>87</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>1</v>
@@ -1527,10 +1623,10 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
-        <v>345</v>
-      </c>
-      <c r="B70" t="s">
-        <v>90</v>
+        <v>342</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>88</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>1</v>
@@ -1538,66 +1634,66 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
-        <v>367</v>
-      </c>
-      <c r="B71" t="s">
-        <v>91</v>
+        <v>344</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>89</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E71" s="2">
-        <v>45100</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
-        <v>374</v>
-      </c>
-      <c r="B72" t="s">
-        <v>92</v>
+        <v>345</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>90</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E72" s="2">
-        <v>45100</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
-        <v>389</v>
-      </c>
-      <c r="B73" t="s">
-        <v>93</v>
+        <v>367</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>1</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E73" s="2">
+        <v>45100</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
-        <v>410</v>
-      </c>
-      <c r="B74" t="s">
-        <v>94</v>
+        <v>374</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>92</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E74" s="2">
+        <v>45100</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
-        <v>441</v>
-      </c>
-      <c r="B75" t="s">
-        <v>95</v>
+        <v>389</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>93</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>1</v>
@@ -1605,21 +1701,27 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
-        <v>442</v>
-      </c>
-      <c r="B76" t="s">
-        <v>96</v>
+        <v>410</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E76" s="2">
+        <v>45115</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
-        <v>448</v>
-      </c>
-      <c r="B77" t="s">
-        <v>97</v>
+        <v>441</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>95</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>1</v>
@@ -1627,43 +1729,55 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
-        <v>500</v>
-      </c>
-      <c r="B78" t="s">
-        <v>98</v>
+        <v>442</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>96</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D78" t="s">
+        <v>123</v>
+      </c>
+      <c r="E78" s="2">
+        <v>45149</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
-        <v>509</v>
-      </c>
-      <c r="B79" t="s">
-        <v>99</v>
+        <v>448</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>97</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>1</v>
+      </c>
+      <c r="D79" t="s">
+        <v>123</v>
+      </c>
+      <c r="E79" s="2">
+        <v>45149</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
-        <v>633</v>
-      </c>
-      <c r="B80" t="s">
-        <v>100</v>
+        <v>500</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>98</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
-        <v>645</v>
-      </c>
-      <c r="B81" t="s">
-        <v>101</v>
+        <v>509</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>99</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>1</v>
@@ -1671,60 +1785,72 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
-        <v>704</v>
-      </c>
-      <c r="B82" t="s">
-        <v>102</v>
+        <v>633</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>100</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
-        <v>744</v>
-      </c>
-      <c r="B83" t="s">
-        <v>103</v>
+        <v>645</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>101</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D83" s="1" t="s">
-        <v>114</v>
+      <c r="D83" t="s">
+        <v>123</v>
       </c>
       <c r="E83" s="2">
-        <v>45095</v>
+        <v>45149</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
-        <v>804</v>
-      </c>
-      <c r="B84" t="s">
-        <v>104</v>
+        <v>704</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>1</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E84" s="2">
+        <v>45115</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
-        <v>832</v>
-      </c>
-      <c r="B85" t="s">
-        <v>105</v>
+        <v>744</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>103</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>1</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E85" s="2">
+        <v>45095</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
-        <v>844</v>
-      </c>
-      <c r="B86" t="s">
-        <v>106</v>
+        <v>804</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>104</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>1</v>
@@ -1732,27 +1858,21 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
-        <v>852</v>
-      </c>
-      <c r="B87" t="s">
-        <v>107</v>
+        <v>832</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>105</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E87" s="2">
-        <v>45095</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
-        <v>867</v>
-      </c>
-      <c r="B88" t="s">
-        <v>108</v>
+        <v>844</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>106</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>1</v>
@@ -1760,32 +1880,38 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
-        <v>876</v>
-      </c>
-      <c r="B89" t="s">
-        <v>109</v>
+        <v>852</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>107</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E89" s="2">
+        <v>45095</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
-        <v>921</v>
-      </c>
-      <c r="B90" t="s">
-        <v>110</v>
+        <v>867</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>108</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
-        <v>961</v>
-      </c>
-      <c r="B91" t="s">
-        <v>111</v>
+        <v>876</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>109</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>1</v>
@@ -1793,10 +1919,10 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
-        <v>1016</v>
-      </c>
-      <c r="B92" t="s">
-        <v>10</v>
+        <v>921</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>110</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>0</v>
@@ -1804,66 +1930,60 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
-        <v>1095</v>
-      </c>
-      <c r="B93" t="s">
-        <v>11</v>
+        <v>961</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>111</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E93" s="2">
-        <v>45095</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
-        <v>1137</v>
-      </c>
-      <c r="B94" t="s">
-        <v>12</v>
+        <v>1016</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
-        <v>1290</v>
-      </c>
-      <c r="B95" t="s">
-        <v>13</v>
+        <v>1095</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E95" s="2">
+        <v>45095</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
-        <v>1295</v>
-      </c>
-      <c r="B96" t="s">
-        <v>14</v>
+        <v>1137</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="E96" s="2">
-        <v>8567</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
-        <v>1342</v>
-      </c>
-      <c r="B97" t="s">
-        <v>15</v>
+        <v>1290</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>1</v>
@@ -1871,32 +1991,38 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
-        <v>1346</v>
-      </c>
-      <c r="B98" t="s">
-        <v>16</v>
+        <v>1295</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>1</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E98" s="2">
+        <v>8567</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
-        <v>1492</v>
-      </c>
-      <c r="B99" t="s">
-        <v>17</v>
+        <v>1342</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
-        <v>1572</v>
-      </c>
-      <c r="B100" t="s">
-        <v>18</v>
+        <v>1346</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>1</v>
@@ -1904,27 +2030,21 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
-        <v>1672</v>
-      </c>
-      <c r="B101" t="s">
-        <v>19</v>
+        <v>1492</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="E101" s="2">
-        <v>8567</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
-        <v>1929</v>
-      </c>
-      <c r="B102" t="s">
-        <v>20</v>
+        <v>1572</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>1</v>
@@ -1932,21 +2052,27 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
-        <v>2221</v>
-      </c>
-      <c r="B103" t="s">
-        <v>21</v>
+        <v>1672</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E103" s="2">
+        <v>8567</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
-        <v>2235</v>
-      </c>
-      <c r="B104" t="s">
-        <v>22</v>
+        <v>1929</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>1</v>
@@ -1954,40 +2080,211 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
-        <v>2293</v>
-      </c>
-      <c r="B105" t="s">
-        <v>23</v>
+        <v>2221</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
-        <v>2319</v>
-      </c>
-      <c r="B106" t="s">
-        <v>24</v>
+        <v>2235</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="C106" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A107" s="1">
+        <v>2293</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C107" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
+        <v>2319</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A110" s="1">
         <v>2427</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B110" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C108" s="1" t="s">
+      <c r="C110" s="1" t="s">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="C1:C108" xr:uid="{3C0ADE24-140B-4EE6-A32B-01D05623BF43}"/>
+  <autoFilter ref="E1:E110" xr:uid="{3C0ADE24-140B-4EE6-A32B-01D05623BF43}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9012F27-8156-41DB-A126-E4212B4AC01C}">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="21.6640625" customWidth="1"/>
+    <col min="3" max="3" width="11.21875" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E2" s="2">
+        <v>8567</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E3" s="2">
+        <v>45095</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D4" t="s">
+        <v>114</v>
+      </c>
+      <c r="E4" s="2">
+        <v>45095</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D5" t="s">
+        <v>114</v>
+      </c>
+      <c r="E5" s="2">
+        <v>45095</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D6" t="s">
+        <v>120</v>
+      </c>
+      <c r="E6" s="5">
+        <v>45145</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D7" t="s">
+        <v>121</v>
+      </c>
+      <c r="E7" s="5">
+        <v>45146</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>122</v>
+      </c>
+      <c r="D8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E8" s="5">
+        <v>45147</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>123</v>
+      </c>
+      <c r="D9" t="s">
+        <v>123</v>
+      </c>
+      <c r="E9" s="5">
+        <v>45149</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Leetcode problem tracker.xlsx
+++ b/Leetcode problem tracker.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Coding\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1B0A5BF-BD73-4641-8882-C4D2899DE5FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AFA362A-A4F0-41C9-8490-C72F4D653A63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{365DB2E8-E54E-499E-9AF1-AA44A1C62DEA}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Algos" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Problems!$E$1:$E$110</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Problems!$D$1:$D$110</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -427,12 +427,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -447,7 +453,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -458,6 +464,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -772,10 +782,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C0ADE24-140B-4EE6-A32B-01D05623BF43}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:E110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E95" sqref="E95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -806,7 +817,8 @@
         <v>112</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -817,7 +829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>7</v>
       </c>
@@ -828,7 +840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>9</v>
       </c>
@@ -839,7 +851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>13</v>
       </c>
@@ -850,7 +862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>14</v>
       </c>
@@ -861,7 +873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>17</v>
       </c>
@@ -872,7 +884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>20</v>
       </c>
@@ -883,7 +895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>21</v>
       </c>
@@ -894,7 +906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>25</v>
       </c>
@@ -905,7 +917,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>26</v>
       </c>
@@ -916,7 +928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>27</v>
       </c>
@@ -927,7 +939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>28</v>
       </c>
@@ -938,7 +950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>29</v>
       </c>
@@ -950,20 +962,20 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
+      <c r="A16" s="6">
         <v>33</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D16" s="1" t="s">
+      <c r="C16" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" s="6" t="s">
         <v>114</v>
       </c>
       <c r="E16" s="2">
-        <v>45115</v>
+        <v>45196</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -980,7 +992,7 @@
         <v>114</v>
       </c>
       <c r="E17" s="2">
-        <v>45095</v>
+        <v>45196</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -997,10 +1009,10 @@
         <v>114</v>
       </c>
       <c r="E18" s="2">
-        <v>45100</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+        <v>45196</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>36</v>
       </c>
@@ -1011,7 +1023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>37</v>
       </c>
@@ -1028,7 +1040,7 @@
         <v>45149</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>41</v>
       </c>
@@ -1039,7 +1051,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>46</v>
       </c>
@@ -1050,7 +1062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>47</v>
       </c>
@@ -1061,7 +1073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>51</v>
       </c>
@@ -1072,7 +1084,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>52</v>
       </c>
@@ -1083,7 +1095,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>58</v>
       </c>
@@ -1094,7 +1106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>61</v>
       </c>
@@ -1105,7 +1117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>66</v>
       </c>
@@ -1116,7 +1128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>67</v>
       </c>
@@ -1141,10 +1153,10 @@
         <v>114</v>
       </c>
       <c r="E30" s="2">
-        <v>45100</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+        <v>45196</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>73</v>
       </c>
@@ -1169,10 +1181,10 @@
         <v>114</v>
       </c>
       <c r="E32" s="2">
-        <v>45119</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+        <v>45196</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>75</v>
       </c>
@@ -1183,7 +1195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>78</v>
       </c>
@@ -1195,23 +1207,21 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="1">
+      <c r="A35" s="6">
         <v>81</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D35" s="1" t="s">
+      <c r="C35" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D35" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="E35" s="2">
-        <v>45115</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E35" s="2"/>
+    </row>
+    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>83</v>
       </c>
@@ -1222,7 +1232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>88</v>
       </c>
@@ -1233,7 +1243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>90</v>
       </c>
@@ -1244,7 +1254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>92</v>
       </c>
@@ -1255,7 +1265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>118</v>
       </c>
@@ -1266,7 +1276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>119</v>
       </c>
@@ -1277,7 +1287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>125</v>
       </c>
@@ -1288,7 +1298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>136</v>
       </c>
@@ -1299,7 +1309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>141</v>
       </c>
@@ -1310,7 +1320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>142</v>
       </c>
@@ -1321,7 +1331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>143</v>
       </c>
@@ -1332,7 +1342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>148</v>
       </c>
@@ -1357,7 +1367,7 @@
         <v>114</v>
       </c>
       <c r="E48" s="2">
-        <v>45115</v>
+        <v>45196</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="16.8" x14ac:dyDescent="0.4">
@@ -1373,28 +1383,26 @@
       <c r="D49" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="E49" s="2">
-        <v>45115</v>
-      </c>
+      <c r="E49" s="2"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="1">
+      <c r="A50" s="6">
         <v>162</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="C50" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D50" s="1" t="s">
+      <c r="C50" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D50" s="6" t="s">
         <v>114</v>
       </c>
       <c r="E50" s="2">
-        <v>45095</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+        <v>45196</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>169</v>
       </c>
@@ -1405,7 +1413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>172</v>
       </c>
@@ -1416,7 +1424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>183</v>
       </c>
@@ -1427,7 +1435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>202</v>
       </c>
@@ -1438,7 +1446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>204</v>
       </c>
@@ -1449,7 +1457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>206</v>
       </c>
@@ -1460,7 +1468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>215</v>
       </c>
@@ -1471,7 +1479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>217</v>
       </c>
@@ -1482,7 +1490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>229</v>
       </c>
@@ -1493,7 +1501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>231</v>
       </c>
@@ -1504,7 +1512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>232</v>
       </c>
@@ -1515,7 +1523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>234</v>
       </c>
@@ -1540,10 +1548,10 @@
         <v>114</v>
       </c>
       <c r="E63" s="2">
-        <v>45119</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+        <v>45196</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>242</v>
       </c>
@@ -1554,7 +1562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>258</v>
       </c>
@@ -1565,7 +1573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>268</v>
       </c>
@@ -1582,7 +1590,7 @@
         <v>45149</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>287</v>
       </c>
@@ -1599,7 +1607,7 @@
         <v>45149</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>326</v>
       </c>
@@ -1610,7 +1618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>338</v>
       </c>
@@ -1621,7 +1629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>342</v>
       </c>
@@ -1632,7 +1640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>344</v>
       </c>
@@ -1643,7 +1651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>345</v>
       </c>
@@ -1668,7 +1676,7 @@
         <v>114</v>
       </c>
       <c r="E73" s="2">
-        <v>45100</v>
+        <v>45196</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
@@ -1685,10 +1693,10 @@
         <v>114</v>
       </c>
       <c r="E74" s="2">
-        <v>45100</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+        <v>45196</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>389</v>
       </c>
@@ -1700,23 +1708,23 @@
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A76" s="1">
+      <c r="A76" s="6">
         <v>410</v>
       </c>
-      <c r="B76" s="3" t="s">
+      <c r="B76" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="C76" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D76" s="1" t="s">
+      <c r="D76" s="6" t="s">
         <v>114</v>
       </c>
       <c r="E76" s="2">
-        <v>45115</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+        <v>45196</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>441</v>
       </c>
@@ -1727,7 +1735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>442</v>
       </c>
@@ -1744,7 +1752,7 @@
         <v>45149</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>448</v>
       </c>
@@ -1761,7 +1769,7 @@
         <v>45149</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>500</v>
       </c>
@@ -1772,7 +1780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>509</v>
       </c>
@@ -1783,7 +1791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>633</v>
       </c>
@@ -1794,7 +1802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>645</v>
       </c>
@@ -1825,7 +1833,7 @@
         <v>114</v>
       </c>
       <c r="E84" s="2">
-        <v>45115</v>
+        <v>45196</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
@@ -1842,10 +1850,10 @@
         <v>114</v>
       </c>
       <c r="E85" s="2">
-        <v>45095</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+        <v>45196</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>804</v>
       </c>
@@ -1856,7 +1864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>832</v>
       </c>
@@ -1867,7 +1875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>844</v>
       </c>
@@ -1892,10 +1900,10 @@
         <v>114</v>
       </c>
       <c r="E89" s="2">
-        <v>45095</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+        <v>45196</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>867</v>
       </c>
@@ -1906,7 +1914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>876</v>
       </c>
@@ -1917,7 +1925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>921</v>
       </c>
@@ -1928,7 +1936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>961</v>
       </c>
@@ -1939,7 +1947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>1016</v>
       </c>
@@ -1964,10 +1972,10 @@
         <v>114</v>
       </c>
       <c r="E95" s="2">
-        <v>45095</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+        <v>45196</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>1137</v>
       </c>
@@ -1978,7 +1986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>1290</v>
       </c>
@@ -1989,7 +1997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>1295</v>
       </c>
@@ -2003,10 +2011,10 @@
         <v>113</v>
       </c>
       <c r="E98" s="2">
-        <v>8567</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+        <v>45196</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>1342</v>
       </c>
@@ -2017,7 +2025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>1346</v>
       </c>
@@ -2028,7 +2036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>1492</v>
       </c>
@@ -2039,7 +2047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>1572</v>
       </c>
@@ -2050,7 +2058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>1672</v>
       </c>
@@ -2064,10 +2072,10 @@
         <v>113</v>
       </c>
       <c r="E103" s="2">
-        <v>8567</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+        <v>45196</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>1929</v>
       </c>
@@ -2078,7 +2086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>2221</v>
       </c>
@@ -2089,7 +2097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>2235</v>
       </c>
@@ -2100,7 +2108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>2293</v>
       </c>
@@ -2111,7 +2119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>2319</v>
       </c>
@@ -2122,7 +2130,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="110" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>2427</v>
       </c>
@@ -2134,7 +2143,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="E1:E110" xr:uid="{3C0ADE24-140B-4EE6-A32B-01D05623BF43}"/>
+  <autoFilter ref="D1:D110" xr:uid="{3C0ADE24-140B-4EE6-A32B-01D05623BF43}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Binary Search"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2145,7 +2160,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2183,7 +2198,7 @@
         <v>117</v>
       </c>
       <c r="E2" s="2">
-        <v>8567</v>
+        <v>45196</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -2197,7 +2212,7 @@
         <v>114</v>
       </c>
       <c r="E3" s="2">
-        <v>45095</v>
+        <v>45197</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -2211,7 +2226,7 @@
         <v>114</v>
       </c>
       <c r="E4" s="2">
-        <v>45095</v>
+        <v>45198</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -2225,7 +2240,7 @@
         <v>114</v>
       </c>
       <c r="E5" s="2">
-        <v>45095</v>
+        <v>45199</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">

--- a/Leetcode problem tracker.xlsx
+++ b/Leetcode problem tracker.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Coding\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AFA362A-A4F0-41C9-8490-C72F4D653A63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EA62463-FE95-49F5-AC4C-DBEAE0AF1964}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{365DB2E8-E54E-499E-9AF1-AA44A1C62DEA}"/>
   </bookViews>
@@ -453,7 +453,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -463,7 +463,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -782,11 +781,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C0ADE24-140B-4EE6-A32B-01D05623BF43}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:E110"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E95" sqref="E95"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="D112" sqref="D112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -795,7 +793,8 @@
     <col min="2" max="2" width="45.6640625" style="3" customWidth="1"/>
     <col min="3" max="3" width="16.33203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="19.109375" style="1" customWidth="1"/>
-    <col min="5" max="6" width="8.88671875" style="1"/>
+    <col min="5" max="5" width="17.88671875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="1"/>
     <col min="7" max="7" width="16.6640625" style="1" customWidth="1"/>
     <col min="8" max="16384" width="8.88671875" style="1"/>
   </cols>
@@ -817,8 +816,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -829,7 +827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>7</v>
       </c>
@@ -840,7 +838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>9</v>
       </c>
@@ -851,7 +849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>13</v>
       </c>
@@ -862,7 +860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>14</v>
       </c>
@@ -873,7 +871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>17</v>
       </c>
@@ -884,7 +882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>20</v>
       </c>
@@ -895,7 +893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>21</v>
       </c>
@@ -906,7 +904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>25</v>
       </c>
@@ -917,7 +915,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>26</v>
       </c>
@@ -928,7 +926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>27</v>
       </c>
@@ -939,7 +937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>28</v>
       </c>
@@ -950,7 +948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>29</v>
       </c>
@@ -962,16 +960,16 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="6">
+      <c r="A16" s="5">
         <v>33</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D16" s="6" t="s">
+      <c r="C16" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>114</v>
       </c>
       <c r="E16" s="2">
@@ -1012,7 +1010,7 @@
         <v>45196</v>
       </c>
     </row>
-    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>36</v>
       </c>
@@ -1023,7 +1021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>37</v>
       </c>
@@ -1033,14 +1031,8 @@
       <c r="C20" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D20" t="s">
-        <v>123</v>
-      </c>
-      <c r="E20" s="2">
-        <v>45149</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>41</v>
       </c>
@@ -1050,8 +1042,14 @@
       <c r="C21" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="D21" t="s">
+        <v>123</v>
+      </c>
+      <c r="E21" s="2">
+        <v>45211</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>46</v>
       </c>
@@ -1062,7 +1060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>47</v>
       </c>
@@ -1073,7 +1071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>51</v>
       </c>
@@ -1084,7 +1082,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>52</v>
       </c>
@@ -1095,7 +1093,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>58</v>
       </c>
@@ -1106,7 +1104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>61</v>
       </c>
@@ -1117,7 +1115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>66</v>
       </c>
@@ -1128,7 +1126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>67</v>
       </c>
@@ -1156,7 +1154,7 @@
         <v>45196</v>
       </c>
     </row>
-    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>73</v>
       </c>
@@ -1184,7 +1182,7 @@
         <v>45196</v>
       </c>
     </row>
-    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>75</v>
       </c>
@@ -1195,7 +1193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>78</v>
       </c>
@@ -1207,21 +1205,23 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="6">
+      <c r="A35" s="5">
         <v>81</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C35" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D35" s="6" t="s">
+      <c r="C35" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D35" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="E35" s="2"/>
-    </row>
-    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E35" s="2">
+        <v>45211</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>83</v>
       </c>
@@ -1232,7 +1232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>88</v>
       </c>
@@ -1243,7 +1243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>90</v>
       </c>
@@ -1254,7 +1254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>92</v>
       </c>
@@ -1265,7 +1265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>118</v>
       </c>
@@ -1276,7 +1276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>119</v>
       </c>
@@ -1287,7 +1287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>125</v>
       </c>
@@ -1298,7 +1298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>136</v>
       </c>
@@ -1309,7 +1309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>141</v>
       </c>
@@ -1320,7 +1320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>142</v>
       </c>
@@ -1331,7 +1331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>143</v>
       </c>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>148</v>
       </c>
@@ -1383,26 +1383,28 @@
       <c r="D49" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="E49" s="2"/>
+      <c r="E49" s="2">
+        <v>45211</v>
+      </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="6">
+      <c r="A50" s="5">
         <v>162</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="B50" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C50" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D50" s="6" t="s">
+      <c r="C50" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D50" s="5" t="s">
         <v>114</v>
       </c>
       <c r="E50" s="2">
         <v>45196</v>
       </c>
     </row>
-    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>169</v>
       </c>
@@ -1413,7 +1415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>172</v>
       </c>
@@ -1424,7 +1426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>183</v>
       </c>
@@ -1435,7 +1437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>202</v>
       </c>
@@ -1446,7 +1448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>204</v>
       </c>
@@ -1457,7 +1459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>206</v>
       </c>
@@ -1468,7 +1470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>215</v>
       </c>
@@ -1479,7 +1481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>217</v>
       </c>
@@ -1490,7 +1492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>229</v>
       </c>
@@ -1501,7 +1503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>231</v>
       </c>
@@ -1512,7 +1514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>232</v>
       </c>
@@ -1523,7 +1525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>234</v>
       </c>
@@ -1551,7 +1553,7 @@
         <v>45196</v>
       </c>
     </row>
-    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>242</v>
       </c>
@@ -1562,7 +1564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>258</v>
       </c>
@@ -1573,7 +1575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>268</v>
       </c>
@@ -1587,10 +1589,10 @@
         <v>123</v>
       </c>
       <c r="E66" s="2">
-        <v>45149</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>45211</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>287</v>
       </c>
@@ -1604,10 +1606,10 @@
         <v>123</v>
       </c>
       <c r="E67" s="2">
-        <v>45149</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>45211</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>326</v>
       </c>
@@ -1618,7 +1620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>338</v>
       </c>
@@ -1629,7 +1631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>342</v>
       </c>
@@ -1640,7 +1642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>344</v>
       </c>
@@ -1651,7 +1653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>345</v>
       </c>
@@ -1696,7 +1698,7 @@
         <v>45196</v>
       </c>
     </row>
-    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>389</v>
       </c>
@@ -1708,23 +1710,23 @@
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A76" s="6">
+      <c r="A76" s="5">
         <v>410</v>
       </c>
-      <c r="B76" s="7" t="s">
+      <c r="B76" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="C76" s="6" t="s">
+      <c r="C76" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D76" s="6" t="s">
+      <c r="D76" s="5" t="s">
         <v>114</v>
       </c>
       <c r="E76" s="2">
         <v>45196</v>
       </c>
     </row>
-    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>441</v>
       </c>
@@ -1735,7 +1737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>442</v>
       </c>
@@ -1749,10 +1751,10 @@
         <v>123</v>
       </c>
       <c r="E78" s="2">
-        <v>45149</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>45211</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>448</v>
       </c>
@@ -1766,10 +1768,10 @@
         <v>123</v>
       </c>
       <c r="E79" s="2">
-        <v>45149</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>45211</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>500</v>
       </c>
@@ -1780,7 +1782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>509</v>
       </c>
@@ -1791,7 +1793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>633</v>
       </c>
@@ -1802,7 +1804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>645</v>
       </c>
@@ -1816,7 +1818,7 @@
         <v>123</v>
       </c>
       <c r="E83" s="2">
-        <v>45149</v>
+        <v>45211</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
@@ -1853,7 +1855,7 @@
         <v>45196</v>
       </c>
     </row>
-    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>804</v>
       </c>
@@ -1864,7 +1866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>832</v>
       </c>
@@ -1875,7 +1877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>844</v>
       </c>
@@ -1903,7 +1905,7 @@
         <v>45196</v>
       </c>
     </row>
-    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>867</v>
       </c>
@@ -1914,7 +1916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>876</v>
       </c>
@@ -1925,7 +1927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>921</v>
       </c>
@@ -1936,7 +1938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>961</v>
       </c>
@@ -1947,7 +1949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>1016</v>
       </c>
@@ -1975,7 +1977,7 @@
         <v>45196</v>
       </c>
     </row>
-    <row r="96" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>1137</v>
       </c>
@@ -1986,7 +1988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>1290</v>
       </c>
@@ -1997,7 +1999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>1295</v>
       </c>
@@ -2014,7 +2016,7 @@
         <v>45196</v>
       </c>
     </row>
-    <row r="99" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>1342</v>
       </c>
@@ -2025,7 +2027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>1346</v>
       </c>
@@ -2036,7 +2038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>1492</v>
       </c>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>1572</v>
       </c>
@@ -2058,7 +2060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>1672</v>
       </c>
@@ -2075,7 +2077,7 @@
         <v>45196</v>
       </c>
     </row>
-    <row r="104" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>1929</v>
       </c>
@@ -2086,7 +2088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>2221</v>
       </c>
@@ -2097,7 +2099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>2235</v>
       </c>
@@ -2108,7 +2110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>2293</v>
       </c>
@@ -2119,7 +2121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>2319</v>
       </c>
@@ -2130,8 +2132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:5" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="110" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>2427</v>
       </c>
@@ -2143,13 +2144,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="D1:D110" xr:uid="{3C0ADE24-140B-4EE6-A32B-01D05623BF43}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="Binary Search"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="D1:D110" xr:uid="{3C0ADE24-140B-4EE6-A32B-01D05623BF43}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2160,7 +2155,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2168,6 +2163,7 @@
     <col min="2" max="2" width="21.6640625" customWidth="1"/>
     <col min="3" max="3" width="11.21875" customWidth="1"/>
     <col min="4" max="4" width="16.6640625" customWidth="1"/>
+    <col min="5" max="5" width="13.77734375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -2226,7 +2222,7 @@
         <v>114</v>
       </c>
       <c r="E4" s="2">
-        <v>45198</v>
+        <v>45197</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -2240,7 +2236,7 @@
         <v>114</v>
       </c>
       <c r="E5" s="2">
-        <v>45199</v>
+        <v>45197</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -2253,8 +2249,8 @@
       <c r="D6" t="s">
         <v>120</v>
       </c>
-      <c r="E6" s="5">
-        <v>45145</v>
+      <c r="E6" s="2">
+        <v>45213</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -2267,8 +2263,8 @@
       <c r="D7" t="s">
         <v>121</v>
       </c>
-      <c r="E7" s="5">
-        <v>45146</v>
+      <c r="E7" s="2">
+        <v>45213</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -2281,8 +2277,8 @@
       <c r="D8" t="s">
         <v>122</v>
       </c>
-      <c r="E8" s="5">
-        <v>45147</v>
+      <c r="E8" s="2">
+        <v>45213</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -2295,8 +2291,8 @@
       <c r="D9" t="s">
         <v>123</v>
       </c>
-      <c r="E9" s="5">
-        <v>45149</v>
+      <c r="E9" s="2">
+        <v>45211</v>
       </c>
     </row>
   </sheetData>

--- a/Leetcode problem tracker.xlsx
+++ b/Leetcode problem tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Coding\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EA62463-FE95-49F5-AC4C-DBEAE0AF1964}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E677FF37-F387-477D-8EC3-7E8F545EEE50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{365DB2E8-E54E-499E-9AF1-AA44A1C62DEA}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="125">
   <si>
     <t>Medium</t>
   </si>
@@ -401,6 +401,9 @@
   </si>
   <si>
     <t>Cyclic Sort</t>
+  </si>
+  <si>
+    <t>Math</t>
   </si>
 </sst>
 </file>
@@ -783,8 +786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C0ADE24-140B-4EE6-A32B-01D05623BF43}">
   <dimension ref="A1:E110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="D112" sqref="D112"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -837,6 +840,12 @@
       <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="D4" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E4" s="2">
+        <v>45219</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
@@ -848,6 +857,12 @@
       <c r="C5" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="D5" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E5" s="2">
+        <v>45219</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
@@ -1125,6 +1140,12 @@
       <c r="C28" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="D28" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E28" s="2">
+        <v>45219</v>
+      </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
@@ -1458,6 +1479,12 @@
       <c r="C55" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="D55" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E55" s="2">
+        <v>45219</v>
+      </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
@@ -1574,6 +1601,12 @@
       <c r="C65" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="D65" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E65" s="2">
+        <v>45219</v>
+      </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
@@ -2108,6 +2141,12 @@
       </c>
       <c r="C106" s="1" t="s">
         <v>1</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E106" s="2">
+        <v>45219</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">

--- a/Leetcode problem tracker.xlsx
+++ b/Leetcode problem tracker.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Coding\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E677FF37-F387-477D-8EC3-7E8F545EEE50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08388B2E-0AFA-4444-B7F0-3EB1C2777B12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{365DB2E8-E54E-499E-9AF1-AA44A1C62DEA}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="132">
   <si>
     <t>Medium</t>
   </si>
@@ -404,6 +404,27 @@
   </si>
   <si>
     <t>Math</t>
+  </si>
+  <si>
+    <t>Recursion</t>
+  </si>
+  <si>
+    <t>Binary Search recursion</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Bubble Sort recursion</t>
+  </si>
+  <si>
+    <t>Selection Sort recursion</t>
+  </si>
+  <si>
+    <t>Merge Sort</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
   </si>
 </sst>
 </file>
@@ -784,10 +805,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C0ADE24-140B-4EE6-A32B-01D05623BF43}">
-  <dimension ref="A1:E110"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:E123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="G115" sqref="G115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -819,7 +841,8 @@
         <v>112</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -830,7 +853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>7</v>
       </c>
@@ -844,10 +867,10 @@
         <v>124</v>
       </c>
       <c r="E4" s="2">
-        <v>45219</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+        <v>45273</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>9</v>
       </c>
@@ -861,10 +884,10 @@
         <v>124</v>
       </c>
       <c r="E5" s="2">
-        <v>45219</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+        <v>45273</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>13</v>
       </c>
@@ -875,7 +898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>14</v>
       </c>
@@ -886,7 +909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>17</v>
       </c>
@@ -897,7 +920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>20</v>
       </c>
@@ -908,7 +931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>21</v>
       </c>
@@ -919,7 +942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>25</v>
       </c>
@@ -930,7 +953,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>26</v>
       </c>
@@ -941,7 +964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>27</v>
       </c>
@@ -952,7 +975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>28</v>
       </c>
@@ -963,7 +986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>29</v>
       </c>
@@ -987,9 +1010,7 @@
       <c r="D16" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="E16" s="2">
-        <v>45196</v>
-      </c>
+      <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
@@ -1005,7 +1026,7 @@
         <v>114</v>
       </c>
       <c r="E17" s="2">
-        <v>45196</v>
+        <v>45273</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -1022,10 +1043,10 @@
         <v>114</v>
       </c>
       <c r="E18" s="2">
-        <v>45196</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+        <v>45273</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>36</v>
       </c>
@@ -1036,7 +1057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>37</v>
       </c>
@@ -1047,7 +1068,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>41</v>
       </c>
@@ -1061,10 +1082,10 @@
         <v>123</v>
       </c>
       <c r="E21" s="2">
-        <v>45211</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+        <v>45273</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>46</v>
       </c>
@@ -1075,7 +1096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>47</v>
       </c>
@@ -1086,7 +1107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>51</v>
       </c>
@@ -1097,7 +1118,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>52</v>
       </c>
@@ -1108,7 +1129,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>58</v>
       </c>
@@ -1119,7 +1140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>61</v>
       </c>
@@ -1130,7 +1151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>66</v>
       </c>
@@ -1144,10 +1165,10 @@
         <v>124</v>
       </c>
       <c r="E28" s="2">
-        <v>45219</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+        <v>45273</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>67</v>
       </c>
@@ -1172,10 +1193,10 @@
         <v>114</v>
       </c>
       <c r="E30" s="2">
-        <v>45196</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+        <v>45273</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>73</v>
       </c>
@@ -1200,10 +1221,10 @@
         <v>114</v>
       </c>
       <c r="E32" s="2">
-        <v>45196</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+        <v>45273</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>75</v>
       </c>
@@ -1214,7 +1235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>78</v>
       </c>
@@ -1238,11 +1259,9 @@
       <c r="D35" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="E35" s="2">
-        <v>45211</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E35" s="2"/>
+    </row>
+    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>83</v>
       </c>
@@ -1253,7 +1272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>88</v>
       </c>
@@ -1264,7 +1283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>90</v>
       </c>
@@ -1275,7 +1294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>92</v>
       </c>
@@ -1286,7 +1305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>118</v>
       </c>
@@ -1297,7 +1316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>119</v>
       </c>
@@ -1308,7 +1327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>125</v>
       </c>
@@ -1319,7 +1338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>136</v>
       </c>
@@ -1330,7 +1349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>141</v>
       </c>
@@ -1341,7 +1360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>142</v>
       </c>
@@ -1352,7 +1371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>143</v>
       </c>
@@ -1363,7 +1382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>148</v>
       </c>
@@ -1387,9 +1406,7 @@
       <c r="D48" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="E48" s="2">
-        <v>45196</v>
-      </c>
+      <c r="E48" s="2"/>
     </row>
     <row r="49" spans="1:5" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A49" s="1">
@@ -1404,9 +1421,7 @@
       <c r="D49" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="E49" s="2">
-        <v>45211</v>
-      </c>
+      <c r="E49" s="2"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="5">
@@ -1422,10 +1437,10 @@
         <v>114</v>
       </c>
       <c r="E50" s="2">
-        <v>45196</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+        <v>45273</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>169</v>
       </c>
@@ -1436,7 +1451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>172</v>
       </c>
@@ -1447,7 +1462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>183</v>
       </c>
@@ -1458,7 +1473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>202</v>
       </c>
@@ -1469,7 +1484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>204</v>
       </c>
@@ -1483,10 +1498,10 @@
         <v>124</v>
       </c>
       <c r="E55" s="2">
-        <v>45219</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+        <v>45273</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>206</v>
       </c>
@@ -1497,7 +1512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>215</v>
       </c>
@@ -1508,7 +1523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>217</v>
       </c>
@@ -1519,7 +1534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>229</v>
       </c>
@@ -1530,7 +1545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>231</v>
       </c>
@@ -1541,7 +1556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>232</v>
       </c>
@@ -1552,7 +1567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>234</v>
       </c>
@@ -1577,10 +1592,10 @@
         <v>114</v>
       </c>
       <c r="E63" s="2">
-        <v>45196</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+        <v>45273</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>242</v>
       </c>
@@ -1591,7 +1606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>258</v>
       </c>
@@ -1605,10 +1620,10 @@
         <v>124</v>
       </c>
       <c r="E65" s="2">
-        <v>45219</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+        <v>45273</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>268</v>
       </c>
@@ -1622,10 +1637,10 @@
         <v>123</v>
       </c>
       <c r="E66" s="2">
-        <v>45211</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+        <v>45273</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>287</v>
       </c>
@@ -1639,10 +1654,10 @@
         <v>123</v>
       </c>
       <c r="E67" s="2">
-        <v>45211</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+        <v>45273</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>326</v>
       </c>
@@ -1653,7 +1668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>338</v>
       </c>
@@ -1664,7 +1679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>342</v>
       </c>
@@ -1675,7 +1690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>344</v>
       </c>
@@ -1686,7 +1701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>345</v>
       </c>
@@ -1711,7 +1726,7 @@
         <v>114</v>
       </c>
       <c r="E73" s="2">
-        <v>45196</v>
+        <v>45273</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
@@ -1728,10 +1743,10 @@
         <v>114</v>
       </c>
       <c r="E74" s="2">
-        <v>45196</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+        <v>45273</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>389</v>
       </c>
@@ -1755,11 +1770,9 @@
       <c r="D76" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="E76" s="2">
-        <v>45196</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E76" s="2"/>
+    </row>
+    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>441</v>
       </c>
@@ -1770,7 +1783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>442</v>
       </c>
@@ -1784,10 +1797,10 @@
         <v>123</v>
       </c>
       <c r="E78" s="2">
-        <v>45211</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+        <v>45273</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>448</v>
       </c>
@@ -1801,10 +1814,10 @@
         <v>123</v>
       </c>
       <c r="E79" s="2">
-        <v>45211</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+        <v>45273</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>500</v>
       </c>
@@ -1815,7 +1828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>509</v>
       </c>
@@ -1825,8 +1838,14 @@
       <c r="C81" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D81" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E81" s="2">
+        <v>45273</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>633</v>
       </c>
@@ -1837,7 +1856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>645</v>
       </c>
@@ -1851,7 +1870,7 @@
         <v>123</v>
       </c>
       <c r="E83" s="2">
-        <v>45211</v>
+        <v>45273</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
@@ -1868,7 +1887,7 @@
         <v>114</v>
       </c>
       <c r="E84" s="2">
-        <v>45196</v>
+        <v>45273</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
@@ -1885,10 +1904,10 @@
         <v>114</v>
       </c>
       <c r="E85" s="2">
-        <v>45196</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+        <v>45273</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>804</v>
       </c>
@@ -1899,7 +1918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>832</v>
       </c>
@@ -1910,7 +1929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>844</v>
       </c>
@@ -1935,10 +1954,10 @@
         <v>114</v>
       </c>
       <c r="E89" s="2">
-        <v>45196</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+        <v>45273</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>867</v>
       </c>
@@ -1949,7 +1968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>876</v>
       </c>
@@ -1960,7 +1979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>921</v>
       </c>
@@ -1971,7 +1990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>961</v>
       </c>
@@ -1982,7 +2001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>1016</v>
       </c>
@@ -2007,10 +2026,10 @@
         <v>114</v>
       </c>
       <c r="E95" s="2">
-        <v>45196</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+        <v>45273</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>1137</v>
       </c>
@@ -2021,7 +2040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>1290</v>
       </c>
@@ -2032,7 +2051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>1295</v>
       </c>
@@ -2046,10 +2065,10 @@
         <v>113</v>
       </c>
       <c r="E98" s="2">
-        <v>45196</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+        <v>45273</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>1342</v>
       </c>
@@ -2059,8 +2078,14 @@
       <c r="C99" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D99" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E99" s="2">
+        <v>45273</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>1346</v>
       </c>
@@ -2071,7 +2096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>1492</v>
       </c>
@@ -2082,7 +2107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>1572</v>
       </c>
@@ -2093,7 +2118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>1672</v>
       </c>
@@ -2107,10 +2132,10 @@
         <v>113</v>
       </c>
       <c r="E103" s="2">
-        <v>45196</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+        <v>45273</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>1929</v>
       </c>
@@ -2121,7 +2146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>2221</v>
       </c>
@@ -2132,7 +2157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>2235</v>
       </c>
@@ -2146,10 +2171,10 @@
         <v>124</v>
       </c>
       <c r="E106" s="2">
-        <v>45219</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+        <v>45273</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>2293</v>
       </c>
@@ -2160,7 +2185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>2319</v>
       </c>
@@ -2171,7 +2196,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="110" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>2427</v>
       </c>
@@ -2182,8 +2208,19 @@
         <v>1</v>
       </c>
     </row>
+    <row r="123" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E123" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="D1:D110" xr:uid="{3C0ADE24-140B-4EE6-A32B-01D05623BF43}"/>
+  <autoFilter ref="D1:D110" xr:uid="{3C0ADE24-140B-4EE6-A32B-01D05623BF43}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Binary Search"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2191,10 +2228,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9012F27-8156-41DB-A126-E4212B4AC01C}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2247,7 +2284,7 @@
         <v>114</v>
       </c>
       <c r="E3" s="2">
-        <v>45197</v>
+        <v>45273</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -2261,7 +2298,7 @@
         <v>114</v>
       </c>
       <c r="E4" s="2">
-        <v>45197</v>
+        <v>45273</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -2275,7 +2312,7 @@
         <v>114</v>
       </c>
       <c r="E5" s="2">
-        <v>45197</v>
+        <v>45273</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -2331,10 +2368,70 @@
         <v>123</v>
       </c>
       <c r="E9" s="2">
-        <v>45211</v>
+        <v>45273</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>126</v>
+      </c>
+      <c r="D10" t="s">
+        <v>125</v>
+      </c>
+      <c r="E10" s="2">
+        <v>45230</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>128</v>
+      </c>
+      <c r="C11" t="s">
+        <v>127</v>
+      </c>
+      <c r="D11" t="s">
+        <v>125</v>
+      </c>
+      <c r="E11" s="2">
+        <v>45233</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>129</v>
+      </c>
+      <c r="D12" t="s">
+        <v>125</v>
+      </c>
+      <c r="E12" s="2">
+        <v>45233</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>130</v>
+      </c>
+      <c r="D13" t="s">
+        <v>125</v>
+      </c>
+      <c r="E13" s="2">
+        <v>45233</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Leetcode problem tracker.xlsx
+++ b/Leetcode problem tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Coding\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08388B2E-0AFA-4444-B7F0-3EB1C2777B12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CE85E5D-9C69-48B4-9ADC-DD0D472098DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{365DB2E8-E54E-499E-9AF1-AA44A1C62DEA}"/>
   </bookViews>
@@ -809,7 +809,7 @@
   <dimension ref="A1:E123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G115" sqref="G115"/>
+      <selection activeCell="G74" sqref="G74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1010,7 +1010,9 @@
       <c r="D16" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="E16" s="2"/>
+      <c r="E16" s="2">
+        <v>45292</v>
+      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
@@ -1406,7 +1408,9 @@
       <c r="D48" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="E48" s="2"/>
+      <c r="E48" s="2">
+        <v>45292</v>
+      </c>
     </row>
     <row r="49" spans="1:5" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A49" s="1">
@@ -1770,7 +1774,9 @@
       <c r="D76" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="E76" s="2"/>
+      <c r="E76" s="2">
+        <v>45292</v>
+      </c>
     </row>
     <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1">

--- a/Leetcode problem tracker.xlsx
+++ b/Leetcode problem tracker.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Coding\Leetcode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Home\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CE85E5D-9C69-48B4-9ADC-DD0D472098DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E63E74BA-01C6-4D3D-B2A8-7A10EE0D21C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{365DB2E8-E54E-499E-9AF1-AA44A1C62DEA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{365DB2E8-E54E-499E-9AF1-AA44A1C62DEA}"/>
   </bookViews>
   <sheets>
     <sheet name="Problems" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="133">
   <si>
     <t>Medium</t>
   </si>
@@ -425,6 +425,9 @@
   </si>
   <si>
     <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>19/1/2024</t>
   </si>
 </sst>
 </file>
@@ -809,22 +812,22 @@
   <dimension ref="A1:E123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G74" sqref="G74"/>
+      <selection activeCell="F73" activeCellId="1" sqref="E49 F73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.88671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="45.6640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.88671875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="1"/>
-    <col min="7" max="7" width="16.6640625" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="7.90625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="45.6328125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="16.36328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.08984375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.90625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.90625" style="1"/>
+    <col min="7" max="7" width="16.6328125" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -841,8 +844,8 @@
         <v>112</v>
       </c>
     </row>
-    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -853,7 +856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>7</v>
       </c>
@@ -870,7 +873,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>9</v>
       </c>
@@ -887,7 +890,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>13</v>
       </c>
@@ -898,7 +901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>14</v>
       </c>
@@ -909,7 +912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>17</v>
       </c>
@@ -920,7 +923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>20</v>
       </c>
@@ -931,7 +934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>21</v>
       </c>
@@ -942,7 +945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>25</v>
       </c>
@@ -953,7 +956,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>26</v>
       </c>
@@ -964,7 +967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>27</v>
       </c>
@@ -975,7 +978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>28</v>
       </c>
@@ -986,7 +989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>29</v>
       </c>
@@ -997,7 +1000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
         <v>33</v>
       </c>
@@ -1014,7 +1017,7 @@
         <v>45292</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>34</v>
       </c>
@@ -1031,7 +1034,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>35</v>
       </c>
@@ -1048,7 +1051,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>36</v>
       </c>
@@ -1059,7 +1062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>37</v>
       </c>
@@ -1070,7 +1073,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>41</v>
       </c>
@@ -1087,7 +1090,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>46</v>
       </c>
@@ -1098,7 +1101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>47</v>
       </c>
@@ -1109,7 +1112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>51</v>
       </c>
@@ -1120,7 +1123,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>52</v>
       </c>
@@ -1131,7 +1134,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>58</v>
       </c>
@@ -1142,7 +1145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>61</v>
       </c>
@@ -1153,7 +1156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>66</v>
       </c>
@@ -1170,7 +1173,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>67</v>
       </c>
@@ -1181,7 +1184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>69</v>
       </c>
@@ -1198,7 +1201,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>73</v>
       </c>
@@ -1209,7 +1212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>74</v>
       </c>
@@ -1226,7 +1229,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>75</v>
       </c>
@@ -1237,7 +1240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>78</v>
       </c>
@@ -1248,7 +1251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="5">
         <v>81</v>
       </c>
@@ -1261,9 +1264,11 @@
       <c r="D35" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="E35" s="2"/>
-    </row>
-    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E35" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>83</v>
       </c>
@@ -1274,7 +1279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>88</v>
       </c>
@@ -1285,7 +1290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>90</v>
       </c>
@@ -1296,7 +1301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>92</v>
       </c>
@@ -1307,7 +1312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>118</v>
       </c>
@@ -1318,7 +1323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>119</v>
       </c>
@@ -1329,7 +1334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>125</v>
       </c>
@@ -1340,7 +1345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>136</v>
       </c>
@@ -1351,7 +1356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>141</v>
       </c>
@@ -1362,7 +1367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>142</v>
       </c>
@@ -1373,7 +1378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>143</v>
       </c>
@@ -1384,7 +1389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>148</v>
       </c>
@@ -1395,7 +1400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A48" s="1">
         <v>153</v>
       </c>
@@ -1412,7 +1417,7 @@
         <v>45292</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A49" s="1">
         <v>154</v>
       </c>
@@ -1425,9 +1430,11 @@
       <c r="D49" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="E49" s="2"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E49" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="5">
         <v>162</v>
       </c>
@@ -1444,7 +1451,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>169</v>
       </c>
@@ -1455,7 +1462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>172</v>
       </c>
@@ -1466,7 +1473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>183</v>
       </c>
@@ -1477,7 +1484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>202</v>
       </c>
@@ -1488,7 +1495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>204</v>
       </c>
@@ -1505,7 +1512,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>206</v>
       </c>
@@ -1516,7 +1523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>215</v>
       </c>
@@ -1527,7 +1534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>217</v>
       </c>
@@ -1538,7 +1545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>229</v>
       </c>
@@ -1549,7 +1556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>231</v>
       </c>
@@ -1560,7 +1567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>232</v>
       </c>
@@ -1571,7 +1578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>234</v>
       </c>
@@ -1582,7 +1589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>240</v>
       </c>
@@ -1599,7 +1606,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>242</v>
       </c>
@@ -1610,7 +1617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>258</v>
       </c>
@@ -1627,7 +1634,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>268</v>
       </c>
@@ -1644,7 +1651,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>287</v>
       </c>
@@ -1661,7 +1668,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>326</v>
       </c>
@@ -1672,7 +1679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>338</v>
       </c>
@@ -1683,7 +1690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>342</v>
       </c>
@@ -1694,7 +1701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>344</v>
       </c>
@@ -1705,7 +1712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>345</v>
       </c>
@@ -1716,7 +1723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>367</v>
       </c>
@@ -1733,7 +1740,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>374</v>
       </c>
@@ -1750,7 +1757,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>389</v>
       </c>
@@ -1761,7 +1768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" s="5">
         <v>410</v>
       </c>
@@ -1778,7 +1785,7 @@
         <v>45292</v>
       </c>
     </row>
-    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>441</v>
       </c>
@@ -1789,7 +1796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>442</v>
       </c>
@@ -1806,7 +1813,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>448</v>
       </c>
@@ -1823,7 +1830,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>500</v>
       </c>
@@ -1834,7 +1841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>509</v>
       </c>
@@ -1851,7 +1858,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>633</v>
       </c>
@@ -1862,7 +1869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>645</v>
       </c>
@@ -1879,7 +1886,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>704</v>
       </c>
@@ -1896,7 +1903,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <v>744</v>
       </c>
@@ -1913,7 +1920,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <v>804</v>
       </c>
@@ -1924,7 +1931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <v>832</v>
       </c>
@@ -1935,7 +1942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>844</v>
       </c>
@@ -1946,7 +1953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <v>852</v>
       </c>
@@ -1963,7 +1970,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <v>867</v>
       </c>
@@ -1974,7 +1981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <v>876</v>
       </c>
@@ -1985,7 +1992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <v>921</v>
       </c>
@@ -1996,7 +2003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <v>961</v>
       </c>
@@ -2007,7 +2014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
         <v>1016</v>
       </c>
@@ -2018,7 +2025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
         <v>1095</v>
       </c>
@@ -2035,7 +2042,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="96" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
         <v>1137</v>
       </c>
@@ -2046,7 +2053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
         <v>1290</v>
       </c>
@@ -2057,7 +2064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
         <v>1295</v>
       </c>
@@ -2074,7 +2081,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="99" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
         <v>1342</v>
       </c>
@@ -2091,7 +2098,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="100" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
         <v>1346</v>
       </c>
@@ -2102,7 +2109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
         <v>1492</v>
       </c>
@@ -2113,7 +2120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
         <v>1572</v>
       </c>
@@ -2124,7 +2131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
         <v>1672</v>
       </c>
@@ -2141,7 +2148,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="104" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
         <v>1929</v>
       </c>
@@ -2152,7 +2159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
         <v>2221</v>
       </c>
@@ -2163,7 +2170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
         <v>2235</v>
       </c>
@@ -2180,7 +2187,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="107" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
         <v>2293</v>
       </c>
@@ -2191,7 +2198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A108" s="1">
         <v>2319</v>
       </c>
@@ -2202,8 +2209,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:5" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="110" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="110" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
         <v>2427</v>
       </c>
@@ -2214,7 +2221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="123" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E123" s="1" t="s">
         <v>131</v>
       </c>
@@ -2240,15 +2247,15 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="21.6640625" customWidth="1"/>
-    <col min="3" max="3" width="11.21875" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" customWidth="1"/>
-    <col min="5" max="5" width="13.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.6328125" customWidth="1"/>
+    <col min="3" max="3" width="11.1796875" customWidth="1"/>
+    <col min="4" max="4" width="16.6328125" customWidth="1"/>
+    <col min="5" max="5" width="13.81640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -2265,7 +2272,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2279,7 +2286,7 @@
         <v>45196</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2293,7 +2300,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2307,7 +2314,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2321,7 +2328,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2335,7 +2342,7 @@
         <v>45213</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2349,7 +2356,7 @@
         <v>45213</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2363,7 +2370,7 @@
         <v>45213</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2377,7 +2384,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2391,7 +2398,7 @@
         <v>45230</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2408,7 +2415,7 @@
         <v>45233</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2422,7 +2429,7 @@
         <v>45233</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>

--- a/Leetcode problem tracker.xlsx
+++ b/Leetcode problem tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Home\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E63E74BA-01C6-4D3D-B2A8-7A10EE0D21C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F0DA827-34D5-451A-9897-EA193B119BE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{365DB2E8-E54E-499E-9AF1-AA44A1C62DEA}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="137">
   <si>
     <t>Medium</t>
   </si>
@@ -428,6 +428,18 @@
   </si>
   <si>
     <t>19/1/2024</t>
+  </si>
+  <si>
+    <t>Array</t>
+  </si>
+  <si>
+    <t>Last solved</t>
+  </si>
+  <si>
+    <t>Dictionary</t>
+  </si>
+  <si>
+    <t>Two Pointers</t>
   </si>
 </sst>
 </file>
@@ -808,11 +820,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C0ADE24-140B-4EE6-A32B-01D05623BF43}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:E123"/>
+  <dimension ref="A1:F123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F73" activeCellId="1" sqref="E49 F73"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -827,7 +838,7 @@
     <col min="8" max="16384" width="8.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -841,11 +852,13 @@
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -855,8 +868,14 @@
       <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="D3" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E3" s="2">
+        <v>45384</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>7</v>
       </c>
@@ -873,7 +892,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>9</v>
       </c>
@@ -890,7 +909,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>13</v>
       </c>
@@ -901,7 +920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>14</v>
       </c>
@@ -912,7 +931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>17</v>
       </c>
@@ -923,7 +942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>20</v>
       </c>
@@ -934,7 +953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>21</v>
       </c>
@@ -945,7 +964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>25</v>
       </c>
@@ -956,7 +975,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>26</v>
       </c>
@@ -967,7 +986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>27</v>
       </c>
@@ -978,7 +997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>28</v>
       </c>
@@ -989,7 +1008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>29</v>
       </c>
@@ -1000,7 +1019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
         <v>33</v>
       </c>
@@ -1051,7 +1070,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>36</v>
       </c>
@@ -1062,7 +1081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>37</v>
       </c>
@@ -1073,7 +1092,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>41</v>
       </c>
@@ -1090,7 +1109,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>46</v>
       </c>
@@ -1101,7 +1120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>47</v>
       </c>
@@ -1112,7 +1131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>51</v>
       </c>
@@ -1123,7 +1142,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>52</v>
       </c>
@@ -1134,7 +1153,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>58</v>
       </c>
@@ -1145,7 +1164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>61</v>
       </c>
@@ -1156,7 +1175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>66</v>
       </c>
@@ -1173,7 +1192,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>67</v>
       </c>
@@ -1201,7 +1220,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>73</v>
       </c>
@@ -1229,7 +1248,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>75</v>
       </c>
@@ -1240,7 +1259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>78</v>
       </c>
@@ -1268,7 +1287,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>83</v>
       </c>
@@ -1279,7 +1298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>88</v>
       </c>
@@ -1290,7 +1309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>90</v>
       </c>
@@ -1301,7 +1320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>92</v>
       </c>
@@ -1312,7 +1331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>118</v>
       </c>
@@ -1323,7 +1342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>119</v>
       </c>
@@ -1334,7 +1353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>125</v>
       </c>
@@ -1345,7 +1364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>136</v>
       </c>
@@ -1356,7 +1375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>141</v>
       </c>
@@ -1367,7 +1386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>142</v>
       </c>
@@ -1378,7 +1397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>143</v>
       </c>
@@ -1389,7 +1408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>148</v>
       </c>
@@ -1451,7 +1470,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>169</v>
       </c>
@@ -1462,7 +1481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>172</v>
       </c>
@@ -1473,7 +1492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>183</v>
       </c>
@@ -1484,7 +1503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>202</v>
       </c>
@@ -1494,8 +1513,14 @@
       <c r="C54" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="D54" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E54" s="2">
+        <v>45384</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>204</v>
       </c>
@@ -1512,7 +1537,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>206</v>
       </c>
@@ -1523,7 +1548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>215</v>
       </c>
@@ -1534,7 +1559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>217</v>
       </c>
@@ -1545,7 +1570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>229</v>
       </c>
@@ -1556,7 +1581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>231</v>
       </c>
@@ -1567,7 +1592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>232</v>
       </c>
@@ -1578,7 +1603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>234</v>
       </c>
@@ -1606,7 +1631,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>242</v>
       </c>
@@ -1617,7 +1642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>258</v>
       </c>
@@ -1634,7 +1659,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>268</v>
       </c>
@@ -1651,7 +1676,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>287</v>
       </c>
@@ -1668,7 +1693,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>326</v>
       </c>
@@ -1679,7 +1704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>338</v>
       </c>
@@ -1690,7 +1715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>342</v>
       </c>
@@ -1701,7 +1726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>344</v>
       </c>
@@ -1712,7 +1737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>345</v>
       </c>
@@ -1757,7 +1782,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>389</v>
       </c>
@@ -1785,7 +1810,7 @@
         <v>45292</v>
       </c>
     </row>
-    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>441</v>
       </c>
@@ -1796,7 +1821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>442</v>
       </c>
@@ -1813,7 +1838,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>448</v>
       </c>
@@ -1830,7 +1855,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>500</v>
       </c>
@@ -1841,7 +1866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>509</v>
       </c>
@@ -1858,7 +1883,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>633</v>
       </c>
@@ -1869,7 +1894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>645</v>
       </c>
@@ -1920,7 +1945,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <v>804</v>
       </c>
@@ -1931,7 +1956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <v>832</v>
       </c>
@@ -1942,7 +1967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>844</v>
       </c>
@@ -1970,7 +1995,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <v>867</v>
       </c>
@@ -1980,8 +2005,14 @@
       <c r="C90" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="D90" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E90" s="2">
+        <v>45384</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <v>876</v>
       </c>
@@ -1992,7 +2023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <v>921</v>
       </c>
@@ -2003,7 +2034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <v>961</v>
       </c>
@@ -2014,7 +2045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
         <v>1016</v>
       </c>
@@ -2042,7 +2073,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="96" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
         <v>1137</v>
       </c>
@@ -2053,7 +2084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
         <v>1290</v>
       </c>
@@ -2064,7 +2095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
         <v>1295</v>
       </c>
@@ -2081,7 +2112,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="99" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
         <v>1342</v>
       </c>
@@ -2098,7 +2129,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="100" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
         <v>1346</v>
       </c>
@@ -2109,7 +2140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
         <v>1492</v>
       </c>
@@ -2120,7 +2151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
         <v>1572</v>
       </c>
@@ -2130,8 +2161,14 @@
       <c r="C102" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="D102" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E102" s="2">
+        <v>45384</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
         <v>1672</v>
       </c>
@@ -2148,7 +2185,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="104" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
         <v>1929</v>
       </c>
@@ -2159,7 +2196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
         <v>2221</v>
       </c>
@@ -2170,7 +2207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
         <v>2235</v>
       </c>
@@ -2187,7 +2224,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="107" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
         <v>2293</v>
       </c>
@@ -2198,7 +2235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A108" s="1">
         <v>2319</v>
       </c>
@@ -2209,8 +2246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:5" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="110" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
         <v>2427</v>
       </c>
@@ -2227,13 +2263,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="D1:D110" xr:uid="{3C0ADE24-140B-4EE6-A32B-01D05623BF43}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="Binary Search"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="D1:D110" xr:uid="{3C0ADE24-140B-4EE6-A32B-01D05623BF43}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Leetcode problem tracker.xlsx
+++ b/Leetcode problem tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Home\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F0DA827-34D5-451A-9897-EA193B119BE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EDD98AB-F35C-40F7-8919-A19C0AB5871C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{365DB2E8-E54E-499E-9AF1-AA44A1C62DEA}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Algos" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Problems!$D$1:$D$110</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Problems!$E$1:$E$110</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="140">
   <si>
     <t>Medium</t>
   </si>
@@ -436,10 +436,19 @@
     <t>Last solved</t>
   </si>
   <si>
-    <t>Dictionary</t>
-  </si>
-  <si>
     <t>Two Pointers</t>
+  </si>
+  <si>
+    <t>13/02/2024</t>
+  </si>
+  <si>
+    <t>Hashtable</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>Leetcode Topic</t>
   </si>
 </sst>
 </file>
@@ -820,10 +829,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C0ADE24-140B-4EE6-A32B-01D05623BF43}">
-  <dimension ref="A1:F123"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:G123"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="E106" sqref="E106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -831,14 +841,14 @@
     <col min="1" max="1" width="7.90625" style="1" customWidth="1"/>
     <col min="2" max="2" width="45.6328125" style="3" customWidth="1"/>
     <col min="3" max="3" width="16.36328125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.08984375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.90625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.90625" style="1"/>
-    <col min="7" max="7" width="16.6328125" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.90625" style="1"/>
+    <col min="4" max="5" width="19.08984375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.90625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.90625" style="1"/>
+    <col min="8" max="8" width="16.6328125" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -852,13 +862,17 @@
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -869,13 +883,16 @@
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="E3" s="2">
+        <v>137</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F3" s="2">
         <v>45384</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>7</v>
       </c>
@@ -888,11 +905,14 @@
       <c r="D4" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="E4" s="2">
-        <v>45273</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E4" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F4" s="2">
+        <v>45273</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>9</v>
       </c>
@@ -905,11 +925,14 @@
       <c r="D5" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="E5" s="2">
-        <v>45273</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E5" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F5" s="2">
+        <v>45273</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>13</v>
       </c>
@@ -920,7 +943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>14</v>
       </c>
@@ -930,8 +953,17 @@
       <c r="C7" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D7" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>17</v>
       </c>
@@ -942,7 +974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>20</v>
       </c>
@@ -953,7 +985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>21</v>
       </c>
@@ -964,7 +996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>25</v>
       </c>
@@ -975,7 +1007,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>26</v>
       </c>
@@ -986,7 +1018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>27</v>
       </c>
@@ -997,7 +1029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>28</v>
       </c>
@@ -1008,7 +1040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>29</v>
       </c>
@@ -1019,7 +1051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
         <v>33</v>
       </c>
@@ -1032,11 +1064,14 @@
       <c r="D16" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F16" s="2">
         <v>45292</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>34</v>
       </c>
@@ -1049,11 +1084,14 @@
       <c r="D17" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="E17" s="2">
-        <v>45273</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E17" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F17" s="2">
+        <v>45273</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>35</v>
       </c>
@@ -1066,11 +1104,14 @@
       <c r="D18" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="E18" s="2">
-        <v>45273</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E18" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F18" s="2">
+        <v>45273</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>36</v>
       </c>
@@ -1081,7 +1122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>37</v>
       </c>
@@ -1092,7 +1133,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>41</v>
       </c>
@@ -1105,11 +1146,14 @@
       <c r="D21" t="s">
         <v>123</v>
       </c>
-      <c r="E21" s="2">
-        <v>45273</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E21" t="s">
+        <v>133</v>
+      </c>
+      <c r="F21" s="2">
+        <v>45273</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>46</v>
       </c>
@@ -1120,7 +1164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>47</v>
       </c>
@@ -1131,7 +1175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>51</v>
       </c>
@@ -1142,7 +1186,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>52</v>
       </c>
@@ -1153,7 +1197,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>58</v>
       </c>
@@ -1164,7 +1208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>61</v>
       </c>
@@ -1175,7 +1219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>66</v>
       </c>
@@ -1188,11 +1232,14 @@
       <c r="D28" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="E28" s="2">
-        <v>45273</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E28" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F28" s="2">
+        <v>45273</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>67</v>
       </c>
@@ -1203,7 +1250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>69</v>
       </c>
@@ -1216,11 +1263,14 @@
       <c r="D30" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="E30" s="2">
-        <v>45273</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E30" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F30" s="2">
+        <v>45273</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>73</v>
       </c>
@@ -1231,7 +1281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>74</v>
       </c>
@@ -1244,11 +1294,14 @@
       <c r="D32" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="E32" s="2">
-        <v>45273</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E32" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F32" s="2">
+        <v>45273</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>75</v>
       </c>
@@ -1259,7 +1312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>78</v>
       </c>
@@ -1270,7 +1323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="5">
         <v>81</v>
       </c>
@@ -1283,11 +1336,14 @@
       <c r="D35" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="E35" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F35" s="2" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>83</v>
       </c>
@@ -1298,7 +1354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>88</v>
       </c>
@@ -1309,7 +1365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>90</v>
       </c>
@@ -1320,7 +1376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>92</v>
       </c>
@@ -1331,7 +1387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>118</v>
       </c>
@@ -1342,7 +1398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>119</v>
       </c>
@@ -1353,7 +1409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>125</v>
       </c>
@@ -1364,7 +1420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>136</v>
       </c>
@@ -1375,7 +1431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>141</v>
       </c>
@@ -1386,7 +1442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>142</v>
       </c>
@@ -1397,7 +1453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>143</v>
       </c>
@@ -1408,7 +1464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>148</v>
       </c>
@@ -1419,7 +1475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:6" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A48" s="1">
         <v>153</v>
       </c>
@@ -1432,11 +1488,14 @@
       <c r="D48" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="E48" s="2">
+      <c r="E48" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F48" s="2">
         <v>45292</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:6" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A49" s="1">
         <v>154</v>
       </c>
@@ -1449,11 +1508,14 @@
       <c r="D49" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="E49" s="2" t="s">
+      <c r="E49" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F49" s="2" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" s="5">
         <v>162</v>
       </c>
@@ -1466,11 +1528,14 @@
       <c r="D50" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="E50" s="2">
-        <v>45273</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E50" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F50" s="2">
+        <v>45273</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>169</v>
       </c>
@@ -1481,7 +1546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>172</v>
       </c>
@@ -1492,7 +1557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>183</v>
       </c>
@@ -1503,7 +1568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>202</v>
       </c>
@@ -1514,13 +1579,16 @@
         <v>1</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E54" s="2">
+        <v>135</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F54" s="2">
         <v>45384</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>204</v>
       </c>
@@ -1533,11 +1601,14 @@
       <c r="D55" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="E55" s="2">
-        <v>45273</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E55" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F55" s="2">
+        <v>45273</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>206</v>
       </c>
@@ -1548,7 +1619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>215</v>
       </c>
@@ -1559,7 +1630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>217</v>
       </c>
@@ -1570,7 +1641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>229</v>
       </c>
@@ -1581,7 +1652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>231</v>
       </c>
@@ -1592,7 +1663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>232</v>
       </c>
@@ -1603,7 +1674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>234</v>
       </c>
@@ -1614,7 +1685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>240</v>
       </c>
@@ -1627,11 +1698,14 @@
       <c r="D63" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="E63" s="2">
-        <v>45273</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E63" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F63" s="2">
+        <v>45273</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>242</v>
       </c>
@@ -1642,7 +1716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>258</v>
       </c>
@@ -1655,11 +1729,14 @@
       <c r="D65" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="E65" s="2">
-        <v>45273</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E65" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F65" s="2">
+        <v>45273</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>268</v>
       </c>
@@ -1672,11 +1749,14 @@
       <c r="D66" t="s">
         <v>123</v>
       </c>
-      <c r="E66" s="2">
-        <v>45273</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E66" t="s">
+        <v>133</v>
+      </c>
+      <c r="F66" s="2">
+        <v>45273</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>287</v>
       </c>
@@ -1689,11 +1769,14 @@
       <c r="D67" t="s">
         <v>123</v>
       </c>
-      <c r="E67" s="2">
-        <v>45273</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E67" t="s">
+        <v>133</v>
+      </c>
+      <c r="F67" s="2">
+        <v>45273</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>326</v>
       </c>
@@ -1704,7 +1787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>338</v>
       </c>
@@ -1715,7 +1798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>342</v>
       </c>
@@ -1726,7 +1809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>344</v>
       </c>
@@ -1737,7 +1820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>345</v>
       </c>
@@ -1748,7 +1831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>367</v>
       </c>
@@ -1761,11 +1844,14 @@
       <c r="D73" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="E73" s="2">
-        <v>45273</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E73" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F73" s="2">
+        <v>45273</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>374</v>
       </c>
@@ -1778,11 +1864,14 @@
       <c r="D74" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="E74" s="2">
-        <v>45273</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E74" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F74" s="2">
+        <v>45273</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>389</v>
       </c>
@@ -1793,7 +1882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76" s="5">
         <v>410</v>
       </c>
@@ -1806,11 +1895,14 @@
       <c r="D76" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="E76" s="2">
+      <c r="E76" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F76" s="2">
         <v>45292</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>441</v>
       </c>
@@ -1821,7 +1913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>442</v>
       </c>
@@ -1834,11 +1926,14 @@
       <c r="D78" t="s">
         <v>123</v>
       </c>
-      <c r="E78" s="2">
-        <v>45273</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E78" t="s">
+        <v>133</v>
+      </c>
+      <c r="F78" s="2">
+        <v>45273</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>448</v>
       </c>
@@ -1851,11 +1946,14 @@
       <c r="D79" t="s">
         <v>123</v>
       </c>
-      <c r="E79" s="2">
-        <v>45273</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E79" t="s">
+        <v>133</v>
+      </c>
+      <c r="F79" s="2">
+        <v>45273</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>500</v>
       </c>
@@ -1866,7 +1964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>509</v>
       </c>
@@ -1879,11 +1977,14 @@
       <c r="D81" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E81" s="2">
-        <v>45273</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E81" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F81" s="2">
+        <v>45273</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>633</v>
       </c>
@@ -1894,7 +1995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>645</v>
       </c>
@@ -1907,11 +2008,14 @@
       <c r="D83" t="s">
         <v>123</v>
       </c>
-      <c r="E83" s="2">
-        <v>45273</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E83" t="s">
+        <v>133</v>
+      </c>
+      <c r="F83" s="2">
+        <v>45273</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>704</v>
       </c>
@@ -1924,11 +2028,14 @@
       <c r="D84" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="E84" s="2">
-        <v>45273</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E84" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F84" s="2">
+        <v>45273</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <v>744</v>
       </c>
@@ -1941,11 +2048,14 @@
       <c r="D85" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="E85" s="2">
-        <v>45273</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E85" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F85" s="2">
+        <v>45273</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <v>804</v>
       </c>
@@ -1956,7 +2066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <v>832</v>
       </c>
@@ -1967,7 +2077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>844</v>
       </c>
@@ -1978,7 +2088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <v>852</v>
       </c>
@@ -1991,11 +2101,14 @@
       <c r="D89" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="E89" s="2">
-        <v>45273</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E89" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F89" s="2">
+        <v>45273</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <v>867</v>
       </c>
@@ -2008,11 +2121,14 @@
       <c r="D90" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="E90" s="2">
+      <c r="E90" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F90" s="2">
         <v>45384</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <v>876</v>
       </c>
@@ -2023,7 +2139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <v>921</v>
       </c>
@@ -2034,7 +2150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <v>961</v>
       </c>
@@ -2045,7 +2161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
         <v>1016</v>
       </c>
@@ -2056,7 +2172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
         <v>1095</v>
       </c>
@@ -2069,11 +2185,14 @@
       <c r="D95" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="E95" s="2">
-        <v>45273</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E95" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F95" s="2">
+        <v>45273</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
         <v>1137</v>
       </c>
@@ -2084,7 +2203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
         <v>1290</v>
       </c>
@@ -2095,7 +2214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
         <v>1295</v>
       </c>
@@ -2108,11 +2227,14 @@
       <c r="D98" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="E98" s="2">
-        <v>45273</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E98" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F98" s="2">
+        <v>45273</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
         <v>1342</v>
       </c>
@@ -2125,11 +2247,14 @@
       <c r="D99" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E99" s="2">
-        <v>45273</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E99" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F99" s="2">
+        <v>45273</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
         <v>1346</v>
       </c>
@@ -2140,7 +2265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
         <v>1492</v>
       </c>
@@ -2151,7 +2276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
         <v>1572</v>
       </c>
@@ -2164,11 +2289,14 @@
       <c r="D102" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="E102" s="2">
+      <c r="E102" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F102" s="2">
         <v>45384</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
         <v>1672</v>
       </c>
@@ -2181,11 +2309,14 @@
       <c r="D103" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="E103" s="2">
-        <v>45273</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E103" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F103" s="2">
+        <v>45273</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
         <v>1929</v>
       </c>
@@ -2196,7 +2327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
         <v>2221</v>
       </c>
@@ -2207,7 +2338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
         <v>2235</v>
       </c>
@@ -2220,11 +2351,14 @@
       <c r="D106" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="E106" s="2">
-        <v>45273</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E106" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F106" s="2">
+        <v>45273</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
         <v>2293</v>
       </c>
@@ -2235,7 +2369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A108" s="1">
         <v>2319</v>
       </c>
@@ -2246,7 +2380,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:6" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="110" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
         <v>2427</v>
       </c>
@@ -2257,13 +2392,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="5:5" x14ac:dyDescent="0.35">
-      <c r="E123" s="1" t="s">
+    <row r="123" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F123" s="1" t="s">
         <v>131</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="D1:D110" xr:uid="{3C0ADE24-140B-4EE6-A32B-01D05623BF43}"/>
+  <autoFilter ref="E1:E110" xr:uid="{3C0ADE24-140B-4EE6-A32B-01D05623BF43}">
+    <filterColumn colId="0">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Leetcode problem tracker.xlsx
+++ b/Leetcode problem tracker.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Home\Leetcode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Coding\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EDD98AB-F35C-40F7-8919-A19C0AB5871C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F255B15-D543-444B-9416-DD5C36400ED6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{365DB2E8-E54E-499E-9AF1-AA44A1C62DEA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{365DB2E8-E54E-499E-9AF1-AA44A1C62DEA}"/>
   </bookViews>
   <sheets>
     <sheet name="Problems" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="138">
   <si>
     <t>Medium</t>
   </si>
@@ -427,9 +427,6 @@
     <t xml:space="preserve">  </t>
   </si>
   <si>
-    <t>19/1/2024</t>
-  </si>
-  <si>
     <t>Array</t>
   </si>
   <si>
@@ -437,9 +434,6 @@
   </si>
   <si>
     <t>Two Pointers</t>
-  </si>
-  <si>
-    <t>13/02/2024</t>
   </si>
   <si>
     <t>Hashtable</t>
@@ -832,23 +826,23 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:G123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="E106" sqref="E106"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.90625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="45.6328125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="16.36328125" style="1" customWidth="1"/>
-    <col min="4" max="5" width="19.08984375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.90625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.90625" style="1"/>
-    <col min="8" max="8" width="16.6328125" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.90625" style="1"/>
+    <col min="1" max="1" width="7.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="45.6640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" style="1" customWidth="1"/>
+    <col min="4" max="5" width="19.109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.88671875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.77734375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -862,17 +856,17 @@
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -883,16 +877,16 @@
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F3" s="2">
-        <v>45384</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+        <v>45326</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>7</v>
       </c>
@@ -912,7 +906,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>9</v>
       </c>
@@ -932,7 +926,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>13</v>
       </c>
@@ -943,7 +937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>14</v>
       </c>
@@ -954,16 +948,16 @@
         <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F7" s="1" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="F7" s="2">
+        <v>45335</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>17</v>
       </c>
@@ -974,7 +968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>20</v>
       </c>
@@ -985,7 +979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>21</v>
       </c>
@@ -996,7 +990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>25</v>
       </c>
@@ -1007,7 +1001,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>26</v>
       </c>
@@ -1018,7 +1012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>27</v>
       </c>
@@ -1029,7 +1023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>28</v>
       </c>
@@ -1040,7 +1034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>29</v>
       </c>
@@ -1051,7 +1045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>33</v>
       </c>
@@ -1071,7 +1065,7 @@
         <v>45292</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>34</v>
       </c>
@@ -1091,7 +1085,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>35</v>
       </c>
@@ -1111,7 +1105,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>36</v>
       </c>
@@ -1122,7 +1116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>37</v>
       </c>
@@ -1133,7 +1127,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>41</v>
       </c>
@@ -1147,13 +1141,13 @@
         <v>123</v>
       </c>
       <c r="E21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F21" s="2">
         <v>45273</v>
       </c>
     </row>
-    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>46</v>
       </c>
@@ -1164,7 +1158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>47</v>
       </c>
@@ -1175,7 +1169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>51</v>
       </c>
@@ -1186,7 +1180,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>52</v>
       </c>
@@ -1197,7 +1191,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>58</v>
       </c>
@@ -1208,7 +1202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>61</v>
       </c>
@@ -1219,7 +1213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>66</v>
       </c>
@@ -1239,7 +1233,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>67</v>
       </c>
@@ -1250,7 +1244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>69</v>
       </c>
@@ -1270,7 +1264,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>73</v>
       </c>
@@ -1281,7 +1275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>74</v>
       </c>
@@ -1301,7 +1295,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>75</v>
       </c>
@@ -1312,7 +1306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>78</v>
       </c>
@@ -1323,7 +1317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="5">
         <v>81</v>
       </c>
@@ -1339,11 +1333,11 @@
       <c r="E35" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="F35" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="F35" s="2">
+        <v>45310</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>83</v>
       </c>
@@ -1354,7 +1348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>88</v>
       </c>
@@ -1365,7 +1359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>90</v>
       </c>
@@ -1376,7 +1370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>92</v>
       </c>
@@ -1387,7 +1381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>118</v>
       </c>
@@ -1398,7 +1392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>119</v>
       </c>
@@ -1409,7 +1403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>125</v>
       </c>
@@ -1420,7 +1414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>136</v>
       </c>
@@ -1431,7 +1425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>141</v>
       </c>
@@ -1442,7 +1436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>142</v>
       </c>
@@ -1453,7 +1447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>143</v>
       </c>
@@ -1464,7 +1458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>148</v>
       </c>
@@ -1475,7 +1469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:6" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A48" s="1">
         <v>153</v>
       </c>
@@ -1495,7 +1489,7 @@
         <v>45292</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:6" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A49" s="1">
         <v>154</v>
       </c>
@@ -1511,11 +1505,11 @@
       <c r="E49" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="F49" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F49" s="2">
+        <v>45310</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="5">
         <v>162</v>
       </c>
@@ -1535,7 +1529,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>169</v>
       </c>
@@ -1546,7 +1540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>172</v>
       </c>
@@ -1557,7 +1551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>183</v>
       </c>
@@ -1568,7 +1562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>202</v>
       </c>
@@ -1579,16 +1573,16 @@
         <v>1</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F54" s="2">
-        <v>45384</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+        <v>45326</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>204</v>
       </c>
@@ -1608,7 +1602,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>206</v>
       </c>
@@ -1619,7 +1613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>215</v>
       </c>
@@ -1630,7 +1624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>217</v>
       </c>
@@ -1641,7 +1635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>229</v>
       </c>
@@ -1652,7 +1646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>231</v>
       </c>
@@ -1663,7 +1657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>232</v>
       </c>
@@ -1674,7 +1668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>234</v>
       </c>
@@ -1685,7 +1679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>240</v>
       </c>
@@ -1705,7 +1699,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>242</v>
       </c>
@@ -1716,7 +1710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>258</v>
       </c>
@@ -1736,7 +1730,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>268</v>
       </c>
@@ -1750,13 +1744,13 @@
         <v>123</v>
       </c>
       <c r="E66" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F66" s="2">
         <v>45273</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>287</v>
       </c>
@@ -1770,13 +1764,13 @@
         <v>123</v>
       </c>
       <c r="E67" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F67" s="2">
         <v>45273</v>
       </c>
     </row>
-    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>326</v>
       </c>
@@ -1787,7 +1781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>338</v>
       </c>
@@ -1798,7 +1792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>342</v>
       </c>
@@ -1809,7 +1803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>344</v>
       </c>
@@ -1820,7 +1814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>345</v>
       </c>
@@ -1831,7 +1825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>367</v>
       </c>
@@ -1851,7 +1845,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>374</v>
       </c>
@@ -1871,7 +1865,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>389</v>
       </c>
@@ -1882,7 +1876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="5">
         <v>410</v>
       </c>
@@ -1902,7 +1896,7 @@
         <v>45292</v>
       </c>
     </row>
-    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>441</v>
       </c>
@@ -1913,7 +1907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>442</v>
       </c>
@@ -1927,13 +1921,13 @@
         <v>123</v>
       </c>
       <c r="E78" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F78" s="2">
         <v>45273</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>448</v>
       </c>
@@ -1947,13 +1941,13 @@
         <v>123</v>
       </c>
       <c r="E79" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F79" s="2">
         <v>45273</v>
       </c>
     </row>
-    <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>500</v>
       </c>
@@ -1964,7 +1958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>509</v>
       </c>
@@ -1984,7 +1978,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>633</v>
       </c>
@@ -1995,7 +1989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>645</v>
       </c>
@@ -2009,13 +2003,13 @@
         <v>123</v>
       </c>
       <c r="E83" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F83" s="2">
         <v>45273</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>704</v>
       </c>
@@ -2035,7 +2029,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>744</v>
       </c>
@@ -2055,7 +2049,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>804</v>
       </c>
@@ -2066,7 +2060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>832</v>
       </c>
@@ -2077,7 +2071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>844</v>
       </c>
@@ -2088,7 +2082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>852</v>
       </c>
@@ -2108,7 +2102,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>867</v>
       </c>
@@ -2119,16 +2113,16 @@
         <v>1</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F90" s="2">
         <v>45384</v>
       </c>
     </row>
-    <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>876</v>
       </c>
@@ -2139,7 +2133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>921</v>
       </c>
@@ -2150,7 +2144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>961</v>
       </c>
@@ -2161,7 +2155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>1016</v>
       </c>
@@ -2172,7 +2166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>1095</v>
       </c>
@@ -2192,7 +2186,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>1137</v>
       </c>
@@ -2203,7 +2197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>1290</v>
       </c>
@@ -2214,7 +2208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>1295</v>
       </c>
@@ -2228,13 +2222,13 @@
         <v>113</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F98" s="2">
         <v>45273</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>1342</v>
       </c>
@@ -2254,7 +2248,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="100" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>1346</v>
       </c>
@@ -2265,7 +2259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>1492</v>
       </c>
@@ -2276,7 +2270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>1572</v>
       </c>
@@ -2287,16 +2281,16 @@
         <v>1</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F102" s="2">
         <v>45384</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>1672</v>
       </c>
@@ -2310,13 +2304,13 @@
         <v>113</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F103" s="2">
         <v>45273</v>
       </c>
     </row>
-    <row r="104" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>1929</v>
       </c>
@@ -2327,7 +2321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>2221</v>
       </c>
@@ -2338,7 +2332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>2235</v>
       </c>
@@ -2358,7 +2352,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="107" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>2293</v>
       </c>
@@ -2369,7 +2363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>2319</v>
       </c>
@@ -2380,8 +2374,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:6" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="110" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:6" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="110" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>2427</v>
       </c>
@@ -2392,7 +2386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="123" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F123" s="1" t="s">
         <v>131</v>
       </c>
@@ -2418,15 +2412,15 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="21.6328125" customWidth="1"/>
-    <col min="3" max="3" width="11.1796875" customWidth="1"/>
-    <col min="4" max="4" width="16.6328125" customWidth="1"/>
-    <col min="5" max="5" width="13.81640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" customWidth="1"/>
+    <col min="3" max="3" width="11.21875" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" customWidth="1"/>
+    <col min="5" max="5" width="13.77734375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -2443,7 +2437,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2457,7 +2451,7 @@
         <v>45196</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2471,7 +2465,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2485,7 +2479,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2499,7 +2493,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2513,7 +2507,7 @@
         <v>45213</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2527,7 +2521,7 @@
         <v>45213</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2541,7 +2535,7 @@
         <v>45213</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2555,7 +2549,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2569,7 +2563,7 @@
         <v>45230</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2586,7 +2580,7 @@
         <v>45233</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2600,7 +2594,7 @@
         <v>45233</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>

--- a/Leetcode problem tracker.xlsx
+++ b/Leetcode problem tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Coding\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F255B15-D543-444B-9416-DD5C36400ED6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E7B7D6B-FBF9-408D-AA2B-BDD4C8A0CE00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{365DB2E8-E54E-499E-9AF1-AA44A1C62DEA}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Algos" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Problems!$E$1:$E$110</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Problems!$C$1:$C$125</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="141">
   <si>
     <t>Medium</t>
   </si>
@@ -443,6 +443,15 @@
   </si>
   <si>
     <t>Leetcode Topic</t>
+  </si>
+  <si>
+    <t>Stack</t>
+  </si>
+  <si>
+    <t>Sorting</t>
+  </si>
+  <si>
+    <t>Combine Two Tables</t>
   </si>
 </sst>
 </file>
@@ -823,11 +832,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C0ADE24-140B-4EE6-A32B-01D05623BF43}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:G123"/>
+  <dimension ref="A1:G125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -865,7 +873,6 @@
         <v>112</v>
       </c>
     </row>
-    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
@@ -926,7 +933,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>13</v>
       </c>
@@ -957,7 +964,7 @@
         <v>45335</v>
       </c>
     </row>
-    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>17</v>
       </c>
@@ -968,7 +975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>20</v>
       </c>
@@ -978,8 +985,17 @@
       <c r="C9" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="D9" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F9" s="2">
+        <v>45351</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>21</v>
       </c>
@@ -990,7 +1006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>25</v>
       </c>
@@ -1001,7 +1017,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>26</v>
       </c>
@@ -1011,8 +1027,17 @@
       <c r="C12" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="D12" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F12" s="2">
+        <v>45351</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>27</v>
       </c>
@@ -1022,8 +1047,17 @@
       <c r="C13" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="D13" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F13" s="2">
+        <v>45351</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>28</v>
       </c>
@@ -1034,7 +1068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>29</v>
       </c>
@@ -1105,7 +1139,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>36</v>
       </c>
@@ -1116,7 +1150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>37</v>
       </c>
@@ -1147,7 +1181,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>46</v>
       </c>
@@ -1158,7 +1192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>47</v>
       </c>
@@ -1169,7 +1203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>51</v>
       </c>
@@ -1180,7 +1214,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>52</v>
       </c>
@@ -1191,7 +1225,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>58</v>
       </c>
@@ -1202,7 +1236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>61</v>
       </c>
@@ -1233,7 +1267,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>67</v>
       </c>
@@ -1242,6 +1276,15 @@
       </c>
       <c r="C29" s="1" t="s">
         <v>1</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F29" s="2">
+        <v>45351</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -1264,7 +1307,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>73</v>
       </c>
@@ -1295,7 +1338,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>75</v>
       </c>
@@ -1305,8 +1348,17 @@
       <c r="C33" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="D33" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F33" s="2">
+        <v>45351</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>78</v>
       </c>
@@ -1337,7 +1389,7 @@
         <v>45310</v>
       </c>
     </row>
-    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>83</v>
       </c>
@@ -1348,7 +1400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>88</v>
       </c>
@@ -1359,7 +1411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>90</v>
       </c>
@@ -1370,7 +1422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>92</v>
       </c>
@@ -1381,7 +1433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>118</v>
       </c>
@@ -1391,8 +1443,17 @@
       <c r="C40" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="D40" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F40" s="2">
+        <v>45351</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>119</v>
       </c>
@@ -1402,8 +1463,17 @@
       <c r="C41" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="D41" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F41" s="2">
+        <v>45351</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>125</v>
       </c>
@@ -1414,7 +1484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>136</v>
       </c>
@@ -1425,7 +1495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>141</v>
       </c>
@@ -1436,7 +1506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>142</v>
       </c>
@@ -1447,7 +1517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>143</v>
       </c>
@@ -1458,7 +1528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>148</v>
       </c>
@@ -1529,7 +1599,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>169</v>
       </c>
@@ -1540,7 +1610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>172</v>
       </c>
@@ -1551,129 +1621,135 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>71</v>
+        <v>140</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>1</v>
+      </c>
+      <c r="F53" s="2">
+        <v>45351</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D54" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="F54" s="2">
-        <v>45326</v>
+        <v>45351</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
+        <v>202</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F55" s="2">
+        <v>45326</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" s="1">
         <v>204</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B56" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C55" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D55" s="1" t="s">
+      <c r="C56" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D56" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="E55" s="1" t="s">
+      <c r="E56" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="F55" s="2">
-        <v>45273</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="1">
+      <c r="F56" s="2">
+        <v>45273</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" s="1">
         <v>206</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B57" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C56" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="1">
+      <c r="C57" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" s="1">
         <v>215</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B58" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C57" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="1">
+      <c r="C58" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" s="1">
         <v>217</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B59" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C58" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="1">
+      <c r="C59" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" s="1">
         <v>229</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B60" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C59" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="1">
+      <c r="C60" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" s="1">
         <v>231</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="B61" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C60" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="1">
+      <c r="C61" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" s="1">
         <v>232</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B62" s="3" t="s">
         <v>79</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="1">
-        <v>234</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>80</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>1</v>
@@ -1681,70 +1757,61 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
+        <v>234</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" s="1">
         <v>240</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B64" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C63" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F63" s="2">
-        <v>45273</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="1">
-        <v>242</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>82</v>
-      </c>
       <c r="C64" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F64" s="2">
+        <v>45273</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F65" s="2">
-        <v>45273</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D66" t="s">
-        <v>123</v>
-      </c>
-      <c r="E66" t="s">
-        <v>132</v>
+      <c r="D66" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>124</v>
       </c>
       <c r="F66" s="2">
         <v>45273</v>
@@ -1752,13 +1819,13 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
-        <v>287</v>
+        <v>268</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D67" t="s">
         <v>123</v>
@@ -1770,56 +1837,65 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
+        <v>287</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D68" t="s">
+        <v>123</v>
+      </c>
+      <c r="E68" t="s">
+        <v>132</v>
+      </c>
+      <c r="F68" s="2">
+        <v>45273</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" s="1">
         <v>326</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="B69" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C68" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="1">
+      <c r="C69" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" s="1">
         <v>338</v>
       </c>
-      <c r="B69" s="3" t="s">
+      <c r="B70" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C69" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="1">
+      <c r="C70" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" s="1">
         <v>342</v>
       </c>
-      <c r="B70" s="3" t="s">
+      <c r="B71" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C70" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="1">
+      <c r="C71" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72" s="1">
         <v>344</v>
       </c>
-      <c r="B71" s="3" t="s">
+      <c r="B72" s="3" t="s">
         <v>89</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="1">
-        <v>345</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>90</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>1</v>
@@ -1827,115 +1903,106 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
-        <v>367</v>
+        <v>345</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F73" s="2">
-        <v>45273</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
+        <v>367</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F74" s="2">
+        <v>45273</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75" s="1">
         <v>374</v>
       </c>
-      <c r="B74" s="3" t="s">
+      <c r="B75" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C74" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F74" s="2">
-        <v>45273</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="1">
+      <c r="C75" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F75" s="2">
+        <v>45273</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76" s="1">
         <v>389</v>
       </c>
-      <c r="B75" s="3" t="s">
+      <c r="B76" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C75" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A76" s="5">
+      <c r="C76" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77" s="5">
         <v>410</v>
       </c>
-      <c r="B76" s="6" t="s">
+      <c r="B77" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="C76" s="5" t="s">
+      <c r="C77" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D76" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="E76" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="F76" s="2">
+      <c r="D77" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F77" s="2">
         <v>45292</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="1">
-        <v>441</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D78" t="s">
-        <v>123</v>
-      </c>
-      <c r="E78" t="s">
-        <v>132</v>
-      </c>
-      <c r="F78" s="2">
-        <v>45273</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D79" t="s">
         <v>123</v>
@@ -1947,83 +2014,83 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
-        <v>500</v>
+        <v>448</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>1</v>
+      </c>
+      <c r="D80" t="s">
+        <v>123</v>
+      </c>
+      <c r="E80" t="s">
+        <v>132</v>
+      </c>
+      <c r="F80" s="2">
+        <v>45273</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
+        <v>500</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A82" s="1">
         <v>509</v>
       </c>
-      <c r="B81" s="3" t="s">
+      <c r="B82" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C81" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D81" s="1" t="s">
+      <c r="C82" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D82" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E81" s="1" t="s">
+      <c r="E82" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="F81" s="2">
-        <v>45273</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="1">
-        <v>633</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>0</v>
+      <c r="F82" s="2">
+        <v>45273</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
-        <v>645</v>
+        <v>633</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D83" t="s">
-        <v>123</v>
-      </c>
-      <c r="E83" t="s">
-        <v>132</v>
-      </c>
-      <c r="F83" s="2">
-        <v>45273</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
-        <v>704</v>
+        <v>645</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D84" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>114</v>
+      <c r="D84" t="s">
+        <v>123</v>
+      </c>
+      <c r="E84" t="s">
+        <v>132</v>
       </c>
       <c r="F84" s="2">
         <v>45273</v>
@@ -2031,52 +2098,61 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
+        <v>704</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F85" s="2">
+        <v>45273</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A86" s="1">
         <v>744</v>
       </c>
-      <c r="B85" s="3" t="s">
+      <c r="B86" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C85" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F85" s="2">
-        <v>45273</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="1">
+      <c r="C86" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F86" s="2">
+        <v>45273</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A87" s="1">
         <v>804</v>
       </c>
-      <c r="B86" s="3" t="s">
+      <c r="B87" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C86" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="1">
+      <c r="C87" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A88" s="1">
         <v>832</v>
       </c>
-      <c r="B87" s="3" t="s">
+      <c r="B88" s="3" t="s">
         <v>105</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="1">
-        <v>844</v>
-      </c>
-      <c r="B88" s="3" t="s">
-        <v>106</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>1</v>
@@ -2084,125 +2160,125 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
-        <v>852</v>
+        <v>844</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F89" s="2">
-        <v>45273</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
+        <v>852</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F90" s="2">
+        <v>45273</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A91" s="1">
         <v>867</v>
       </c>
-      <c r="B90" s="3" t="s">
+      <c r="B91" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C90" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D90" s="1" t="s">
+      <c r="C91" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D91" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="E90" s="1" t="s">
+      <c r="E91" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="F90" s="2">
+      <c r="F91" s="2">
         <v>45384</v>
       </c>
     </row>
-    <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="1">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A92" s="1">
         <v>876</v>
       </c>
-      <c r="B91" s="3" t="s">
+      <c r="B92" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C91" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="1">
+      <c r="C92" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A93" s="1">
         <v>921</v>
       </c>
-      <c r="B92" s="3" t="s">
+      <c r="B93" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="C92" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="1">
+      <c r="C93" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A94" s="1">
         <v>961</v>
       </c>
-      <c r="B93" s="3" t="s">
+      <c r="B94" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="C93" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="1">
-        <v>1016</v>
-      </c>
-      <c r="B94" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="C94" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
+        <v>1016</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A96" s="1">
         <v>1095</v>
       </c>
-      <c r="B95" s="3" t="s">
+      <c r="B96" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C95" s="1" t="s">
+      <c r="C96" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D95" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F95" s="2">
-        <v>45273</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="1">
+      <c r="D96" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F96" s="2">
+        <v>45273</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A97" s="1">
         <v>1137</v>
       </c>
-      <c r="B96" s="3" t="s">
+      <c r="B97" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="1">
-        <v>1290</v>
-      </c>
-      <c r="B97" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>1</v>
@@ -2210,195 +2286,198 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="E98" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="F98" s="2">
-        <v>45273</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
+        <v>1295</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F99" s="2">
+        <v>45273</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A100" s="1">
         <v>1342</v>
       </c>
-      <c r="B99" s="3" t="s">
+      <c r="B100" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C99" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D99" s="1" t="s">
+      <c r="C100" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D100" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E99" s="1" t="s">
+      <c r="E100" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="F99" s="2">
-        <v>45273</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="1">
+      <c r="F100" s="2">
+        <v>45273</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A101" s="1">
         <v>1346</v>
       </c>
-      <c r="B100" s="3" t="s">
+      <c r="B101" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C100" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="1">
-        <v>1492</v>
-      </c>
-      <c r="B101" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="C101" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
-        <v>1572</v>
+        <v>1492</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="E102" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="F102" s="2">
-        <v>45384</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
-        <v>1672</v>
+        <v>1572</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="E103" s="1" t="s">
         <v>132</v>
       </c>
       <c r="F103" s="2">
-        <v>45273</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>45384</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
+        <v>1672</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F104" s="2">
+        <v>45273</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A105" s="1">
         <v>1929</v>
       </c>
-      <c r="B104" s="3" t="s">
+      <c r="B105" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C104" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="1">
-        <v>2221</v>
-      </c>
-      <c r="B105" s="3" t="s">
-        <v>21</v>
-      </c>
       <c r="C105" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
+        <v>2221</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A107" s="1">
         <v>2235</v>
       </c>
-      <c r="B106" s="3" t="s">
+      <c r="B107" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C106" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D106" s="1" t="s">
+      <c r="C107" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D107" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="E106" s="1" t="s">
+      <c r="E107" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="F106" s="2">
-        <v>45273</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="1">
+      <c r="F107" s="2">
+        <v>45273</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A108" s="1">
         <v>2293</v>
       </c>
-      <c r="B107" s="3" t="s">
+      <c r="B108" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C107" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="1">
+      <c r="C108" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A109" s="1">
         <v>2319</v>
       </c>
-      <c r="B108" s="3" t="s">
+      <c r="B109" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C108" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="110" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="1">
+      <c r="C109" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A112" s="1">
         <v>2427</v>
       </c>
-      <c r="B110" s="3" t="s">
+      <c r="B112" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C110" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F123" s="1" t="s">
+      <c r="C112" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F125" s="1" t="s">
         <v>131</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="E1:E110" xr:uid="{3C0ADE24-140B-4EE6-A32B-01D05623BF43}">
-    <filterColumn colId="0">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Leetcode problem tracker.xlsx
+++ b/Leetcode problem tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Coding\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E7B7D6B-FBF9-408D-AA2B-BDD4C8A0CE00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{484E4301-1EDC-497F-8C7C-330F4C947E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{365DB2E8-E54E-499E-9AF1-AA44A1C62DEA}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Algos" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Problems!$C$1:$C$125</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Problems!$C$1:$C$127</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="143">
   <si>
     <t>Medium</t>
   </si>
@@ -452,6 +452,12 @@
   </si>
   <si>
     <t>Combine Two Tables</t>
+  </si>
+  <si>
+    <t>Fizz Buzz</t>
+  </si>
+  <si>
+    <t>Jewels and Stones</t>
   </si>
 </sst>
 </file>
@@ -832,10 +838,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C0ADE24-140B-4EE6-A32B-01D05623BF43}">
-  <dimension ref="A1:G125"/>
+  <dimension ref="A1:G127"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="F88" sqref="F88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1796,6 +1802,15 @@
       <c r="C65" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="D65" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F65" s="2">
+        <v>45355</v>
+      </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
@@ -1985,44 +2000,44 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
-        <v>441</v>
+        <v>412</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>95</v>
+        <v>141</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>1</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F78" s="2">
+        <v>45355</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D79" t="s">
-        <v>123</v>
-      </c>
-      <c r="E79" t="s">
-        <v>132</v>
-      </c>
-      <c r="F79" s="2">
-        <v>45273</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D80" t="s">
         <v>123</v>
@@ -2036,81 +2051,81 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
-        <v>500</v>
+        <v>448</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>1</v>
+      </c>
+      <c r="D81" t="s">
+        <v>123</v>
+      </c>
+      <c r="E81" t="s">
+        <v>132</v>
+      </c>
+      <c r="F81" s="2">
+        <v>45273</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
-        <v>509</v>
+        <v>500</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="F82" s="2">
-        <v>45273</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
-        <v>633</v>
+        <v>509</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F83" s="2">
+        <v>45273</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
-        <v>645</v>
+        <v>633</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D84" t="s">
-        <v>123</v>
-      </c>
-      <c r="E84" t="s">
-        <v>132</v>
-      </c>
-      <c r="F84" s="2">
-        <v>45273</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
-        <v>704</v>
+        <v>645</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D85" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>114</v>
+      <c r="D85" t="s">
+        <v>123</v>
+      </c>
+      <c r="E85" t="s">
+        <v>132</v>
       </c>
       <c r="F85" s="2">
         <v>45273</v>
@@ -2118,10 +2133,10 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
-        <v>744</v>
+        <v>704</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>1</v>
@@ -2138,32 +2153,50 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
-        <v>804</v>
+        <v>744</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>1</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F87" s="2">
+        <v>45273</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
-        <v>832</v>
+        <v>771</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>105</v>
+        <v>142</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>1</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F88" s="2">
+        <v>45355</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
-        <v>844</v>
+        <v>804</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>1</v>
@@ -2171,72 +2204,72 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
-        <v>852</v>
+        <v>832</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F90" s="2">
-        <v>45273</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
-        <v>867</v>
+        <v>844</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="F91" s="2">
-        <v>45384</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
-        <v>876</v>
+        <v>852</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F92" s="2">
+        <v>45273</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
-        <v>921</v>
+        <v>867</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F93" s="2">
+        <v>45384</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
-        <v>961</v>
+        <v>876</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>1</v>
@@ -2244,10 +2277,10 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
-        <v>1016</v>
+        <v>921</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>0</v>
@@ -2255,225 +2288,247 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
-        <v>1095</v>
+        <v>961</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E96" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F96" s="2">
-        <v>45273</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
-        <v>1137</v>
+        <v>1016</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
-        <v>1290</v>
+        <v>1095</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F98" s="2">
+        <v>45273</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
-        <v>1295</v>
+        <v>1137</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="F99" s="2">
-        <v>45273</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
-        <v>1342</v>
+        <v>1290</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F100" s="2">
-        <v>45273</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
-        <v>1346</v>
+        <v>1295</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>1</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F101" s="2">
+        <v>45273</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
-        <v>1492</v>
+        <v>1342</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F102" s="2">
+        <v>45273</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
-        <v>1572</v>
+        <v>1346</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="E103" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="F103" s="2">
-        <v>45384</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
-        <v>1672</v>
+        <v>1492</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="E104" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="F104" s="2">
-        <v>45273</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
-        <v>1929</v>
+        <v>1572</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>1</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F105" s="2">
+        <v>45384</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
-        <v>2221</v>
+        <v>1672</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F106" s="2">
+        <v>45273</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
-        <v>2235</v>
+        <v>1929</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E107" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F107" s="2">
-        <v>45273</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
-        <v>2293</v>
+        <v>2221</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
+        <v>2235</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F109" s="2">
+        <v>45273</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A110" s="1">
+        <v>2293</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A111" s="1">
         <v>2319</v>
       </c>
-      <c r="B109" s="3" t="s">
+      <c r="B111" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C109" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A112" s="1">
+      <c r="C111" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A114" s="1">
         <v>2427</v>
       </c>
-      <c r="B112" s="3" t="s">
+      <c r="B114" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C112" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F125" s="1" t="s">
+      <c r="C114" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F127" s="1" t="s">
         <v>131</v>
       </c>
     </row>

--- a/Leetcode problem tracker.xlsx
+++ b/Leetcode problem tracker.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Coding\Leetcode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Home\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{484E4301-1EDC-497F-8C7C-330F4C947E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0F5FC05-6DDE-4041-9B04-816BEF0311B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{365DB2E8-E54E-499E-9AF1-AA44A1C62DEA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{365DB2E8-E54E-499E-9AF1-AA44A1C62DEA}"/>
   </bookViews>
   <sheets>
     <sheet name="Problems" sheetId="1" r:id="rId1"/>
     <sheet name="Algos" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Problems!$C$1:$C$127</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Problems!$D$1:$D$127</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="143">
   <si>
     <t>Medium</t>
   </si>
@@ -840,23 +840,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C0ADE24-140B-4EE6-A32B-01D05623BF43}">
   <dimension ref="A1:G127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="F88" sqref="F88"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.88671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="45.6640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" style="1" customWidth="1"/>
-    <col min="4" max="5" width="19.109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.88671875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.77734375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16.6640625" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="7.90625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="45.6328125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="16.36328125" style="1" customWidth="1"/>
+    <col min="4" max="5" width="19.08984375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.90625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.81640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.6328125" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -879,7 +879,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -899,7 +899,7 @@
         <v>45326</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>7</v>
       </c>
@@ -919,7 +919,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>9</v>
       </c>
@@ -939,7 +939,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>13</v>
       </c>
@@ -950,7 +950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>14</v>
       </c>
@@ -970,7 +970,7 @@
         <v>45335</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>17</v>
       </c>
@@ -981,7 +981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>20</v>
       </c>
@@ -1001,7 +1001,7 @@
         <v>45351</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>21</v>
       </c>
@@ -1012,7 +1012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>25</v>
       </c>
@@ -1023,7 +1023,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>26</v>
       </c>
@@ -1043,7 +1043,7 @@
         <v>45351</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>27</v>
       </c>
@@ -1063,7 +1063,7 @@
         <v>45351</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>28</v>
       </c>
@@ -1074,7 +1074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>29</v>
       </c>
@@ -1085,7 +1085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
         <v>33</v>
       </c>
@@ -1105,7 +1105,7 @@
         <v>45292</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>34</v>
       </c>
@@ -1125,7 +1125,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>35</v>
       </c>
@@ -1145,7 +1145,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>36</v>
       </c>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>37</v>
       </c>
@@ -1167,7 +1167,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>41</v>
       </c>
@@ -1187,7 +1187,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>46</v>
       </c>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>47</v>
       </c>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>51</v>
       </c>
@@ -1220,7 +1220,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>52</v>
       </c>
@@ -1231,7 +1231,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>58</v>
       </c>
@@ -1242,7 +1242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>61</v>
       </c>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>66</v>
       </c>
@@ -1273,7 +1273,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>67</v>
       </c>
@@ -1293,7 +1293,7 @@
         <v>45351</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>69</v>
       </c>
@@ -1313,7 +1313,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>73</v>
       </c>
@@ -1324,7 +1324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>74</v>
       </c>
@@ -1344,7 +1344,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>75</v>
       </c>
@@ -1364,7 +1364,7 @@
         <v>45351</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>78</v>
       </c>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="5">
         <v>81</v>
       </c>
@@ -1395,7 +1395,7 @@
         <v>45310</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>83</v>
       </c>
@@ -1406,7 +1406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>88</v>
       </c>
@@ -1417,7 +1417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>90</v>
       </c>
@@ -1428,7 +1428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>92</v>
       </c>
@@ -1439,7 +1439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>118</v>
       </c>
@@ -1459,7 +1459,7 @@
         <v>45351</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>119</v>
       </c>
@@ -1479,7 +1479,7 @@
         <v>45351</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>125</v>
       </c>
@@ -1489,8 +1489,17 @@
       <c r="C42" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D42" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F42" s="2">
+        <v>45446</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>136</v>
       </c>
@@ -1500,8 +1509,17 @@
       <c r="C43" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D43" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F43" s="2">
+        <v>45446</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>141</v>
       </c>
@@ -1512,7 +1530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>142</v>
       </c>
@@ -1523,7 +1541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>143</v>
       </c>
@@ -1534,7 +1552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>148</v>
       </c>
@@ -1545,7 +1563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:6" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A48" s="1">
         <v>153</v>
       </c>
@@ -1565,7 +1583,7 @@
         <v>45292</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:6" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A49" s="1">
         <v>154</v>
       </c>
@@ -1585,7 +1603,7 @@
         <v>45310</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" s="5">
         <v>162</v>
       </c>
@@ -1605,7 +1623,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>169</v>
       </c>
@@ -1615,8 +1633,17 @@
       <c r="C51" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D51" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F51" s="2">
+        <v>45446</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>172</v>
       </c>
@@ -1627,7 +1654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>175</v>
       </c>
@@ -1641,7 +1668,7 @@
         <v>45351</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>183</v>
       </c>
@@ -1655,7 +1682,7 @@
         <v>45351</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>202</v>
       </c>
@@ -1675,7 +1702,7 @@
         <v>45326</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>204</v>
       </c>
@@ -1695,7 +1722,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>206</v>
       </c>
@@ -1706,7 +1733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>215</v>
       </c>
@@ -1717,7 +1744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>217</v>
       </c>
@@ -1727,8 +1754,17 @@
       <c r="C59" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D59" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F59" s="2">
+        <v>45446</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>229</v>
       </c>
@@ -1738,8 +1774,17 @@
       <c r="C60" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D60" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F60" s="2">
+        <v>45446</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>231</v>
       </c>
@@ -1750,7 +1795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>232</v>
       </c>
@@ -1761,7 +1806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>234</v>
       </c>
@@ -1772,7 +1817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>240</v>
       </c>
@@ -1792,7 +1837,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>242</v>
       </c>
@@ -1812,7 +1857,7 @@
         <v>45355</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>258</v>
       </c>
@@ -1832,7 +1877,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>268</v>
       </c>
@@ -1852,7 +1897,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>287</v>
       </c>
@@ -1872,7 +1917,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>326</v>
       </c>
@@ -1883,7 +1928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>338</v>
       </c>
@@ -1894,7 +1939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>342</v>
       </c>
@@ -1905,7 +1950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>344</v>
       </c>
@@ -1915,8 +1960,17 @@
       <c r="C72" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D72" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F72" s="2">
+        <v>45446</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>345</v>
       </c>
@@ -1926,8 +1980,17 @@
       <c r="C73" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D73" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F73" s="2">
+        <v>45446</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>367</v>
       </c>
@@ -1947,7 +2010,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>374</v>
       </c>
@@ -1967,7 +2030,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>389</v>
       </c>
@@ -1978,7 +2041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77" s="5">
         <v>410</v>
       </c>
@@ -1998,7 +2061,7 @@
         <v>45292</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>412</v>
       </c>
@@ -2018,7 +2081,7 @@
         <v>45355</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>441</v>
       </c>
@@ -2029,7 +2092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>442</v>
       </c>
@@ -2049,7 +2112,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>448</v>
       </c>
@@ -2069,7 +2132,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>500</v>
       </c>
@@ -2080,7 +2143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>509</v>
       </c>
@@ -2100,7 +2163,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>633</v>
       </c>
@@ -2111,7 +2174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <v>645</v>
       </c>
@@ -2131,7 +2194,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <v>704</v>
       </c>
@@ -2151,7 +2214,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <v>744</v>
       </c>
@@ -2171,7 +2234,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>771</v>
       </c>
@@ -2191,7 +2254,7 @@
         <v>45355</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <v>804</v>
       </c>
@@ -2202,7 +2265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <v>832</v>
       </c>
@@ -2213,7 +2276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <v>844</v>
       </c>
@@ -2224,7 +2287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <v>852</v>
       </c>
@@ -2244,7 +2307,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <v>867</v>
       </c>
@@ -2264,7 +2327,7 @@
         <v>45384</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
         <v>876</v>
       </c>
@@ -2275,7 +2338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
         <v>921</v>
       </c>
@@ -2286,7 +2349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
         <v>961</v>
       </c>
@@ -2297,7 +2360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
         <v>1016</v>
       </c>
@@ -2308,7 +2371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
         <v>1095</v>
       </c>
@@ -2328,7 +2391,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
         <v>1137</v>
       </c>
@@ -2339,7 +2402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
         <v>1290</v>
       </c>
@@ -2350,7 +2413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
         <v>1295</v>
       </c>
@@ -2370,7 +2433,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
         <v>1342</v>
       </c>
@@ -2390,7 +2453,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
         <v>1346</v>
       </c>
@@ -2401,7 +2464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
         <v>1492</v>
       </c>
@@ -2412,7 +2475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
         <v>1572</v>
       </c>
@@ -2432,7 +2495,7 @@
         <v>45384</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
         <v>1672</v>
       </c>
@@ -2452,7 +2515,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
         <v>1929</v>
       </c>
@@ -2463,7 +2526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A108" s="1">
         <v>2221</v>
       </c>
@@ -2474,7 +2537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A109" s="1">
         <v>2235</v>
       </c>
@@ -2494,7 +2557,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
         <v>2293</v>
       </c>
@@ -2505,7 +2568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
         <v>2319</v>
       </c>
@@ -2516,7 +2579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A114" s="1">
         <v>2427</v>
       </c>
@@ -2527,12 +2590,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F127" s="1" t="s">
         <v>131</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="D1:D127" xr:uid="{3C0ADE24-140B-4EE6-A32B-01D05623BF43}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2546,15 +2610,15 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="21.6640625" customWidth="1"/>
-    <col min="3" max="3" width="11.21875" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" customWidth="1"/>
-    <col min="5" max="5" width="13.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.6328125" customWidth="1"/>
+    <col min="3" max="3" width="11.1796875" customWidth="1"/>
+    <col min="4" max="4" width="16.6328125" customWidth="1"/>
+    <col min="5" max="5" width="13.81640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -2571,7 +2635,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2585,7 +2649,7 @@
         <v>45196</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2599,7 +2663,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2613,7 +2677,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2627,7 +2691,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2641,7 +2705,7 @@
         <v>45213</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2655,7 +2719,7 @@
         <v>45213</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2669,7 +2733,7 @@
         <v>45213</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2683,7 +2747,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2697,7 +2761,7 @@
         <v>45230</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2714,7 +2778,7 @@
         <v>45233</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2728,7 +2792,7 @@
         <v>45233</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>

--- a/Leetcode problem tracker.xlsx
+++ b/Leetcode problem tracker.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Home\Leetcode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Coding\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0F5FC05-6DDE-4041-9B04-816BEF0311B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA6ED4EB-3B26-4628-8E17-7BEB0DE05CA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{365DB2E8-E54E-499E-9AF1-AA44A1C62DEA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{365DB2E8-E54E-499E-9AF1-AA44A1C62DEA}"/>
   </bookViews>
   <sheets>
     <sheet name="Problems" sheetId="1" r:id="rId1"/>
     <sheet name="Algos" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Problems!$D$1:$D$127</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Problems!$C$1:$C$127</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="143">
   <si>
     <t>Medium</t>
   </si>
@@ -841,22 +841,22 @@
   <dimension ref="A1:G127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.90625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="45.6328125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="16.36328125" style="1" customWidth="1"/>
-    <col min="4" max="5" width="19.08984375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.90625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.81640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16.6328125" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.90625" style="1"/>
+    <col min="1" max="1" width="7.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="45.6640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" style="1" customWidth="1"/>
+    <col min="4" max="5" width="19.109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.88671875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.77734375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -879,7 +879,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -899,7 +899,7 @@
         <v>45326</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>7</v>
       </c>
@@ -919,7 +919,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>9</v>
       </c>
@@ -939,7 +939,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>13</v>
       </c>
@@ -950,7 +950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>14</v>
       </c>
@@ -970,7 +970,7 @@
         <v>45335</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>17</v>
       </c>
@@ -981,7 +981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>20</v>
       </c>
@@ -1001,7 +1001,7 @@
         <v>45351</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>21</v>
       </c>
@@ -1012,7 +1012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>25</v>
       </c>
@@ -1023,7 +1023,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>26</v>
       </c>
@@ -1043,7 +1043,7 @@
         <v>45351</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>27</v>
       </c>
@@ -1063,7 +1063,7 @@
         <v>45351</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>28</v>
       </c>
@@ -1073,8 +1073,17 @@
       <c r="C14" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D14" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F14" s="2">
+        <v>45361</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>29</v>
       </c>
@@ -1085,7 +1094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>33</v>
       </c>
@@ -1105,7 +1114,7 @@
         <v>45292</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>34</v>
       </c>
@@ -1125,7 +1134,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>35</v>
       </c>
@@ -1145,7 +1154,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>36</v>
       </c>
@@ -1156,7 +1165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>37</v>
       </c>
@@ -1167,7 +1176,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>41</v>
       </c>
@@ -1187,7 +1196,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>46</v>
       </c>
@@ -1198,7 +1207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>47</v>
       </c>
@@ -1209,7 +1218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>51</v>
       </c>
@@ -1220,7 +1229,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>52</v>
       </c>
@@ -1231,7 +1240,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>58</v>
       </c>
@@ -1242,7 +1251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>61</v>
       </c>
@@ -1253,7 +1262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>66</v>
       </c>
@@ -1273,7 +1282,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>67</v>
       </c>
@@ -1293,7 +1302,7 @@
         <v>45351</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>69</v>
       </c>
@@ -1313,7 +1322,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>73</v>
       </c>
@@ -1323,8 +1332,17 @@
       <c r="C31" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D31" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F31" s="2">
+        <v>45361</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>74</v>
       </c>
@@ -1344,7 +1362,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>75</v>
       </c>
@@ -1364,7 +1382,7 @@
         <v>45351</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>78</v>
       </c>
@@ -1375,7 +1393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="5">
         <v>81</v>
       </c>
@@ -1395,7 +1413,7 @@
         <v>45310</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>83</v>
       </c>
@@ -1406,7 +1424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>88</v>
       </c>
@@ -1417,7 +1435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>90</v>
       </c>
@@ -1428,7 +1446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>92</v>
       </c>
@@ -1439,7 +1457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>118</v>
       </c>
@@ -1459,7 +1477,7 @@
         <v>45351</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>119</v>
       </c>
@@ -1479,7 +1497,7 @@
         <v>45351</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>125</v>
       </c>
@@ -1496,10 +1514,10 @@
         <v>136</v>
       </c>
       <c r="F42" s="2">
-        <v>45446</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+        <v>45357</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>136</v>
       </c>
@@ -1516,10 +1534,10 @@
         <v>135</v>
       </c>
       <c r="F43" s="2">
-        <v>45446</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+        <v>45357</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>141</v>
       </c>
@@ -1530,7 +1548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>142</v>
       </c>
@@ -1541,7 +1559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>143</v>
       </c>
@@ -1552,7 +1570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>148</v>
       </c>
@@ -1563,7 +1581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:6" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A48" s="1">
         <v>153</v>
       </c>
@@ -1583,7 +1601,7 @@
         <v>45292</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:6" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A49" s="1">
         <v>154</v>
       </c>
@@ -1603,7 +1621,7 @@
         <v>45310</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="5">
         <v>162</v>
       </c>
@@ -1623,7 +1641,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>169</v>
       </c>
@@ -1640,10 +1658,10 @@
         <v>135</v>
       </c>
       <c r="F51" s="2">
-        <v>45446</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+        <v>45357</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>172</v>
       </c>
@@ -1654,7 +1672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>175</v>
       </c>
@@ -1668,7 +1686,7 @@
         <v>45351</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>183</v>
       </c>
@@ -1682,7 +1700,7 @@
         <v>45351</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>202</v>
       </c>
@@ -1702,7 +1720,7 @@
         <v>45326</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>204</v>
       </c>
@@ -1722,7 +1740,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>206</v>
       </c>
@@ -1733,7 +1751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>215</v>
       </c>
@@ -1744,7 +1762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>217</v>
       </c>
@@ -1761,10 +1779,10 @@
         <v>135</v>
       </c>
       <c r="F59" s="2">
-        <v>45446</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+        <v>45357</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>229</v>
       </c>
@@ -1781,10 +1799,10 @@
         <v>135</v>
       </c>
       <c r="F60" s="2">
-        <v>45446</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+        <v>45357</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>231</v>
       </c>
@@ -1795,7 +1813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>232</v>
       </c>
@@ -1806,7 +1824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>234</v>
       </c>
@@ -1817,7 +1835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>240</v>
       </c>
@@ -1837,7 +1855,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>242</v>
       </c>
@@ -1857,7 +1875,7 @@
         <v>45355</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>258</v>
       </c>
@@ -1877,7 +1895,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>268</v>
       </c>
@@ -1897,7 +1915,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>287</v>
       </c>
@@ -1917,7 +1935,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>326</v>
       </c>
@@ -1928,7 +1946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>338</v>
       </c>
@@ -1939,7 +1957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>342</v>
       </c>
@@ -1950,7 +1968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>344</v>
       </c>
@@ -1967,10 +1985,10 @@
         <v>132</v>
       </c>
       <c r="F72" s="2">
-        <v>45446</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+        <v>45357</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>345</v>
       </c>
@@ -1987,10 +2005,10 @@
         <v>132</v>
       </c>
       <c r="F73" s="2">
-        <v>45446</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+        <v>45357</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>367</v>
       </c>
@@ -2010,7 +2028,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>374</v>
       </c>
@@ -2030,7 +2048,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>389</v>
       </c>
@@ -2041,7 +2059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="5">
         <v>410</v>
       </c>
@@ -2061,7 +2079,7 @@
         <v>45292</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>412</v>
       </c>
@@ -2081,7 +2099,7 @@
         <v>45355</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>441</v>
       </c>
@@ -2092,7 +2110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>442</v>
       </c>
@@ -2112,7 +2130,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>448</v>
       </c>
@@ -2132,7 +2150,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>500</v>
       </c>
@@ -2143,7 +2161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>509</v>
       </c>
@@ -2163,7 +2181,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>633</v>
       </c>
@@ -2174,7 +2192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>645</v>
       </c>
@@ -2194,7 +2212,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>704</v>
       </c>
@@ -2214,7 +2232,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>744</v>
       </c>
@@ -2234,7 +2252,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>771</v>
       </c>
@@ -2254,7 +2272,7 @@
         <v>45355</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>804</v>
       </c>
@@ -2265,7 +2283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>832</v>
       </c>
@@ -2276,7 +2294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>844</v>
       </c>
@@ -2287,7 +2305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>852</v>
       </c>
@@ -2307,7 +2325,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>867</v>
       </c>
@@ -2324,10 +2342,10 @@
         <v>132</v>
       </c>
       <c r="F93" s="2">
-        <v>45384</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+        <v>45326</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>876</v>
       </c>
@@ -2338,7 +2356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>921</v>
       </c>
@@ -2349,7 +2367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>961</v>
       </c>
@@ -2360,7 +2378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>1016</v>
       </c>
@@ -2371,7 +2389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>1095</v>
       </c>
@@ -2391,7 +2409,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>1137</v>
       </c>
@@ -2402,7 +2420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>1290</v>
       </c>
@@ -2413,7 +2431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>1295</v>
       </c>
@@ -2433,7 +2451,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>1342</v>
       </c>
@@ -2453,7 +2471,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>1346</v>
       </c>
@@ -2464,7 +2482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>1492</v>
       </c>
@@ -2475,7 +2493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>1572</v>
       </c>
@@ -2492,10 +2510,10 @@
         <v>132</v>
       </c>
       <c r="F105" s="2">
-        <v>45384</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
+        <v>45326</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>1672</v>
       </c>
@@ -2515,7 +2533,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>1929</v>
       </c>
@@ -2526,7 +2544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>2221</v>
       </c>
@@ -2537,7 +2555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>2235</v>
       </c>
@@ -2557,7 +2575,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>2293</v>
       </c>
@@ -2568,7 +2586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>2319</v>
       </c>
@@ -2579,7 +2597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>2427</v>
       </c>
@@ -2590,13 +2608,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F127" s="1" t="s">
         <v>131</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="D1:D127" xr:uid="{3C0ADE24-140B-4EE6-A32B-01D05623BF43}"/>
+  <autoFilter ref="C1:C127" xr:uid="{3C0ADE24-140B-4EE6-A32B-01D05623BF43}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2610,15 +2628,15 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="21.6328125" customWidth="1"/>
-    <col min="3" max="3" width="11.1796875" customWidth="1"/>
-    <col min="4" max="4" width="16.6328125" customWidth="1"/>
-    <col min="5" max="5" width="13.81640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" customWidth="1"/>
+    <col min="3" max="3" width="11.21875" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" customWidth="1"/>
+    <col min="5" max="5" width="13.77734375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -2635,7 +2653,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2649,7 +2667,7 @@
         <v>45196</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2663,7 +2681,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2677,7 +2695,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2691,7 +2709,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2705,7 +2723,7 @@
         <v>45213</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2719,7 +2737,7 @@
         <v>45213</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2733,7 +2751,7 @@
         <v>45213</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2747,7 +2765,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2761,7 +2779,7 @@
         <v>45230</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2778,7 +2796,7 @@
         <v>45233</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2792,7 +2810,7 @@
         <v>45233</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>

--- a/Leetcode problem tracker.xlsx
+++ b/Leetcode problem tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Coding\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA6ED4EB-3B26-4628-8E17-7BEB0DE05CA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D25401C-1497-4BE1-9A25-B3763C8E587F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{365DB2E8-E54E-499E-9AF1-AA44A1C62DEA}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Algos" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Problems!$C$1:$C$127</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Problems!$C$1:$C$128</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="146">
   <si>
     <t>Medium</t>
   </si>
@@ -458,6 +458,15 @@
   </si>
   <si>
     <t>Jewels and Stones</t>
+  </si>
+  <si>
+    <t>Database</t>
+  </si>
+  <si>
+    <t>Linked List</t>
+  </si>
+  <si>
+    <t>Integer Replcaement</t>
   </si>
 </sst>
 </file>
@@ -838,10 +847,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C0ADE24-140B-4EE6-A32B-01D05623BF43}">
-  <dimension ref="A1:G127"/>
+  <dimension ref="A1:G128"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="E91" sqref="E91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1547,6 +1556,15 @@
       <c r="C44" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="D44" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F44" s="2">
+        <v>45366</v>
+      </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
@@ -1682,6 +1700,12 @@
       <c r="C53" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="D53" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>143</v>
+      </c>
       <c r="F53" s="2">
         <v>45351</v>
       </c>
@@ -1696,6 +1720,12 @@
       <c r="C54" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="D54" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>143</v>
+      </c>
       <c r="F54" s="2">
         <v>45351</v>
       </c>
@@ -2060,85 +2090,85 @@
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A77" s="5">
+      <c r="A77" s="1">
+        <v>397</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F77" s="2">
+        <v>45366</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78" s="5">
         <v>410</v>
       </c>
-      <c r="B77" s="6" t="s">
+      <c r="B78" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="C77" s="5" t="s">
+      <c r="C78" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D77" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="E77" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="F77" s="2">
+      <c r="D78" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F78" s="2">
         <v>45292</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A78" s="1">
-        <v>412</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F78" s="2">
-        <v>45355</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
-        <v>441</v>
+        <v>412</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>95</v>
+        <v>141</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>1</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F79" s="2">
+        <v>45355</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D80" t="s">
-        <v>123</v>
-      </c>
-      <c r="E80" t="s">
-        <v>132</v>
-      </c>
-      <c r="F80" s="2">
-        <v>45273</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D81" t="s">
         <v>123</v>
@@ -2152,81 +2182,81 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
-        <v>500</v>
+        <v>448</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>1</v>
+      </c>
+      <c r="D82" t="s">
+        <v>123</v>
+      </c>
+      <c r="E82" t="s">
+        <v>132</v>
+      </c>
+      <c r="F82" s="2">
+        <v>45273</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
-        <v>509</v>
+        <v>500</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="F83" s="2">
-        <v>45273</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
-        <v>633</v>
+        <v>509</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F84" s="2">
+        <v>45273</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
-        <v>645</v>
+        <v>633</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D85" t="s">
-        <v>123</v>
-      </c>
-      <c r="E85" t="s">
-        <v>132</v>
-      </c>
-      <c r="F85" s="2">
-        <v>45273</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
-        <v>704</v>
+        <v>645</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D86" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>114</v>
+      <c r="D86" t="s">
+        <v>123</v>
+      </c>
+      <c r="E86" t="s">
+        <v>132</v>
       </c>
       <c r="F86" s="2">
         <v>45273</v>
@@ -2234,10 +2264,10 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
-        <v>744</v>
+        <v>704</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>1</v>
@@ -2254,41 +2284,50 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
-        <v>771</v>
+        <v>744</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="F88" s="2">
-        <v>45355</v>
+        <v>45273</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
-        <v>804</v>
+        <v>771</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>104</v>
+        <v>142</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>1</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F89" s="2">
+        <v>45355</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
-        <v>832</v>
+        <v>804</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>1</v>
@@ -2296,10 +2335,10 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
-        <v>844</v>
+        <v>832</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>1</v>
@@ -2307,125 +2346,143 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
-        <v>852</v>
+        <v>844</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>114</v>
+        <v>138</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>114</v>
+        <v>138</v>
       </c>
       <c r="F92" s="2">
-        <v>45273</v>
+        <v>45366</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
-        <v>867</v>
+        <v>852</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="F93" s="2">
-        <v>45326</v>
+        <v>45273</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
-        <v>876</v>
+        <v>867</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>1</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F94" s="2">
+        <v>45326</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
-        <v>921</v>
+        <v>876</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F95" s="2">
+        <v>45366</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
-        <v>961</v>
+        <v>921</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
-        <v>1016</v>
+        <v>961</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>10</v>
+        <v>111</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
-        <v>1095</v>
+        <v>1016</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E98" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F98" s="2">
-        <v>45273</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
-        <v>1137</v>
+        <v>1095</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F99" s="2">
+        <v>45273</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
-        <v>1290</v>
+        <v>1137</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>1</v>
@@ -2433,39 +2490,30 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="E101" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="F101" s="2">
-        <v>45273</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
-        <v>1342</v>
+        <v>1295</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="F102" s="2">
         <v>45273</v>
@@ -2473,148 +2521,168 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
-        <v>1346</v>
+        <v>1342</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>1</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F103" s="2">
+        <v>45273</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
-        <v>1492</v>
+        <v>1346</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
-        <v>1572</v>
+        <v>1492</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D105" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="E105" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="F105" s="2">
-        <v>45326</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
-        <v>1672</v>
+        <v>1572</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="E106" s="1" t="s">
         <v>132</v>
       </c>
       <c r="F106" s="2">
-        <v>45273</v>
+        <v>45326</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
-        <v>1929</v>
+        <v>1672</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>1</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F107" s="2">
+        <v>45273</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
-        <v>2221</v>
+        <v>1929</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
-        <v>2235</v>
+        <v>2221</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E109" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F109" s="2">
-        <v>45273</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
-        <v>2293</v>
+        <v>2235</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>1</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F110" s="2">
+        <v>45273</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
+        <v>2293</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A112" s="1">
         <v>2319</v>
       </c>
-      <c r="B111" s="3" t="s">
+      <c r="B112" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C111" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A114" s="1">
+      <c r="C112" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A115" s="1">
         <v>2427</v>
       </c>
-      <c r="B114" s="3" t="s">
+      <c r="B115" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C114" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F127" s="1" t="s">
+      <c r="C115" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F128" s="1" t="s">
         <v>131</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="C1:C127" xr:uid="{3C0ADE24-140B-4EE6-A32B-01D05623BF43}"/>
+  <autoFilter ref="C1:C128" xr:uid="{3C0ADE24-140B-4EE6-A32B-01D05623BF43}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Leetcode problem tracker.xlsx
+++ b/Leetcode problem tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Coding\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D25401C-1497-4BE1-9A25-B3763C8E587F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BAE8C13-4F2E-4375-AD26-CC48CF1E5E6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{365DB2E8-E54E-499E-9AF1-AA44A1C62DEA}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="146">
   <si>
     <t>Medium</t>
   </si>
@@ -849,8 +849,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C0ADE24-140B-4EE6-A32B-01D05623BF43}">
   <dimension ref="A1:G128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="E91" sqref="E91"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="H115" sqref="H115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2497,6 +2497,15 @@
       </c>
       <c r="C101" s="1" t="s">
         <v>1</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F101" s="2">
+        <v>45366</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">

--- a/Leetcode problem tracker.xlsx
+++ b/Leetcode problem tracker.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Coding\Leetcode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Home\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BAE8C13-4F2E-4375-AD26-CC48CF1E5E6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63CAE2A3-D62B-4CC3-A65D-7BB8752E3506}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{365DB2E8-E54E-499E-9AF1-AA44A1C62DEA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{365DB2E8-E54E-499E-9AF1-AA44A1C62DEA}"/>
   </bookViews>
   <sheets>
     <sheet name="Problems" sheetId="1" r:id="rId1"/>
     <sheet name="Algos" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Problems!$C$1:$C$128</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Problems!$C$1:$C$126</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="147">
   <si>
     <t>Medium</t>
   </si>
@@ -467,6 +467,9 @@
   </si>
   <si>
     <t>Integer Replcaement</t>
+  </si>
+  <si>
+    <t>Apple Redistribution into Boxes</t>
   </si>
 </sst>
 </file>
@@ -847,25 +850,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C0ADE24-140B-4EE6-A32B-01D05623BF43}">
-  <dimension ref="A1:G128"/>
+  <dimension ref="A1:G126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="H115" sqref="H115"/>
+    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
+      <selection activeCell="B121" sqref="B121"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.88671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="45.6640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" style="1" customWidth="1"/>
-    <col min="4" max="5" width="19.109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.88671875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.77734375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16.6640625" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="7.90625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="45.6328125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="16.36328125" style="1" customWidth="1"/>
+    <col min="4" max="5" width="19.08984375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.90625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.81640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.6328125" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -888,7 +891,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -908,7 +911,7 @@
         <v>45326</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>7</v>
       </c>
@@ -928,7 +931,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>9</v>
       </c>
@@ -948,7 +951,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>13</v>
       </c>
@@ -959,7 +962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>14</v>
       </c>
@@ -979,7 +982,7 @@
         <v>45335</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>17</v>
       </c>
@@ -990,7 +993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>20</v>
       </c>
@@ -1010,7 +1013,7 @@
         <v>45351</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>21</v>
       </c>
@@ -1021,7 +1024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>25</v>
       </c>
@@ -1032,7 +1035,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>26</v>
       </c>
@@ -1052,7 +1055,7 @@
         <v>45351</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>27</v>
       </c>
@@ -1072,7 +1075,7 @@
         <v>45351</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>28</v>
       </c>
@@ -1092,7 +1095,7 @@
         <v>45361</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>29</v>
       </c>
@@ -1103,7 +1106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
         <v>33</v>
       </c>
@@ -1123,7 +1126,7 @@
         <v>45292</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>34</v>
       </c>
@@ -1143,7 +1146,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>35</v>
       </c>
@@ -1163,7 +1166,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>36</v>
       </c>
@@ -1174,7 +1177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>37</v>
       </c>
@@ -1185,7 +1188,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>41</v>
       </c>
@@ -1205,7 +1208,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>46</v>
       </c>
@@ -1216,7 +1219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>47</v>
       </c>
@@ -1227,7 +1230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>51</v>
       </c>
@@ -1238,7 +1241,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>52</v>
       </c>
@@ -1249,7 +1252,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>58</v>
       </c>
@@ -1260,7 +1263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>61</v>
       </c>
@@ -1271,7 +1274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>66</v>
       </c>
@@ -1291,7 +1294,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>67</v>
       </c>
@@ -1311,7 +1314,7 @@
         <v>45351</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>69</v>
       </c>
@@ -1331,7 +1334,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>73</v>
       </c>
@@ -1351,7 +1354,7 @@
         <v>45361</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>74</v>
       </c>
@@ -1371,7 +1374,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>75</v>
       </c>
@@ -1391,7 +1394,7 @@
         <v>45351</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>78</v>
       </c>
@@ -1402,7 +1405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="5">
         <v>81</v>
       </c>
@@ -1422,7 +1425,7 @@
         <v>45310</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>83</v>
       </c>
@@ -1433,7 +1436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>88</v>
       </c>
@@ -1444,7 +1447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>90</v>
       </c>
@@ -1455,7 +1458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>92</v>
       </c>
@@ -1466,7 +1469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>118</v>
       </c>
@@ -1486,7 +1489,7 @@
         <v>45351</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>119</v>
       </c>
@@ -1506,7 +1509,7 @@
         <v>45351</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>125</v>
       </c>
@@ -1526,7 +1529,7 @@
         <v>45357</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>136</v>
       </c>
@@ -1546,7 +1549,7 @@
         <v>45357</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>141</v>
       </c>
@@ -1566,7 +1569,7 @@
         <v>45366</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>142</v>
       </c>
@@ -1577,7 +1580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>143</v>
       </c>
@@ -1588,7 +1591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>148</v>
       </c>
@@ -1599,7 +1602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:6" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A48" s="1">
         <v>153</v>
       </c>
@@ -1619,7 +1622,7 @@
         <v>45292</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:6" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A49" s="1">
         <v>154</v>
       </c>
@@ -1639,7 +1642,7 @@
         <v>45310</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" s="5">
         <v>162</v>
       </c>
@@ -1659,7 +1662,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>169</v>
       </c>
@@ -1679,7 +1682,7 @@
         <v>45357</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>172</v>
       </c>
@@ -1690,7 +1693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>175</v>
       </c>
@@ -1710,7 +1713,7 @@
         <v>45351</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>183</v>
       </c>
@@ -1730,7 +1733,7 @@
         <v>45351</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>202</v>
       </c>
@@ -1750,7 +1753,7 @@
         <v>45326</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>204</v>
       </c>
@@ -1770,7 +1773,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>206</v>
       </c>
@@ -1781,7 +1784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>215</v>
       </c>
@@ -1792,7 +1795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>217</v>
       </c>
@@ -1812,7 +1815,7 @@
         <v>45357</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>229</v>
       </c>
@@ -1832,7 +1835,7 @@
         <v>45357</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>231</v>
       </c>
@@ -1843,7 +1846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>232</v>
       </c>
@@ -1854,7 +1857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>234</v>
       </c>
@@ -1865,7 +1868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>240</v>
       </c>
@@ -1885,7 +1888,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>242</v>
       </c>
@@ -1905,7 +1908,7 @@
         <v>45355</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>258</v>
       </c>
@@ -1925,7 +1928,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>268</v>
       </c>
@@ -1945,7 +1948,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>287</v>
       </c>
@@ -1965,7 +1968,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>326</v>
       </c>
@@ -1976,7 +1979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>338</v>
       </c>
@@ -1987,7 +1990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>342</v>
       </c>
@@ -1998,7 +2001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>344</v>
       </c>
@@ -2018,7 +2021,7 @@
         <v>45357</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>345</v>
       </c>
@@ -2038,7 +2041,7 @@
         <v>45357</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>367</v>
       </c>
@@ -2058,7 +2061,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>374</v>
       </c>
@@ -2078,7 +2081,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>389</v>
       </c>
@@ -2089,7 +2092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>397</v>
       </c>
@@ -2109,7 +2112,7 @@
         <v>45366</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" s="5">
         <v>410</v>
       </c>
@@ -2129,7 +2132,7 @@
         <v>45292</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>412</v>
       </c>
@@ -2149,7 +2152,7 @@
         <v>45355</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>441</v>
       </c>
@@ -2160,7 +2163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>442</v>
       </c>
@@ -2180,7 +2183,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>448</v>
       </c>
@@ -2200,7 +2203,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>500</v>
       </c>
@@ -2211,7 +2214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>509</v>
       </c>
@@ -2231,7 +2234,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <v>633</v>
       </c>
@@ -2242,7 +2245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <v>645</v>
       </c>
@@ -2262,7 +2265,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <v>704</v>
       </c>
@@ -2282,7 +2285,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>744</v>
       </c>
@@ -2302,7 +2305,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <v>771</v>
       </c>
@@ -2322,7 +2325,7 @@
         <v>45355</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <v>804</v>
       </c>
@@ -2333,7 +2336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <v>832</v>
       </c>
@@ -2344,7 +2347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <v>844</v>
       </c>
@@ -2364,7 +2367,7 @@
         <v>45366</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <v>852</v>
       </c>
@@ -2384,7 +2387,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
         <v>867</v>
       </c>
@@ -2404,7 +2407,7 @@
         <v>45326</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
         <v>876</v>
       </c>
@@ -2424,7 +2427,7 @@
         <v>45366</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
         <v>921</v>
       </c>
@@ -2435,7 +2438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
         <v>961</v>
       </c>
@@ -2446,7 +2449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
         <v>1016</v>
       </c>
@@ -2457,7 +2460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
         <v>1095</v>
       </c>
@@ -2477,7 +2480,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
         <v>1137</v>
       </c>
@@ -2488,7 +2491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
         <v>1290</v>
       </c>
@@ -2508,7 +2511,7 @@
         <v>45366</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
         <v>1295</v>
       </c>
@@ -2528,7 +2531,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
         <v>1342</v>
       </c>
@@ -2548,7 +2551,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
         <v>1346</v>
       </c>
@@ -2559,7 +2562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
         <v>1492</v>
       </c>
@@ -2570,7 +2573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
         <v>1572</v>
       </c>
@@ -2590,7 +2593,7 @@
         <v>45326</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
         <v>1672</v>
       </c>
@@ -2610,7 +2613,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A108" s="1">
         <v>1929</v>
       </c>
@@ -2621,7 +2624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A109" s="1">
         <v>2221</v>
       </c>
@@ -2632,7 +2635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
         <v>2235</v>
       </c>
@@ -2652,7 +2655,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
         <v>2293</v>
       </c>
@@ -2663,7 +2666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A112" s="1">
         <v>2319</v>
       </c>
@@ -2674,24 +2677,53 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A115" s="1">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A113" s="1">
         <v>2427</v>
       </c>
-      <c r="B115" s="3" t="s">
+      <c r="B113" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C115" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F128" s="1" t="s">
+      <c r="C113" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F113" s="2">
+        <v>45370</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A114" s="1">
+        <v>3074</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F114" s="2">
+        <v>45370</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F126" s="1" t="s">
         <v>131</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="C1:C128" xr:uid="{3C0ADE24-140B-4EE6-A32B-01D05623BF43}"/>
+  <autoFilter ref="C1:C126" xr:uid="{3C0ADE24-140B-4EE6-A32B-01D05623BF43}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2705,15 +2737,15 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="21.6640625" customWidth="1"/>
-    <col min="3" max="3" width="11.21875" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" customWidth="1"/>
-    <col min="5" max="5" width="13.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.6328125" customWidth="1"/>
+    <col min="3" max="3" width="11.1796875" customWidth="1"/>
+    <col min="4" max="4" width="16.6328125" customWidth="1"/>
+    <col min="5" max="5" width="13.81640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -2730,7 +2762,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2744,7 +2776,7 @@
         <v>45196</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2758,7 +2790,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2772,7 +2804,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2786,7 +2818,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2800,7 +2832,7 @@
         <v>45213</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2814,7 +2846,7 @@
         <v>45213</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2828,7 +2860,7 @@
         <v>45213</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2842,7 +2874,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2856,7 +2888,7 @@
         <v>45230</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2873,7 +2905,7 @@
         <v>45233</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2887,7 +2919,7 @@
         <v>45233</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>

--- a/Leetcode problem tracker.xlsx
+++ b/Leetcode problem tracker.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Home\Leetcode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Coding\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63CAE2A3-D62B-4CC3-A65D-7BB8752E3506}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA607B55-E8DD-4AF3-AF4B-E578A6D02FEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{365DB2E8-E54E-499E-9AF1-AA44A1C62DEA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{365DB2E8-E54E-499E-9AF1-AA44A1C62DEA}"/>
   </bookViews>
   <sheets>
     <sheet name="Problems" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="148">
   <si>
     <t>Medium</t>
   </si>
@@ -470,6 +470,9 @@
   </si>
   <si>
     <t>Apple Redistribution into Boxes</t>
+  </si>
+  <si>
+    <t>Last Solved</t>
   </si>
 </sst>
 </file>
@@ -852,23 +855,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C0ADE24-140B-4EE6-A32B-01D05623BF43}">
   <dimension ref="A1:G126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
-      <selection activeCell="B121" sqref="B121"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.90625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="45.6328125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="16.36328125" style="1" customWidth="1"/>
-    <col min="4" max="5" width="19.08984375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.90625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.81640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16.6328125" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.90625" style="1"/>
+    <col min="1" max="1" width="7.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="45.6640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" style="1" customWidth="1"/>
+    <col min="4" max="5" width="19.109375" style="1" customWidth="1"/>
+    <col min="6" max="7" width="17.88671875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -885,13 +887,13 @@
         <v>137</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -910,8 +912,11 @@
       <c r="F3" s="2">
         <v>45326</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G3" s="2">
+        <v>45468</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>7</v>
       </c>
@@ -930,8 +935,11 @@
       <c r="F4" s="2">
         <v>45273</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G4" s="2">
+        <v>45468</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>9</v>
       </c>
@@ -950,8 +958,11 @@
       <c r="F5" s="2">
         <v>45273</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G5" s="2">
+        <v>45468</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>13</v>
       </c>
@@ -962,7 +973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>14</v>
       </c>
@@ -982,7 +993,7 @@
         <v>45335</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>17</v>
       </c>
@@ -993,7 +1004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>20</v>
       </c>
@@ -1013,7 +1024,7 @@
         <v>45351</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>21</v>
       </c>
@@ -1024,7 +1035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>25</v>
       </c>
@@ -1035,7 +1046,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>26</v>
       </c>
@@ -1055,7 +1066,7 @@
         <v>45351</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>27</v>
       </c>
@@ -1075,7 +1086,7 @@
         <v>45351</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>28</v>
       </c>
@@ -1095,7 +1106,7 @@
         <v>45361</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>29</v>
       </c>
@@ -1106,7 +1117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>33</v>
       </c>
@@ -1126,7 +1137,7 @@
         <v>45292</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>34</v>
       </c>
@@ -1146,7 +1157,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>35</v>
       </c>
@@ -1165,8 +1176,11 @@
       <c r="F18" s="2">
         <v>45273</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G18" s="2">
+        <v>45468</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>36</v>
       </c>
@@ -1177,7 +1191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>37</v>
       </c>
@@ -1188,7 +1202,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>41</v>
       </c>
@@ -1208,7 +1222,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>46</v>
       </c>
@@ -1219,7 +1233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>47</v>
       </c>
@@ -1230,7 +1244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>51</v>
       </c>
@@ -1241,7 +1255,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>52</v>
       </c>
@@ -1252,7 +1266,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>58</v>
       </c>
@@ -1263,7 +1277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>61</v>
       </c>
@@ -1274,7 +1288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>66</v>
       </c>
@@ -1294,7 +1308,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>67</v>
       </c>
@@ -1314,7 +1328,7 @@
         <v>45351</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>69</v>
       </c>
@@ -1333,8 +1347,11 @@
       <c r="F30" s="2">
         <v>45273</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G30" s="2">
+        <v>45468</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>73</v>
       </c>
@@ -1354,7 +1371,7 @@
         <v>45361</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>74</v>
       </c>
@@ -1374,7 +1391,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>75</v>
       </c>
@@ -1394,7 +1411,7 @@
         <v>45351</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>78</v>
       </c>
@@ -1405,7 +1422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="5">
         <v>81</v>
       </c>
@@ -1425,7 +1442,7 @@
         <v>45310</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>83</v>
       </c>
@@ -1436,7 +1453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>88</v>
       </c>
@@ -1447,7 +1464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>90</v>
       </c>
@@ -1458,7 +1475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>92</v>
       </c>
@@ -1469,7 +1486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>118</v>
       </c>
@@ -1489,7 +1506,7 @@
         <v>45351</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>119</v>
       </c>
@@ -1509,7 +1526,7 @@
         <v>45351</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>125</v>
       </c>
@@ -1528,8 +1545,11 @@
       <c r="F42" s="2">
         <v>45357</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G42" s="2">
+        <v>45468</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>136</v>
       </c>
@@ -1549,7 +1569,7 @@
         <v>45357</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>141</v>
       </c>
@@ -1569,7 +1589,7 @@
         <v>45366</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>142</v>
       </c>
@@ -1580,7 +1600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>143</v>
       </c>
@@ -1591,7 +1611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>148</v>
       </c>
@@ -1602,7 +1622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A48" s="1">
         <v>153</v>
       </c>
@@ -1622,7 +1642,7 @@
         <v>45292</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:6" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A49" s="1">
         <v>154</v>
       </c>
@@ -1642,7 +1662,7 @@
         <v>45310</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="5">
         <v>162</v>
       </c>
@@ -1662,7 +1682,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>169</v>
       </c>
@@ -1682,7 +1702,7 @@
         <v>45357</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>172</v>
       </c>
@@ -1693,7 +1713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>175</v>
       </c>
@@ -1713,7 +1733,7 @@
         <v>45351</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>183</v>
       </c>
@@ -1733,7 +1753,7 @@
         <v>45351</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>202</v>
       </c>
@@ -1753,7 +1773,7 @@
         <v>45326</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>204</v>
       </c>
@@ -1773,7 +1793,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>206</v>
       </c>
@@ -1784,7 +1804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>215</v>
       </c>
@@ -1795,7 +1815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>217</v>
       </c>
@@ -1815,7 +1835,7 @@
         <v>45357</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>229</v>
       </c>
@@ -1835,7 +1855,7 @@
         <v>45357</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>231</v>
       </c>
@@ -1846,7 +1866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>232</v>
       </c>
@@ -1857,7 +1877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>234</v>
       </c>
@@ -1868,7 +1888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>240</v>
       </c>
@@ -1888,7 +1908,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>242</v>
       </c>
@@ -1907,8 +1927,11 @@
       <c r="F65" s="2">
         <v>45355</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G65" s="2">
+        <v>45468</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>258</v>
       </c>
@@ -1928,7 +1951,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>268</v>
       </c>
@@ -1948,7 +1971,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>287</v>
       </c>
@@ -1968,7 +1991,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>326</v>
       </c>
@@ -1979,7 +2002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>338</v>
       </c>
@@ -1990,7 +2013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>342</v>
       </c>
@@ -2001,7 +2024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>344</v>
       </c>
@@ -2021,7 +2044,7 @@
         <v>45357</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>345</v>
       </c>
@@ -2041,7 +2064,7 @@
         <v>45357</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>367</v>
       </c>
@@ -2061,7 +2084,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>374</v>
       </c>
@@ -2081,7 +2104,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>389</v>
       </c>
@@ -2092,7 +2115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>397</v>
       </c>
@@ -2112,7 +2135,7 @@
         <v>45366</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="5">
         <v>410</v>
       </c>
@@ -2132,7 +2155,7 @@
         <v>45292</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>412</v>
       </c>
@@ -2152,7 +2175,7 @@
         <v>45355</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>441</v>
       </c>
@@ -2163,7 +2186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>442</v>
       </c>
@@ -2183,7 +2206,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>448</v>
       </c>
@@ -2203,7 +2226,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>500</v>
       </c>
@@ -2214,7 +2237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>509</v>
       </c>
@@ -2233,8 +2256,11 @@
       <c r="F84" s="2">
         <v>45273</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G84" s="2">
+        <v>45468</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>633</v>
       </c>
@@ -2245,7 +2271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>645</v>
       </c>
@@ -2265,7 +2291,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>704</v>
       </c>
@@ -2284,8 +2310,11 @@
       <c r="F87" s="2">
         <v>45273</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G87" s="2">
+        <v>45468</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>744</v>
       </c>
@@ -2305,7 +2334,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>771</v>
       </c>
@@ -2325,7 +2354,7 @@
         <v>45355</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>804</v>
       </c>
@@ -2336,7 +2365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>832</v>
       </c>
@@ -2347,7 +2376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>844</v>
       </c>
@@ -2367,7 +2396,7 @@
         <v>45366</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>852</v>
       </c>
@@ -2387,7 +2416,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>867</v>
       </c>
@@ -2407,7 +2436,7 @@
         <v>45326</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>876</v>
       </c>
@@ -2427,7 +2456,7 @@
         <v>45366</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>921</v>
       </c>
@@ -2438,7 +2467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>961</v>
       </c>
@@ -2449,7 +2478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>1016</v>
       </c>
@@ -2460,7 +2489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>1095</v>
       </c>
@@ -2480,7 +2509,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>1137</v>
       </c>
@@ -2491,7 +2520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>1290</v>
       </c>
@@ -2511,7 +2540,7 @@
         <v>45366</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>1295</v>
       </c>
@@ -2530,8 +2559,11 @@
       <c r="F102" s="2">
         <v>45273</v>
       </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G102" s="2">
+        <v>45468</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>1342</v>
       </c>
@@ -2550,8 +2582,11 @@
       <c r="F103" s="2">
         <v>45273</v>
       </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G103" s="2">
+        <v>45468</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>1346</v>
       </c>
@@ -2562,7 +2597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>1492</v>
       </c>
@@ -2573,7 +2608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>1572</v>
       </c>
@@ -2593,7 +2628,7 @@
         <v>45326</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>1672</v>
       </c>
@@ -2613,7 +2648,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>1929</v>
       </c>
@@ -2624,7 +2659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>2221</v>
       </c>
@@ -2635,7 +2670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>2235</v>
       </c>
@@ -2654,8 +2689,11 @@
       <c r="F110" s="2">
         <v>45273</v>
       </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G110" s="2">
+        <v>45468</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>2293</v>
       </c>
@@ -2666,7 +2704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>2319</v>
       </c>
@@ -2677,7 +2715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>2427</v>
       </c>
@@ -2697,7 +2735,7 @@
         <v>45370</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>3074</v>
       </c>
@@ -2717,8 +2755,11 @@
         <v>45370</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F126" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G126" s="1" t="s">
         <v>131</v>
       </c>
     </row>
@@ -2731,21 +2772,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9012F27-8156-41DB-A126-E4212B4AC01C}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="21.6328125" customWidth="1"/>
-    <col min="3" max="3" width="11.1796875" customWidth="1"/>
-    <col min="4" max="4" width="16.6328125" customWidth="1"/>
-    <col min="5" max="5" width="13.81640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" customWidth="1"/>
+    <col min="3" max="3" width="11.21875" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" customWidth="1"/>
+    <col min="5" max="6" width="13.77734375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -2761,8 +2802,11 @@
       <c r="E1" s="1" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F1" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2775,8 +2819,9 @@
       <c r="E2" s="2">
         <v>45196</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2789,8 +2834,11 @@
       <c r="E3" s="2">
         <v>45273</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F3" s="2">
+        <v>45468</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2803,8 +2851,11 @@
       <c r="E4" s="2">
         <v>45273</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F4" s="2">
+        <v>45468</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2817,8 +2868,11 @@
       <c r="E5" s="2">
         <v>45273</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F5" s="2">
+        <v>45468</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2831,8 +2885,9 @@
       <c r="E6" s="2">
         <v>45213</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2845,8 +2900,9 @@
       <c r="E7" s="2">
         <v>45213</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2859,8 +2915,9 @@
       <c r="E8" s="2">
         <v>45213</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2873,8 +2930,9 @@
       <c r="E9" s="2">
         <v>45273</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2887,8 +2945,9 @@
       <c r="E10" s="2">
         <v>45230</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2904,8 +2963,9 @@
       <c r="E11" s="2">
         <v>45233</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2918,8 +2978,9 @@
       <c r="E12" s="2">
         <v>45233</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2932,6 +2993,7 @@
       <c r="E13" s="2">
         <v>45233</v>
       </c>
+      <c r="F13" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Leetcode problem tracker.xlsx
+++ b/Leetcode problem tracker.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Coding\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA607B55-E8DD-4AF3-AF4B-E578A6D02FEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B82AA555-F9F3-4E7B-8E96-10E89B55EF8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{365DB2E8-E54E-499E-9AF1-AA44A1C62DEA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{365DB2E8-E54E-499E-9AF1-AA44A1C62DEA}"/>
   </bookViews>
   <sheets>
     <sheet name="Problems" sheetId="1" r:id="rId1"/>
     <sheet name="Algos" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Problems!$C$1:$C$126</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Problems!$G$1:$G$128</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="150">
   <si>
     <t>Medium</t>
   </si>
@@ -473,6 +473,12 @@
   </si>
   <si>
     <t>Last Solved</t>
+  </si>
+  <si>
+    <t>Single Number III</t>
+  </si>
+  <si>
+    <t>Single Number II</t>
   </si>
 </sst>
 </file>
@@ -853,10 +859,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C0ADE24-140B-4EE6-A32B-01D05623BF43}">
-  <dimension ref="A1:G126"/>
+  <dimension ref="A1:G128"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="G79" sqref="G79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -992,6 +998,9 @@
       <c r="F7" s="2">
         <v>45335</v>
       </c>
+      <c r="G7" s="2">
+        <v>45480</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
@@ -1023,6 +1032,9 @@
       <c r="F9" s="2">
         <v>45351</v>
       </c>
+      <c r="G9" s="2">
+        <v>45480</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
@@ -1307,6 +1319,9 @@
       <c r="F28" s="2">
         <v>45273</v>
       </c>
+      <c r="G28" s="2">
+        <v>45470</v>
+      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
@@ -1327,6 +1342,9 @@
       <c r="F29" s="2">
         <v>45351</v>
       </c>
+      <c r="G29" s="2">
+        <v>45480</v>
+      </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
@@ -1568,44 +1586,57 @@
       <c r="F43" s="2">
         <v>45357</v>
       </c>
+      <c r="G43" s="2">
+        <v>45469</v>
+      </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>64</v>
+        <v>149</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="F44" s="2">
-        <v>45366</v>
+        <v>135</v>
+      </c>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2">
+        <v>45469</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F45" s="2">
+        <v>45366</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>0</v>
@@ -1613,132 +1644,126 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
+        <v>143</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
         <v>148</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B48" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C47" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A48" s="1">
+      <c r="C48" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="A49" s="1">
         <v>153</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B49" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C48" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F48" s="2">
+      <c r="C49" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F49" s="2">
         <v>45292</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A49" s="1">
+    <row r="50" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="A50" s="1">
         <v>154</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="B50" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C50" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D49" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F49" s="2">
+      <c r="D50" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F50" s="2">
         <v>45310</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="5">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" s="5">
         <v>162</v>
       </c>
-      <c r="B50" s="6" t="s">
+      <c r="B51" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C50" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="E50" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="F50" s="2">
-        <v>45273</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="1">
+      <c r="C51" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F51" s="2">
+        <v>45273</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
         <v>169</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B52" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C51" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D51" s="1" t="s">
+      <c r="C52" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D52" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="E51" s="1" t="s">
+      <c r="E52" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="F51" s="2">
+      <c r="F52" s="2">
         <v>45357</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" s="1">
+      <c r="G52" s="2">
+        <v>45469</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" s="1">
         <v>172</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B53" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C52" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" s="1">
+      <c r="C53" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" s="1">
         <v>175</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B54" s="3" t="s">
         <v>140</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="F53" s="2">
-        <v>45351</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="1">
-        <v>183</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>71</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>1</v>
@@ -1753,97 +1778,100 @@
         <v>45351</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
+        <v>183</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F55" s="2">
+        <v>45351</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" s="1">
         <v>202</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B56" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C55" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D55" s="1" t="s">
+      <c r="C56" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D56" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="E55" s="1" t="s">
+      <c r="E56" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="F55" s="2">
+      <c r="F56" s="2">
         <v>45326</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A56" s="1">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57" s="1">
         <v>204</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B57" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C56" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D56" s="1" t="s">
+      <c r="C57" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D57" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="E56" s="1" t="s">
+      <c r="E57" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="F56" s="2">
-        <v>45273</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A57" s="1">
+      <c r="F57" s="2">
+        <v>45273</v>
+      </c>
+      <c r="G57" s="2">
+        <v>45469</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58" s="1">
         <v>206</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B58" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C57" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A58" s="1">
+      <c r="C58" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59" s="1">
         <v>215</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B59" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C58" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A59" s="1">
+      <c r="C59" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60" s="1">
         <v>217</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B60" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C59" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="F59" s="2">
-        <v>45357</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60" s="1">
-        <v>229</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>77</v>
-      </c>
       <c r="C60" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>135</v>
@@ -1855,170 +1883,195 @@
         <v>45357</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
+        <v>229</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F61" s="2">
+        <v>45357</v>
+      </c>
+      <c r="G61" s="2">
+        <v>45469</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62" s="1">
         <v>231</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B62" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C61" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A62" s="1">
+      <c r="C62" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63" s="1">
         <v>232</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B63" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C62" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="1">
+      <c r="C63" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64" s="1">
         <v>234</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B64" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C63" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A64" s="1">
-        <v>240</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>81</v>
-      </c>
       <c r="C64" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F64" s="2">
-        <v>45273</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="F65" s="2">
-        <v>45355</v>
-      </c>
-      <c r="G65" s="2">
-        <v>45468</v>
+        <v>45273</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="F66" s="2">
-        <v>45273</v>
+        <v>45355</v>
+      </c>
+      <c r="G66" s="2">
+        <v>45468</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D67" t="s">
-        <v>123</v>
-      </c>
-      <c r="E67" t="s">
-        <v>132</v>
+      <c r="D67" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>124</v>
       </c>
       <c r="F67" s="2">
         <v>45273</v>
+      </c>
+      <c r="G67" s="2">
+        <v>45469</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
-        <v>287</v>
+        <v>260</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>85</v>
+        <v>148</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D68" t="s">
-        <v>123</v>
-      </c>
-      <c r="E68" t="s">
-        <v>132</v>
-      </c>
-      <c r="F68" s="2">
-        <v>45273</v>
+      <c r="D68" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2">
+        <v>45469</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
-        <v>326</v>
+        <v>268</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>1</v>
+      </c>
+      <c r="D69" t="s">
+        <v>123</v>
+      </c>
+      <c r="E69" t="s">
+        <v>132</v>
+      </c>
+      <c r="F69" s="2">
+        <v>45273</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
-        <v>338</v>
+        <v>287</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D70" t="s">
+        <v>123</v>
+      </c>
+      <c r="E70" t="s">
+        <v>132</v>
+      </c>
+      <c r="F70" s="2">
+        <v>45273</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
-        <v>342</v>
+        <v>326</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>1</v>
@@ -2026,309 +2079,297 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="F72" s="2">
-        <v>45357</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="F73" s="2">
-        <v>45357</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
-        <v>367</v>
+        <v>344</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="F74" s="2">
-        <v>45273</v>
+        <v>45357</v>
+      </c>
+      <c r="G74" s="2">
+        <v>45480</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
-        <v>374</v>
+        <v>345</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="F75" s="2">
-        <v>45273</v>
+        <v>45357</v>
+      </c>
+      <c r="G75" s="2">
+        <v>45480</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
-        <v>389</v>
+        <v>367</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>1</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F76" s="2">
+        <v>45273</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
-        <v>397</v>
+        <v>374</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>145</v>
+        <v>92</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="F77" s="2">
-        <v>45366</v>
+        <v>45273</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A78" s="5">
-        <v>410</v>
-      </c>
-      <c r="B78" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="C78" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D78" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="E78" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="F78" s="2">
-        <v>45292</v>
+      <c r="A78" s="1">
+        <v>389</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
-        <v>412</v>
+        <v>397</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F79" s="2">
-        <v>45355</v>
+        <v>45366</v>
+      </c>
+      <c r="G79" s="2">
+        <v>45480</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A80" s="1">
-        <v>441</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>1</v>
+      <c r="A80" s="5">
+        <v>410</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F80" s="2">
+        <v>45292</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
-        <v>442</v>
+        <v>412</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>96</v>
+        <v>141</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D81" t="s">
-        <v>123</v>
-      </c>
-      <c r="E81" t="s">
-        <v>132</v>
+        <v>1</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>124</v>
       </c>
       <c r="F81" s="2">
-        <v>45273</v>
+        <v>45355</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="D82" t="s">
-        <v>123</v>
-      </c>
-      <c r="E82" t="s">
-        <v>132</v>
-      </c>
-      <c r="F82" s="2">
-        <v>45273</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
-        <v>500</v>
+        <v>442</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D83" t="s">
+        <v>123</v>
+      </c>
+      <c r="E83" t="s">
+        <v>132</v>
+      </c>
+      <c r="F83" s="2">
+        <v>45273</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
-        <v>509</v>
+        <v>448</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D84" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>125</v>
+      <c r="D84" t="s">
+        <v>123</v>
+      </c>
+      <c r="E84" t="s">
+        <v>132</v>
       </c>
       <c r="F84" s="2">
         <v>45273</v>
-      </c>
-      <c r="G84" s="2">
-        <v>45468</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
-        <v>633</v>
+        <v>500</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
-        <v>645</v>
+        <v>509</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D86" t="s">
-        <v>123</v>
-      </c>
-      <c r="E86" t="s">
-        <v>132</v>
+      <c r="D86" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>125</v>
       </c>
       <c r="F86" s="2">
         <v>45273</v>
+      </c>
+      <c r="G86" s="2">
+        <v>45468</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
-        <v>704</v>
+        <v>633</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F87" s="2">
-        <v>45273</v>
-      </c>
-      <c r="G87" s="2">
-        <v>45468</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
-        <v>744</v>
+        <v>645</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D88" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>114</v>
+      <c r="D88" t="s">
+        <v>123</v>
+      </c>
+      <c r="E88" t="s">
+        <v>132</v>
       </c>
       <c r="F88" s="2">
         <v>45273</v>
@@ -2336,154 +2377,175 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
-        <v>771</v>
+        <v>704</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>142</v>
+        <v>102</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="F89" s="2">
-        <v>45355</v>
+        <v>45273</v>
+      </c>
+      <c r="G89" s="2">
+        <v>45468</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
-        <v>804</v>
+        <v>744</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>1</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F90" s="2">
+        <v>45273</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
-        <v>832</v>
+        <v>771</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>105</v>
+        <v>142</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>1</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F91" s="2">
+        <v>45355</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
-        <v>844</v>
+        <v>804</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F92" s="2">
-        <v>45366</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
-        <v>852</v>
+        <v>832</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E93" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F93" s="2">
-        <v>45273</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
-        <v>867</v>
+        <v>844</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="F94" s="2">
-        <v>45326</v>
+        <v>45366</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
-        <v>876</v>
+        <v>852</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>144</v>
+        <v>114</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>144</v>
+        <v>114</v>
       </c>
       <c r="F95" s="2">
-        <v>45366</v>
+        <v>45273</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
-        <v>921</v>
+        <v>867</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F96" s="2">
+        <v>45326</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
-        <v>961</v>
+        <v>876</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>1</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F97" s="2">
+        <v>45366</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
-        <v>1016</v>
+        <v>921</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>0</v>
@@ -2491,280 +2553,302 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
-        <v>1095</v>
+        <v>961</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F99" s="2">
-        <v>45273</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
-        <v>1137</v>
+        <v>1016</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
-        <v>1290</v>
+        <v>1095</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>144</v>
+        <v>114</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>144</v>
+        <v>114</v>
       </c>
       <c r="F101" s="2">
-        <v>45366</v>
+        <v>45273</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
-        <v>1295</v>
+        <v>1137</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="E102" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="F102" s="2">
-        <v>45273</v>
-      </c>
-      <c r="G102" s="2">
-        <v>45468</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
-        <v>1342</v>
+        <v>1290</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="F103" s="2">
-        <v>45273</v>
-      </c>
-      <c r="G103" s="2">
-        <v>45468</v>
+        <v>45366</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
-        <v>1346</v>
+        <v>1295</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>1</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F104" s="2">
+        <v>45273</v>
+      </c>
+      <c r="G104" s="2">
+        <v>45468</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
-        <v>1492</v>
+        <v>1342</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F105" s="2">
+        <v>45273</v>
+      </c>
+      <c r="G105" s="2">
+        <v>45468</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
-        <v>1572</v>
+        <v>1346</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="E106" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="F106" s="2">
-        <v>45326</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
-        <v>1672</v>
+        <v>1492</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="E107" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="F107" s="2">
-        <v>45273</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
-        <v>1929</v>
+        <v>1572</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>1</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F108" s="2">
+        <v>45326</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
-        <v>2221</v>
+        <v>1672</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F109" s="2">
+        <v>45273</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
-        <v>2235</v>
+        <v>1929</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E110" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F110" s="2">
-        <v>45273</v>
-      </c>
-      <c r="G110" s="2">
-        <v>45468</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
-        <v>2293</v>
+        <v>2221</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
-        <v>2319</v>
+        <v>2235</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>1</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F112" s="2">
+        <v>45273</v>
+      </c>
+      <c r="G112" s="2">
+        <v>45468</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
-        <v>2427</v>
+        <v>2293</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="D113" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="E113" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="F113" s="2">
-        <v>45370</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
+        <v>2319</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A115" s="1">
+        <v>2427</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F115" s="2">
+        <v>45370</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A116" s="1">
         <v>3074</v>
       </c>
-      <c r="B114" s="3" t="s">
+      <c r="B116" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="C114" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D114" s="1" t="s">
+      <c r="C116" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D116" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="E114" s="1" t="s">
+      <c r="E116" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="F114" s="2">
+      <c r="F116" s="2">
         <v>45370</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F126" s="1" t="s">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F128" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="G126" s="1" t="s">
+      <c r="G128" s="1" t="s">
         <v>131</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="C1:C126" xr:uid="{3C0ADE24-140B-4EE6-A32B-01D05623BF43}"/>
+  <autoFilter ref="G1:G128" xr:uid="{3C0ADE24-140B-4EE6-A32B-01D05623BF43}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2774,7 +2858,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9012F27-8156-41DB-A126-E4212B4AC01C}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>

--- a/Leetcode problem tracker.xlsx
+++ b/Leetcode problem tracker.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Coding\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E677FF37-F387-477D-8EC3-7E8F545EEE50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B82AA555-F9F3-4E7B-8E96-10E89B55EF8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{365DB2E8-E54E-499E-9AF1-AA44A1C62DEA}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Algos" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Problems!$D$1:$D$110</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Problems!$G$1:$G$128</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="150">
   <si>
     <t>Medium</t>
   </si>
@@ -404,6 +404,81 @@
   </si>
   <si>
     <t>Math</t>
+  </si>
+  <si>
+    <t>Recursion</t>
+  </si>
+  <si>
+    <t>Binary Search recursion</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Bubble Sort recursion</t>
+  </si>
+  <si>
+    <t>Selection Sort recursion</t>
+  </si>
+  <si>
+    <t>Merge Sort</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>Array</t>
+  </si>
+  <si>
+    <t>Last solved</t>
+  </si>
+  <si>
+    <t>Two Pointers</t>
+  </si>
+  <si>
+    <t>Hashtable</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>Leetcode Topic</t>
+  </si>
+  <si>
+    <t>Stack</t>
+  </si>
+  <si>
+    <t>Sorting</t>
+  </si>
+  <si>
+    <t>Combine Two Tables</t>
+  </si>
+  <si>
+    <t>Fizz Buzz</t>
+  </si>
+  <si>
+    <t>Jewels and Stones</t>
+  </si>
+  <si>
+    <t>Database</t>
+  </si>
+  <si>
+    <t>Linked List</t>
+  </si>
+  <si>
+    <t>Integer Replcaement</t>
+  </si>
+  <si>
+    <t>Apple Redistribution into Boxes</t>
+  </si>
+  <si>
+    <t>Last Solved</t>
+  </si>
+  <si>
+    <t>Single Number III</t>
+  </si>
+  <si>
+    <t>Single Number II</t>
   </si>
 </sst>
 </file>
@@ -784,25 +859,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C0ADE24-140B-4EE6-A32B-01D05623BF43}">
-  <dimension ref="A1:E110"/>
+  <dimension ref="A1:G128"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="G79" sqref="G79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.88671875" style="1" customWidth="1"/>
     <col min="2" max="2" width="45.6640625" style="3" customWidth="1"/>
     <col min="3" max="3" width="16.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.88671875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="1"/>
-    <col min="7" max="7" width="16.6640625" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="1"/>
+    <col min="4" max="5" width="19.109375" style="1" customWidth="1"/>
+    <col min="6" max="7" width="17.88671875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -816,10 +890,16 @@
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G1" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -829,8 +909,20 @@
       <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D3" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F3" s="2">
+        <v>45326</v>
+      </c>
+      <c r="G3" s="2">
+        <v>45468</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>7</v>
       </c>
@@ -843,11 +935,17 @@
       <c r="D4" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="E4" s="2">
-        <v>45219</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E4" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F4" s="2">
+        <v>45273</v>
+      </c>
+      <c r="G4" s="2">
+        <v>45468</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>9</v>
       </c>
@@ -860,11 +958,17 @@
       <c r="D5" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="E5" s="2">
-        <v>45219</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E5" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F5" s="2">
+        <v>45273</v>
+      </c>
+      <c r="G5" s="2">
+        <v>45468</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>13</v>
       </c>
@@ -875,7 +979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>14</v>
       </c>
@@ -885,8 +989,20 @@
       <c r="C7" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D7" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F7" s="2">
+        <v>45335</v>
+      </c>
+      <c r="G7" s="2">
+        <v>45480</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>17</v>
       </c>
@@ -897,7 +1013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>20</v>
       </c>
@@ -907,8 +1023,20 @@
       <c r="C9" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D9" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F9" s="2">
+        <v>45351</v>
+      </c>
+      <c r="G9" s="2">
+        <v>45480</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>21</v>
       </c>
@@ -919,7 +1047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>25</v>
       </c>
@@ -930,7 +1058,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>26</v>
       </c>
@@ -940,8 +1068,17 @@
       <c r="C12" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D12" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F12" s="2">
+        <v>45351</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>27</v>
       </c>
@@ -951,8 +1088,17 @@
       <c r="C13" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D13" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F13" s="2">
+        <v>45351</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>28</v>
       </c>
@@ -962,8 +1108,17 @@
       <c r="C14" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D14" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F14" s="2">
+        <v>45361</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>29</v>
       </c>
@@ -974,7 +1129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>33</v>
       </c>
@@ -987,11 +1142,14 @@
       <c r="D16" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="E16" s="2">
-        <v>45196</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E16" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F16" s="2">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>34</v>
       </c>
@@ -1004,11 +1162,14 @@
       <c r="D17" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="E17" s="2">
-        <v>45196</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E17" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F17" s="2">
+        <v>45273</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>35</v>
       </c>
@@ -1021,11 +1182,17 @@
       <c r="D18" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="E18" s="2">
-        <v>45196</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E18" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F18" s="2">
+        <v>45273</v>
+      </c>
+      <c r="G18" s="2">
+        <v>45468</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>36</v>
       </c>
@@ -1036,7 +1203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>37</v>
       </c>
@@ -1047,7 +1214,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>41</v>
       </c>
@@ -1060,11 +1227,14 @@
       <c r="D21" t="s">
         <v>123</v>
       </c>
-      <c r="E21" s="2">
-        <v>45211</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E21" t="s">
+        <v>132</v>
+      </c>
+      <c r="F21" s="2">
+        <v>45273</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>46</v>
       </c>
@@ -1075,7 +1245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>47</v>
       </c>
@@ -1086,7 +1256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>51</v>
       </c>
@@ -1097,7 +1267,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>52</v>
       </c>
@@ -1108,7 +1278,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>58</v>
       </c>
@@ -1119,7 +1289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>61</v>
       </c>
@@ -1130,7 +1300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>66</v>
       </c>
@@ -1143,11 +1313,17 @@
       <c r="D28" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="E28" s="2">
-        <v>45219</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E28" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F28" s="2">
+        <v>45273</v>
+      </c>
+      <c r="G28" s="2">
+        <v>45470</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>67</v>
       </c>
@@ -1157,8 +1333,20 @@
       <c r="C29" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D29" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F29" s="2">
+        <v>45351</v>
+      </c>
+      <c r="G29" s="2">
+        <v>45480</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>69</v>
       </c>
@@ -1171,11 +1359,17 @@
       <c r="D30" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="E30" s="2">
-        <v>45196</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E30" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F30" s="2">
+        <v>45273</v>
+      </c>
+      <c r="G30" s="2">
+        <v>45468</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>73</v>
       </c>
@@ -1185,8 +1379,17 @@
       <c r="C31" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D31" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F31" s="2">
+        <v>45361</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>74</v>
       </c>
@@ -1199,11 +1402,14 @@
       <c r="D32" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="E32" s="2">
-        <v>45196</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E32" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F32" s="2">
+        <v>45273</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>75</v>
       </c>
@@ -1213,8 +1419,17 @@
       <c r="C33" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D33" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F33" s="2">
+        <v>45351</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>78</v>
       </c>
@@ -1225,7 +1440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="5">
         <v>81</v>
       </c>
@@ -1238,11 +1453,14 @@
       <c r="D35" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="E35" s="2">
-        <v>45211</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E35" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F35" s="2">
+        <v>45310</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>83</v>
       </c>
@@ -1253,7 +1471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>88</v>
       </c>
@@ -1264,7 +1482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>90</v>
       </c>
@@ -1275,7 +1493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>92</v>
       </c>
@@ -1286,7 +1504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>118</v>
       </c>
@@ -1296,8 +1514,17 @@
       <c r="C40" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D40" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F40" s="2">
+        <v>45351</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>119</v>
       </c>
@@ -1307,8 +1534,17 @@
       <c r="C41" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D41" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F41" s="2">
+        <v>45351</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>125</v>
       </c>
@@ -1318,8 +1554,20 @@
       <c r="C42" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D42" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F42" s="2">
+        <v>45357</v>
+      </c>
+      <c r="G42" s="2">
+        <v>45468</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>136</v>
       </c>
@@ -1329,861 +1577,1278 @@
       <c r="C43" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D43" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F43" s="2">
+        <v>45357</v>
+      </c>
+      <c r="G43" s="2">
+        <v>45469</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
+        <v>137</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2">
+        <v>45469</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
         <v>141</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B45" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C44" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="1">
+      <c r="C45" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F45" s="2">
+        <v>45366</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
         <v>142</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B46" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C45" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="1">
+      <c r="C46" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
         <v>143</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B47" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C46" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="1">
+      <c r="C47" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
         <v>148</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B48" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C47" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A48" s="1">
+      <c r="C48" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="A49" s="1">
         <v>153</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B49" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C48" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E48" s="2">
-        <v>45196</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A49" s="1">
+      <c r="C49" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F49" s="2">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="A50" s="1">
         <v>154</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="B50" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C50" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D49" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E49" s="2">
-        <v>45211</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="5">
+      <c r="D50" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F50" s="2">
+        <v>45310</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" s="5">
         <v>162</v>
       </c>
-      <c r="B50" s="6" t="s">
+      <c r="B51" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C50" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="E50" s="2">
-        <v>45196</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="1">
+      <c r="C51" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F51" s="2">
+        <v>45273</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
         <v>169</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B52" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C51" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="1">
+      <c r="C52" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F52" s="2">
+        <v>45357</v>
+      </c>
+      <c r="G52" s="2">
+        <v>45469</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" s="1">
         <v>172</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B53" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C52" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="1">
+      <c r="C53" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" s="1">
+        <v>175</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F54" s="2">
+        <v>45351</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
         <v>183</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B55" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C53" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="1">
+      <c r="C55" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F55" s="2">
+        <v>45351</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" s="1">
         <v>202</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B56" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C54" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="1">
+      <c r="C56" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F56" s="2">
+        <v>45326</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57" s="1">
         <v>204</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B57" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C55" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D55" s="1" t="s">
+      <c r="C57" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D57" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="E55" s="2">
-        <v>45219</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="1">
+      <c r="E57" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F57" s="2">
+        <v>45273</v>
+      </c>
+      <c r="G57" s="2">
+        <v>45469</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58" s="1">
         <v>206</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B58" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C56" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="1">
+      <c r="C58" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59" s="1">
         <v>215</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B59" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C57" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="1">
+      <c r="C59" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60" s="1">
         <v>217</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B60" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C58" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" s="1">
+      <c r="C60" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F60" s="2">
+        <v>45357</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61" s="1">
         <v>229</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B61" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C59" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" s="1">
+      <c r="C61" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F61" s="2">
+        <v>45357</v>
+      </c>
+      <c r="G61" s="2">
+        <v>45469</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62" s="1">
         <v>231</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="B62" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C60" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="1">
+      <c r="C62" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63" s="1">
         <v>232</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B63" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C61" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" s="1">
+      <c r="C63" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64" s="1">
         <v>234</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B64" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C62" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A63" s="1">
+      <c r="C64" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65" s="1">
         <v>240</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B65" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C63" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E63" s="2">
-        <v>45196</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" s="1">
+      <c r="C65" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F65" s="2">
+        <v>45273</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66" s="1">
         <v>242</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="B66" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C64" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" s="1">
+      <c r="C66" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F66" s="2">
+        <v>45355</v>
+      </c>
+      <c r="G66" s="2">
+        <v>45468</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67" s="1">
         <v>258</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="B67" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C65" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D65" s="1" t="s">
+      <c r="C67" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D67" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="E65" s="2">
-        <v>45219</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" s="1">
+      <c r="E67" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F67" s="2">
+        <v>45273</v>
+      </c>
+      <c r="G67" s="2">
+        <v>45469</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68" s="1">
+        <v>260</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2">
+        <v>45469</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69" s="1">
         <v>268</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="B69" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C66" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D66" t="s">
+      <c r="C69" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D69" t="s">
         <v>123</v>
       </c>
-      <c r="E66" s="2">
-        <v>45211</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67" s="1">
+      <c r="E69" t="s">
+        <v>132</v>
+      </c>
+      <c r="F69" s="2">
+        <v>45273</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A70" s="1">
         <v>287</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="B70" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C67" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D67" t="s">
+      <c r="C70" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D70" t="s">
         <v>123</v>
       </c>
-      <c r="E67" s="2">
-        <v>45211</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" s="1">
+      <c r="E70" t="s">
+        <v>132</v>
+      </c>
+      <c r="F70" s="2">
+        <v>45273</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A71" s="1">
         <v>326</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="B71" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C68" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" s="1">
+      <c r="C71" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A72" s="1">
         <v>338</v>
       </c>
-      <c r="B69" s="3" t="s">
+      <c r="B72" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C69" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" s="1">
+      <c r="C72" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A73" s="1">
         <v>342</v>
       </c>
-      <c r="B70" s="3" t="s">
+      <c r="B73" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C70" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" s="1">
+      <c r="C73" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A74" s="1">
         <v>344</v>
       </c>
-      <c r="B71" s="3" t="s">
+      <c r="B74" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C71" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72" s="1">
+      <c r="C74" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F74" s="2">
+        <v>45357</v>
+      </c>
+      <c r="G74" s="2">
+        <v>45480</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A75" s="1">
         <v>345</v>
       </c>
-      <c r="B72" s="3" t="s">
+      <c r="B75" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C72" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A73" s="1">
+      <c r="C75" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F75" s="2">
+        <v>45357</v>
+      </c>
+      <c r="G75" s="2">
+        <v>45480</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A76" s="1">
         <v>367</v>
       </c>
-      <c r="B73" s="3" t="s">
+      <c r="B76" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C73" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E73" s="2">
-        <v>45196</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" s="1">
+      <c r="C76" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F76" s="2">
+        <v>45273</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A77" s="1">
         <v>374</v>
       </c>
-      <c r="B74" s="3" t="s">
+      <c r="B77" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C74" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E74" s="2">
-        <v>45196</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A75" s="1">
+      <c r="C77" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F77" s="2">
+        <v>45273</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A78" s="1">
         <v>389</v>
       </c>
-      <c r="B75" s="3" t="s">
+      <c r="B78" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C75" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A76" s="5">
+      <c r="C78" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A79" s="1">
+        <v>397</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F79" s="2">
+        <v>45366</v>
+      </c>
+      <c r="G79" s="2">
+        <v>45480</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A80" s="5">
         <v>410</v>
       </c>
-      <c r="B76" s="6" t="s">
+      <c r="B80" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="C76" s="5" t="s">
+      <c r="C80" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D76" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="E76" s="2">
-        <v>45196</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A77" s="1">
+      <c r="D80" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F80" s="2">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A81" s="1">
+        <v>412</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F81" s="2">
+        <v>45355</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A82" s="1">
         <v>441</v>
       </c>
-      <c r="B77" s="3" t="s">
+      <c r="B82" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C77" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A78" s="1">
+      <c r="C82" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A83" s="1">
         <v>442</v>
       </c>
-      <c r="B78" s="3" t="s">
+      <c r="B83" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C78" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D78" t="s">
-        <v>123</v>
-      </c>
-      <c r="E78" s="2">
-        <v>45211</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A79" s="1">
-        <v>448</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D79" t="s">
-        <v>123</v>
-      </c>
-      <c r="E79" s="2">
-        <v>45211</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A80" s="1">
-        <v>500</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81" s="1">
-        <v>509</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A82" s="1">
-        <v>633</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A83" s="1">
-        <v>645</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>101</v>
-      </c>
       <c r="C83" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D83" t="s">
         <v>123</v>
       </c>
-      <c r="E83" s="2">
-        <v>45211</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E83" t="s">
+        <v>132</v>
+      </c>
+      <c r="F83" s="2">
+        <v>45273</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
+        <v>448</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D84" t="s">
+        <v>123</v>
+      </c>
+      <c r="E84" t="s">
+        <v>132</v>
+      </c>
+      <c r="F84" s="2">
+        <v>45273</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A85" s="1">
+        <v>500</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A86" s="1">
+        <v>509</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F86" s="2">
+        <v>45273</v>
+      </c>
+      <c r="G86" s="2">
+        <v>45468</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A87" s="1">
+        <v>633</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A88" s="1">
+        <v>645</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D88" t="s">
+        <v>123</v>
+      </c>
+      <c r="E88" t="s">
+        <v>132</v>
+      </c>
+      <c r="F88" s="2">
+        <v>45273</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A89" s="1">
         <v>704</v>
       </c>
-      <c r="B84" s="3" t="s">
+      <c r="B89" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C84" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E84" s="2">
-        <v>45196</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A85" s="1">
+      <c r="C89" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F89" s="2">
+        <v>45273</v>
+      </c>
+      <c r="G89" s="2">
+        <v>45468</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A90" s="1">
         <v>744</v>
       </c>
-      <c r="B85" s="3" t="s">
+      <c r="B90" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C85" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E85" s="2">
-        <v>45196</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A86" s="1">
+      <c r="C90" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F90" s="2">
+        <v>45273</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A91" s="1">
+        <v>771</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F91" s="2">
+        <v>45355</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A92" s="1">
         <v>804</v>
       </c>
-      <c r="B86" s="3" t="s">
+      <c r="B92" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C86" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A87" s="1">
+      <c r="C92" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A93" s="1">
         <v>832</v>
       </c>
-      <c r="B87" s="3" t="s">
+      <c r="B93" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C87" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A88" s="1">
+      <c r="C93" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A94" s="1">
         <v>844</v>
       </c>
-      <c r="B88" s="3" t="s">
+      <c r="B94" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C88" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A89" s="1">
+      <c r="C94" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F94" s="2">
+        <v>45366</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A95" s="1">
         <v>852</v>
       </c>
-      <c r="B89" s="3" t="s">
+      <c r="B95" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C89" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E89" s="2">
-        <v>45196</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A90" s="1">
+      <c r="C95" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F95" s="2">
+        <v>45273</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A96" s="1">
         <v>867</v>
       </c>
-      <c r="B90" s="3" t="s">
+      <c r="B96" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C90" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A91" s="1">
+      <c r="C96" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F96" s="2">
+        <v>45326</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A97" s="1">
         <v>876</v>
       </c>
-      <c r="B91" s="3" t="s">
+      <c r="B97" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C91" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A92" s="1">
+      <c r="C97" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F97" s="2">
+        <v>45366</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A98" s="1">
         <v>921</v>
       </c>
-      <c r="B92" s="3" t="s">
+      <c r="B98" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="C92" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A93" s="1">
+      <c r="C98" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A99" s="1">
         <v>961</v>
       </c>
-      <c r="B93" s="3" t="s">
+      <c r="B99" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="C93" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A94" s="1">
+      <c r="C99" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A100" s="1">
         <v>1016</v>
       </c>
-      <c r="B94" s="3" t="s">
+      <c r="B100" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C94" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A95" s="1">
+      <c r="C100" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A101" s="1">
         <v>1095</v>
       </c>
-      <c r="B95" s="3" t="s">
+      <c r="B101" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C95" s="1" t="s">
+      <c r="C101" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D95" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E95" s="2">
-        <v>45196</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A96" s="1">
+      <c r="D101" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F101" s="2">
+        <v>45273</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A102" s="1">
         <v>1137</v>
       </c>
-      <c r="B96" s="3" t="s">
+      <c r="B102" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C96" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A97" s="1">
+      <c r="C102" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A103" s="1">
         <v>1290</v>
       </c>
-      <c r="B97" s="3" t="s">
+      <c r="B103" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C97" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A98" s="1">
+      <c r="C103" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F103" s="2">
+        <v>45366</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A104" s="1">
         <v>1295</v>
       </c>
-      <c r="B98" s="3" t="s">
+      <c r="B104" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C98" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D98" s="1" t="s">
+      <c r="C104" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D104" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="E98" s="2">
-        <v>45196</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A99" s="1">
+      <c r="E104" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F104" s="2">
+        <v>45273</v>
+      </c>
+      <c r="G104" s="2">
+        <v>45468</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A105" s="1">
         <v>1342</v>
       </c>
-      <c r="B99" s="3" t="s">
+      <c r="B105" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C99" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A100" s="1">
+      <c r="C105" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F105" s="2">
+        <v>45273</v>
+      </c>
+      <c r="G105" s="2">
+        <v>45468</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A106" s="1">
         <v>1346</v>
       </c>
-      <c r="B100" s="3" t="s">
+      <c r="B106" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C100" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A101" s="1">
+      <c r="C106" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A107" s="1">
         <v>1492</v>
       </c>
-      <c r="B101" s="3" t="s">
+      <c r="B107" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C101" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A102" s="1">
+      <c r="C107" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A108" s="1">
         <v>1572</v>
       </c>
-      <c r="B102" s="3" t="s">
+      <c r="B108" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C102" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A103" s="1">
+      <c r="C108" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F108" s="2">
+        <v>45326</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A109" s="1">
         <v>1672</v>
       </c>
-      <c r="B103" s="3" t="s">
+      <c r="B109" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C103" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D103" s="1" t="s">
+      <c r="C109" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D109" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="E103" s="2">
-        <v>45196</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A104" s="1">
+      <c r="E109" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F109" s="2">
+        <v>45273</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A110" s="1">
         <v>1929</v>
       </c>
-      <c r="B104" s="3" t="s">
+      <c r="B110" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C104" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A105" s="1">
+      <c r="C110" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A111" s="1">
         <v>2221</v>
       </c>
-      <c r="B105" s="3" t="s">
+      <c r="B111" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C105" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A106" s="1">
+      <c r="C111" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A112" s="1">
         <v>2235</v>
       </c>
-      <c r="B106" s="3" t="s">
+      <c r="B112" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C106" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D106" s="1" t="s">
+      <c r="C112" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D112" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="E106" s="2">
-        <v>45219</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A107" s="1">
+      <c r="E112" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F112" s="2">
+        <v>45273</v>
+      </c>
+      <c r="G112" s="2">
+        <v>45468</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A113" s="1">
         <v>2293</v>
       </c>
-      <c r="B107" s="3" t="s">
+      <c r="B113" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C107" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A108" s="1">
+      <c r="C113" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A114" s="1">
         <v>2319</v>
       </c>
-      <c r="B108" s="3" t="s">
+      <c r="B114" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C108" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A110" s="1">
+      <c r="C114" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A115" s="1">
         <v>2427</v>
       </c>
-      <c r="B110" s="3" t="s">
+      <c r="B115" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C110" s="1" t="s">
-        <v>1</v>
+      <c r="C115" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F115" s="2">
+        <v>45370</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A116" s="1">
+        <v>3074</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F116" s="2">
+        <v>45370</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F128" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="D1:D110" xr:uid="{3C0ADE24-140B-4EE6-A32B-01D05623BF43}"/>
+  <autoFilter ref="G1:G128" xr:uid="{3C0ADE24-140B-4EE6-A32B-01D05623BF43}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2191,10 +2856,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9012F27-8156-41DB-A126-E4212B4AC01C}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2202,10 +2867,10 @@
     <col min="2" max="2" width="21.6640625" customWidth="1"/>
     <col min="3" max="3" width="11.21875" customWidth="1"/>
     <col min="4" max="4" width="16.6640625" customWidth="1"/>
-    <col min="5" max="5" width="13.77734375" style="1" customWidth="1"/>
+    <col min="5" max="6" width="13.77734375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -2221,8 +2886,11 @@
       <c r="E1" s="1" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2235,8 +2903,9 @@
       <c r="E2" s="2">
         <v>45196</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2247,10 +2916,13 @@
         <v>114</v>
       </c>
       <c r="E3" s="2">
-        <v>45197</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>45273</v>
+      </c>
+      <c r="F3" s="2">
+        <v>45468</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2261,10 +2933,13 @@
         <v>114</v>
       </c>
       <c r="E4" s="2">
-        <v>45197</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+        <v>45273</v>
+      </c>
+      <c r="F4" s="2">
+        <v>45468</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2275,10 +2950,13 @@
         <v>114</v>
       </c>
       <c r="E5" s="2">
-        <v>45197</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+        <v>45273</v>
+      </c>
+      <c r="F5" s="2">
+        <v>45468</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2291,8 +2969,9 @@
       <c r="E6" s="2">
         <v>45213</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2305,8 +2984,9 @@
       <c r="E7" s="2">
         <v>45213</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2319,8 +2999,9 @@
       <c r="E8" s="2">
         <v>45213</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2331,10 +3012,75 @@
         <v>123</v>
       </c>
       <c r="E9" s="2">
-        <v>45211</v>
-      </c>
+        <v>45273</v>
+      </c>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>126</v>
+      </c>
+      <c r="D10" t="s">
+        <v>125</v>
+      </c>
+      <c r="E10" s="2">
+        <v>45230</v>
+      </c>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>128</v>
+      </c>
+      <c r="C11" t="s">
+        <v>127</v>
+      </c>
+      <c r="D11" t="s">
+        <v>125</v>
+      </c>
+      <c r="E11" s="2">
+        <v>45233</v>
+      </c>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>129</v>
+      </c>
+      <c r="D12" t="s">
+        <v>125</v>
+      </c>
+      <c r="E12" s="2">
+        <v>45233</v>
+      </c>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>130</v>
+      </c>
+      <c r="D13" t="s">
+        <v>125</v>
+      </c>
+      <c r="E13" s="2">
+        <v>45233</v>
+      </c>
+      <c r="F13" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Leetcode problem tracker.xlsx
+++ b/Leetcode problem tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Coding\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B82AA555-F9F3-4E7B-8E96-10E89B55EF8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{834677E3-4AC7-4338-A598-9964F460186E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{365DB2E8-E54E-499E-9AF1-AA44A1C62DEA}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Algos" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Problems!$G$1:$G$128</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Problems!$G$1:$G$131</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="153">
   <si>
     <t>Medium</t>
   </si>
@@ -479,13 +479,22 @@
   </si>
   <si>
     <t>Single Number II</t>
+  </si>
+  <si>
+    <t>Number Complement</t>
+  </si>
+  <si>
+    <t>Prime In Diagonal</t>
+  </si>
+  <si>
+    <t>Modify the Matrix</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -503,6 +512,14 @@
       <sz val="11"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -528,10 +545,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -545,8 +563,13 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -859,10 +882,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C0ADE24-140B-4EE6-A32B-01D05623BF43}">
-  <dimension ref="A1:G128"/>
+  <dimension ref="A1:G131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="G79" sqref="G79"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1288,6 +1311,15 @@
       <c r="C26" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="D26" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="G26" s="2">
+        <v>45482</v>
+      </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
@@ -1817,6 +1849,9 @@
       <c r="F56" s="2">
         <v>45326</v>
       </c>
+      <c r="G56" s="2">
+        <v>45480</v>
+      </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
@@ -2164,6 +2199,9 @@
       <c r="F76" s="2">
         <v>45273</v>
       </c>
+      <c r="G76" s="2">
+        <v>45481</v>
+      </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
@@ -2184,6 +2222,9 @@
       <c r="F77" s="2">
         <v>45273</v>
       </c>
+      <c r="G77" s="2">
+        <v>45481</v>
+      </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
@@ -2258,6 +2299,9 @@
       <c r="F81" s="2">
         <v>45355</v>
       </c>
+      <c r="G81" s="2">
+        <v>45480</v>
+      </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
@@ -2312,98 +2356,96 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
-        <v>500</v>
+        <v>476</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>98</v>
+        <v>150</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>1</v>
+      </c>
+      <c r="D85" t="s">
+        <v>124</v>
+      </c>
+      <c r="E85" t="s">
+        <v>124</v>
+      </c>
+      <c r="F85" s="2"/>
+      <c r="G85" s="2">
+        <v>45480</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
-        <v>509</v>
+        <v>500</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="F86" s="2">
-        <v>45273</v>
-      </c>
-      <c r="G86" s="2">
-        <v>45468</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
-        <v>633</v>
+        <v>509</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F87" s="2">
+        <v>45273</v>
+      </c>
+      <c r="G87" s="2">
+        <v>45468</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
-        <v>645</v>
+        <v>633</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D88" t="s">
-        <v>123</v>
-      </c>
-      <c r="E88" t="s">
-        <v>132</v>
-      </c>
-      <c r="F88" s="2">
-        <v>45273</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
-        <v>704</v>
+        <v>645</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D89" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>114</v>
+      <c r="D89" t="s">
+        <v>123</v>
+      </c>
+      <c r="E89" t="s">
+        <v>132</v>
       </c>
       <c r="F89" s="2">
         <v>45273</v>
       </c>
-      <c r="G89" s="2">
-        <v>45468</v>
-      </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
-        <v>744</v>
+        <v>704</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>1</v>
@@ -2417,44 +2459,56 @@
       <c r="F90" s="2">
         <v>45273</v>
       </c>
+      <c r="G90" s="2">
+        <v>45468</v>
+      </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
-        <v>771</v>
+        <v>744</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="F91" s="2">
-        <v>45355</v>
+        <v>45273</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
-        <v>804</v>
+        <v>771</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>104</v>
+        <v>142</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>1</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F92" s="2">
+        <v>45355</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
-        <v>832</v>
+        <v>804</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>1</v>
@@ -2462,206 +2516,197 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
-        <v>844</v>
+        <v>832</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="E94" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F94" s="2">
-        <v>45366</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
-        <v>852</v>
+        <v>844</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>114</v>
+        <v>138</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>114</v>
+        <v>138</v>
       </c>
       <c r="F95" s="2">
-        <v>45273</v>
+        <v>45366</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
-        <v>867</v>
+        <v>852</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="F96" s="2">
-        <v>45326</v>
+        <v>45273</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
-        <v>876</v>
+        <v>867</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="F97" s="2">
-        <v>45366</v>
+        <v>45326</v>
+      </c>
+      <c r="G97" s="2">
+        <v>45481</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
-        <v>921</v>
+        <v>876</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F98" s="2">
+        <v>45366</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
-        <v>961</v>
+        <v>921</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
-        <v>1016</v>
+        <v>961</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>10</v>
+        <v>111</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
-        <v>1095</v>
+        <v>1016</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E101" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F101" s="2">
-        <v>45273</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
-        <v>1137</v>
+        <v>1095</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F102" s="2">
+        <v>45273</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
-        <v>1290</v>
+        <v>1137</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E103" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="F103" s="2">
-        <v>45366</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>113</v>
+        <v>144</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="F104" s="2">
-        <v>45273</v>
-      </c>
-      <c r="G104" s="2">
-        <v>45468</v>
+        <v>45366</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
-        <v>1342</v>
+        <v>1295</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="F105" s="2">
         <v>45273</v>
@@ -2672,128 +2717,152 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
-        <v>1346</v>
+        <v>1342</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>1</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F106" s="2">
+        <v>45273</v>
+      </c>
+      <c r="G106" s="2">
+        <v>45468</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
-        <v>1492</v>
+        <v>1346</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
-        <v>1572</v>
+        <v>1492</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="E108" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="F108" s="2">
-        <v>45326</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
-        <v>1672</v>
+        <v>1572</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="E109" s="1" t="s">
         <v>132</v>
       </c>
       <c r="F109" s="2">
-        <v>45273</v>
+        <v>45326</v>
+      </c>
+      <c r="G109" s="2">
+        <v>45482</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
-        <v>1929</v>
+        <v>1672</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>1</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F110" s="2">
+        <v>45273</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
-        <v>2221</v>
+        <v>1929</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="G111" s="2">
+        <v>45482</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
-        <v>2235</v>
+        <v>2221</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D112" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E112" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F112" s="2">
-        <v>45273</v>
-      </c>
-      <c r="G112" s="2">
-        <v>45468</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
-        <v>2293</v>
+        <v>2235</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>1</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F113" s="2">
+        <v>45273</v>
+      </c>
+      <c r="G113" s="2">
+        <v>45468</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
-        <v>2319</v>
+        <v>2293</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>1</v>
@@ -2801,10 +2870,10 @@
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
-        <v>2427</v>
+        <v>2319</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>1</v>
@@ -2815,16 +2884,16 @@
       <c r="E115" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="F115" s="2">
-        <v>45370</v>
+      <c r="G115" s="2">
+        <v>45482</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
-        <v>3074</v>
+        <v>2427</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>146</v>
+        <v>25</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>1</v>
@@ -2838,19 +2907,90 @@
       <c r="F116" s="2">
         <v>45370</v>
       </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F128" s="1" t="s">
+      <c r="G116" s="2">
+        <v>45482</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A117" s="1">
+        <v>2614</v>
+      </c>
+      <c r="B117" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F117" s="2"/>
+      <c r="G117" s="2">
+        <v>45482</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A118" s="1">
+        <v>3033</v>
+      </c>
+      <c r="B118" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F118" s="2"/>
+      <c r="G118" s="2">
+        <v>45482</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A119" s="1">
+        <v>3074</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F119" s="2">
+        <v>45370</v>
+      </c>
+      <c r="G119" s="2">
+        <v>45482</v>
+      </c>
+    </row>
+    <row r="131" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F131" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="G128" s="1" t="s">
+      <c r="G131" s="1" t="s">
         <v>131</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="G1:G128" xr:uid="{3C0ADE24-140B-4EE6-A32B-01D05623BF43}"/>
+  <autoFilter ref="G1:G131" xr:uid="{3C0ADE24-140B-4EE6-A32B-01D05623BF43}"/>
+  <hyperlinks>
+    <hyperlink ref="B117" r:id="rId1" display="https://leetcode.com/problems/prime-in-diagonal/" xr:uid="{B83FE3AB-D732-44D0-80B5-778583C1517E}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/Leetcode problem tracker.xlsx
+++ b/Leetcode problem tracker.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Coding\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{834677E3-4AC7-4338-A598-9964F460186E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4D2B376-0A5C-4CBF-8256-45677560CF59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{365DB2E8-E54E-499E-9AF1-AA44A1C62DEA}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Algos" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Problems!$G$1:$G$131</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Problems!$G$1:$G$133</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="155">
   <si>
     <t>Medium</t>
   </si>
@@ -488,6 +488,12 @@
   </si>
   <si>
     <t>Modify the Matrix</t>
+  </si>
+  <si>
+    <t>Find Customer Referee</t>
+  </si>
+  <si>
+    <t>Number of Changing Keys</t>
   </si>
 </sst>
 </file>
@@ -882,10 +888,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C0ADE24-140B-4EE6-A32B-01D05623BF43}">
-  <dimension ref="A1:G131"/>
+  <dimension ref="A1:G133"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="F75" sqref="F75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1191,6 +1197,9 @@
       <c r="F17" s="2">
         <v>45273</v>
       </c>
+      <c r="G17" s="2">
+        <v>45484</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
@@ -1555,6 +1564,9 @@
       <c r="F40" s="2">
         <v>45351</v>
       </c>
+      <c r="G40" s="2">
+        <v>45484</v>
+      </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
@@ -1575,6 +1587,9 @@
       <c r="F41" s="2">
         <v>45351</v>
       </c>
+      <c r="G41" s="2">
+        <v>45484</v>
+      </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
@@ -1809,6 +1824,9 @@
       <c r="F54" s="2">
         <v>45351</v>
       </c>
+      <c r="G54" s="2">
+        <v>45484</v>
+      </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
@@ -1829,6 +1847,9 @@
       <c r="F55" s="2">
         <v>45351</v>
       </c>
+      <c r="G55" s="2">
+        <v>45484</v>
+      </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
@@ -1951,6 +1972,15 @@
       <c r="C62" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="D62" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G62" s="2">
+        <v>45518</v>
+      </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
@@ -2111,6 +2141,15 @@
       <c r="C71" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="D71" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G71" s="2">
+        <v>45518</v>
+      </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
@@ -2133,6 +2172,15 @@
       <c r="C73" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="D73" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G73" s="2">
+        <v>45518</v>
+      </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
@@ -2236,6 +2284,15 @@
       <c r="C78" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="D78" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G78" s="2">
+        <v>45493</v>
+      </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
@@ -2385,6 +2442,15 @@
       <c r="C86" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="D86" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="G86" s="2">
+        <v>45493</v>
+      </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
@@ -2411,64 +2477,62 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
-        <v>633</v>
+        <v>584</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>100</v>
+        <v>153</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F88" s="2"/>
+      <c r="G88" s="2">
+        <v>45484</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
-        <v>645</v>
+        <v>633</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D89" t="s">
-        <v>123</v>
-      </c>
-      <c r="E89" t="s">
-        <v>132</v>
-      </c>
-      <c r="F89" s="2">
-        <v>45273</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
-        <v>704</v>
+        <v>645</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D90" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>114</v>
+      <c r="D90" t="s">
+        <v>123</v>
+      </c>
+      <c r="E90" t="s">
+        <v>132</v>
       </c>
       <c r="F90" s="2">
         <v>45273</v>
       </c>
-      <c r="G90" s="2">
-        <v>45468</v>
-      </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
-        <v>744</v>
+        <v>704</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>1</v>
@@ -2482,44 +2546,56 @@
       <c r="F91" s="2">
         <v>45273</v>
       </c>
+      <c r="G91" s="2">
+        <v>45468</v>
+      </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
-        <v>771</v>
+        <v>744</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="F92" s="2">
-        <v>45355</v>
+        <v>45273</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
-        <v>804</v>
+        <v>771</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>104</v>
+        <v>142</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>1</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F93" s="2">
+        <v>45355</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
-        <v>832</v>
+        <v>804</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>1</v>
@@ -2527,209 +2603,215 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
-        <v>844</v>
+        <v>832</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F95" s="2">
-        <v>45366</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
-        <v>852</v>
+        <v>844</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>114</v>
+        <v>138</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>114</v>
+        <v>138</v>
       </c>
       <c r="F96" s="2">
-        <v>45273</v>
+        <v>45366</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
-        <v>867</v>
+        <v>852</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="F97" s="2">
-        <v>45326</v>
-      </c>
-      <c r="G97" s="2">
-        <v>45481</v>
+        <v>45273</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
-        <v>876</v>
+        <v>867</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="F98" s="2">
-        <v>45366</v>
+        <v>45326</v>
+      </c>
+      <c r="G98" s="2">
+        <v>45481</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
-        <v>921</v>
+        <v>876</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F99" s="2">
+        <v>45366</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
-        <v>961</v>
+        <v>921</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
-        <v>1016</v>
+        <v>961</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>10</v>
+        <v>111</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="G101" s="2">
+        <v>45518</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
-        <v>1095</v>
+        <v>1016</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E102" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F102" s="2">
-        <v>45273</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
-        <v>1137</v>
+        <v>1095</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F103" s="2">
+        <v>45273</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
-        <v>1290</v>
+        <v>1137</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="F104" s="2">
-        <v>45366</v>
+        <v>132</v>
+      </c>
+      <c r="G104" s="2">
+        <v>45518</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>113</v>
+        <v>144</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="F105" s="2">
-        <v>45273</v>
-      </c>
-      <c r="G105" s="2">
-        <v>45468</v>
+        <v>45366</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
-        <v>1342</v>
+        <v>1295</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="F106" s="2">
         <v>45273</v>
@@ -2740,160 +2822,163 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
-        <v>1346</v>
+        <v>1342</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>1</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F107" s="2">
+        <v>45273</v>
+      </c>
+      <c r="G107" s="2">
+        <v>45468</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
-        <v>1492</v>
+        <v>1346</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
-        <v>1572</v>
+        <v>1492</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="E109" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="F109" s="2">
-        <v>45326</v>
-      </c>
-      <c r="G109" s="2">
-        <v>45482</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
-        <v>1672</v>
+        <v>1572</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="E110" s="1" t="s">
         <v>132</v>
       </c>
       <c r="F110" s="2">
-        <v>45273</v>
+        <v>45326</v>
+      </c>
+      <c r="G110" s="2">
+        <v>45482</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
-        <v>1929</v>
+        <v>1672</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="E111" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="G111" s="2">
-        <v>45482</v>
+      <c r="F111" s="2">
+        <v>45273</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
-        <v>2221</v>
+        <v>1929</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="G112" s="2">
+        <v>45482</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
-        <v>2235</v>
+        <v>2221</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D113" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E113" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F113" s="2">
-        <v>45273</v>
-      </c>
-      <c r="G113" s="2">
-        <v>45468</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
-        <v>2293</v>
+        <v>2235</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>1</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F114" s="2">
+        <v>45273</v>
+      </c>
+      <c r="G114" s="2">
+        <v>45468</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
-        <v>2319</v>
+        <v>2293</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="D115" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="E115" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="G115" s="2">
-        <v>45482</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
-        <v>2427</v>
+        <v>2319</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>1</v>
@@ -2903,9 +2988,6 @@
       </c>
       <c r="E116" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="F116" s="2">
-        <v>45370</v>
       </c>
       <c r="G116" s="2">
         <v>45482</v>
@@ -2913,10 +2995,10 @@
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
-        <v>2614</v>
-      </c>
-      <c r="B117" s="7" t="s">
-        <v>151</v>
+        <v>2427</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>1</v>
@@ -2927,17 +3009,19 @@
       <c r="E117" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="F117" s="2"/>
+      <c r="F117" s="2">
+        <v>45370</v>
+      </c>
       <c r="G117" s="2">
         <v>45482</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
-        <v>3033</v>
-      </c>
-      <c r="B118" s="8" t="s">
-        <v>152</v>
+        <v>2614</v>
+      </c>
+      <c r="B118" s="7" t="s">
+        <v>151</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>1</v>
@@ -2955,39 +3039,74 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
+        <v>3019</v>
+      </c>
+      <c r="B119" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F119" s="2"/>
+      <c r="G119" s="2">
+        <v>45493</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A120" s="1">
+        <v>3033</v>
+      </c>
+      <c r="B120" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F120" s="2"/>
+      <c r="G120" s="2">
+        <v>45482</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A121" s="1">
         <v>3074</v>
       </c>
-      <c r="B119" s="3" t="s">
+      <c r="B121" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="C119" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D119" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="E119" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="F119" s="2">
+      <c r="C121" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F121" s="2">
         <v>45370</v>
       </c>
-      <c r="G119" s="2">
+      <c r="G121" s="2">
         <v>45482</v>
       </c>
     </row>
-    <row r="131" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F131" s="1" t="s">
+    <row r="133" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F133" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="G131" s="1" t="s">
+      <c r="G133" s="1" t="s">
         <v>131</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="G1:G131" xr:uid="{3C0ADE24-140B-4EE6-A32B-01D05623BF43}"/>
   <hyperlinks>
-    <hyperlink ref="B117" r:id="rId1" display="https://leetcode.com/problems/prime-in-diagonal/" xr:uid="{B83FE3AB-D732-44D0-80B5-778583C1517E}"/>
+    <hyperlink ref="B118" r:id="rId1" display="https://leetcode.com/problems/prime-in-diagonal/" xr:uid="{B83FE3AB-D732-44D0-80B5-778583C1517E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>

--- a/Leetcode problem tracker.xlsx
+++ b/Leetcode problem tracker.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Coding\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4D2B376-0A5C-4CBF-8256-45677560CF59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB08A642-216E-4108-9311-07F2B3289D9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{365DB2E8-E54E-499E-9AF1-AA44A1C62DEA}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Algos" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Problems!$G$1:$G$133</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Problems!$F$1:$F$133</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="155">
   <si>
     <t>Medium</t>
   </si>
@@ -888,10 +888,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C0ADE24-140B-4EE6-A32B-01D05623BF43}">
-  <dimension ref="A1:G133"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:G135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="F75" sqref="F75"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -928,6 +929,7 @@
         <v>133</v>
       </c>
     </row>
+    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
@@ -945,9 +947,6 @@
         <v>135</v>
       </c>
       <c r="F3" s="2">
-        <v>45326</v>
-      </c>
-      <c r="G3" s="2">
         <v>45468</v>
       </c>
     </row>
@@ -968,10 +967,10 @@
         <v>124</v>
       </c>
       <c r="F4" s="2">
-        <v>45273</v>
+        <v>45468</v>
       </c>
       <c r="G4" s="2">
-        <v>45468</v>
+        <v>45546</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -991,13 +990,13 @@
         <v>124</v>
       </c>
       <c r="F5" s="2">
-        <v>45273</v>
+        <v>45468</v>
       </c>
       <c r="G5" s="2">
-        <v>45468</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45546</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>13</v>
       </c>
@@ -1025,13 +1024,10 @@
         <v>136</v>
       </c>
       <c r="F7" s="2">
-        <v>45335</v>
-      </c>
-      <c r="G7" s="2">
         <v>45480</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>17</v>
       </c>
@@ -1059,13 +1055,10 @@
         <v>138</v>
       </c>
       <c r="F9" s="2">
-        <v>45351</v>
-      </c>
-      <c r="G9" s="2">
         <v>45480</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>21</v>
       </c>
@@ -1076,7 +1069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>25</v>
       </c>
@@ -1087,7 +1080,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>26</v>
       </c>
@@ -1107,7 +1100,7 @@
         <v>45351</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>27</v>
       </c>
@@ -1127,7 +1120,7 @@
         <v>45351</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>28</v>
       </c>
@@ -1147,7 +1140,7 @@
         <v>45361</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>29</v>
       </c>
@@ -1158,7 +1151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>33</v>
       </c>
@@ -1178,7 +1171,7 @@
         <v>45292</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>34</v>
       </c>
@@ -1195,13 +1188,10 @@
         <v>114</v>
       </c>
       <c r="F17" s="2">
-        <v>45273</v>
-      </c>
-      <c r="G17" s="2">
         <v>45484</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>35</v>
       </c>
@@ -1218,13 +1208,10 @@
         <v>114</v>
       </c>
       <c r="F18" s="2">
-        <v>45273</v>
-      </c>
-      <c r="G18" s="2">
         <v>45468</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>36</v>
       </c>
@@ -1235,7 +1222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>37</v>
       </c>
@@ -1246,7 +1233,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>41</v>
       </c>
@@ -1266,7 +1253,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>46</v>
       </c>
@@ -1277,7 +1264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>47</v>
       </c>
@@ -1288,7 +1275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>51</v>
       </c>
@@ -1299,7 +1286,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>52</v>
       </c>
@@ -1310,7 +1297,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>58</v>
       </c>
@@ -1326,11 +1313,11 @@
       <c r="E26" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="G26" s="2">
+      <c r="F26" s="2">
         <v>45482</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>61</v>
       </c>
@@ -1341,7 +1328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>66</v>
       </c>
@@ -1358,13 +1345,10 @@
         <v>124</v>
       </c>
       <c r="F28" s="2">
-        <v>45273</v>
-      </c>
-      <c r="G28" s="2">
         <v>45470</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>67</v>
       </c>
@@ -1381,13 +1365,10 @@
         <v>124</v>
       </c>
       <c r="F29" s="2">
-        <v>45351</v>
-      </c>
-      <c r="G29" s="2">
         <v>45480</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>69</v>
       </c>
@@ -1404,13 +1385,10 @@
         <v>114</v>
       </c>
       <c r="F30" s="2">
-        <v>45273</v>
-      </c>
-      <c r="G30" s="2">
         <v>45468</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>73</v>
       </c>
@@ -1430,7 +1408,7 @@
         <v>45361</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>74</v>
       </c>
@@ -1450,7 +1428,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>75</v>
       </c>
@@ -1470,7 +1448,7 @@
         <v>45351</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>78</v>
       </c>
@@ -1481,7 +1459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="5">
         <v>81</v>
       </c>
@@ -1501,7 +1479,7 @@
         <v>45310</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>83</v>
       </c>
@@ -1512,7 +1490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>88</v>
       </c>
@@ -1523,7 +1501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>90</v>
       </c>
@@ -1534,7 +1512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>92</v>
       </c>
@@ -1562,9 +1540,6 @@
         <v>132</v>
       </c>
       <c r="F40" s="2">
-        <v>45351</v>
-      </c>
-      <c r="G40" s="2">
         <v>45484</v>
       </c>
     </row>
@@ -1585,9 +1560,6 @@
         <v>132</v>
       </c>
       <c r="F41" s="2">
-        <v>45351</v>
-      </c>
-      <c r="G41" s="2">
         <v>45484</v>
       </c>
     </row>
@@ -1608,9 +1580,6 @@
         <v>136</v>
       </c>
       <c r="F42" s="2">
-        <v>45357</v>
-      </c>
-      <c r="G42" s="2">
         <v>45468</v>
       </c>
     </row>
@@ -1631,10 +1600,10 @@
         <v>135</v>
       </c>
       <c r="F43" s="2">
-        <v>45357</v>
+        <v>45469</v>
       </c>
       <c r="G43" s="2">
-        <v>45469</v>
+        <v>45546</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
@@ -1653,12 +1622,14 @@
       <c r="E44" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="F44" s="2"/>
+      <c r="F44" s="2">
+        <v>45469</v>
+      </c>
       <c r="G44" s="2">
-        <v>45469</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45546</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>141</v>
       </c>
@@ -1678,7 +1649,7 @@
         <v>45366</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>142</v>
       </c>
@@ -1689,7 +1660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>143</v>
       </c>
@@ -1700,7 +1671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>148</v>
       </c>
@@ -1711,7 +1682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:7" ht="16.8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A49" s="1">
         <v>153</v>
       </c>
@@ -1731,7 +1702,7 @@
         <v>45292</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:7" ht="16.8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A50" s="1">
         <v>154</v>
       </c>
@@ -1751,7 +1722,7 @@
         <v>45310</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="5">
         <v>162</v>
       </c>
@@ -1788,13 +1759,10 @@
         <v>135</v>
       </c>
       <c r="F52" s="2">
-        <v>45357</v>
-      </c>
-      <c r="G52" s="2">
         <v>45469</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>172</v>
       </c>
@@ -1822,9 +1790,6 @@
         <v>143</v>
       </c>
       <c r="F54" s="2">
-        <v>45351</v>
-      </c>
-      <c r="G54" s="2">
         <v>45484</v>
       </c>
     </row>
@@ -1845,9 +1810,6 @@
         <v>143</v>
       </c>
       <c r="F55" s="2">
-        <v>45351</v>
-      </c>
-      <c r="G55" s="2">
         <v>45484</v>
       </c>
     </row>
@@ -1868,9 +1830,6 @@
         <v>134</v>
       </c>
       <c r="F56" s="2">
-        <v>45326</v>
-      </c>
-      <c r="G56" s="2">
         <v>45480</v>
       </c>
     </row>
@@ -1891,13 +1850,10 @@
         <v>124</v>
       </c>
       <c r="F57" s="2">
-        <v>45273</v>
-      </c>
-      <c r="G57" s="2">
         <v>45469</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>206</v>
       </c>
@@ -1908,7 +1864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>215</v>
       </c>
@@ -1919,7 +1875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>217</v>
       </c>
@@ -1956,9 +1912,6 @@
         <v>135</v>
       </c>
       <c r="F61" s="2">
-        <v>45357</v>
-      </c>
-      <c r="G61" s="2">
         <v>45469</v>
       </c>
     </row>
@@ -1978,11 +1931,14 @@
       <c r="E62" s="1" t="s">
         <v>124</v>
       </c>
+      <c r="F62" s="2">
+        <v>45518</v>
+      </c>
       <c r="G62" s="2">
-        <v>45518</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45546</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>232</v>
       </c>
@@ -1993,7 +1949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>234</v>
       </c>
@@ -2004,7 +1960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>240</v>
       </c>
@@ -2041,9 +1997,6 @@
         <v>135</v>
       </c>
       <c r="F66" s="2">
-        <v>45355</v>
-      </c>
-      <c r="G66" s="2">
         <v>45468</v>
       </c>
     </row>
@@ -2064,9 +2017,6 @@
         <v>124</v>
       </c>
       <c r="F67" s="2">
-        <v>45273</v>
-      </c>
-      <c r="G67" s="2">
         <v>45469</v>
       </c>
     </row>
@@ -2086,12 +2036,11 @@
       <c r="E68" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="F68" s="2"/>
-      <c r="G68" s="2">
+      <c r="F68" s="2">
         <v>45469</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>268</v>
       </c>
@@ -2111,7 +2060,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>287</v>
       </c>
@@ -2147,11 +2096,14 @@
       <c r="E71" s="1" t="s">
         <v>124</v>
       </c>
+      <c r="F71" s="2">
+        <v>45518</v>
+      </c>
       <c r="G71" s="2">
-        <v>45518</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45546</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>338</v>
       </c>
@@ -2178,8 +2130,11 @@
       <c r="E73" s="1" t="s">
         <v>124</v>
       </c>
+      <c r="F73" s="2">
+        <v>45518</v>
+      </c>
       <c r="G73" s="2">
-        <v>45518</v>
+        <v>45546</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
@@ -2199,9 +2154,6 @@
         <v>132</v>
       </c>
       <c r="F74" s="2">
-        <v>45357</v>
-      </c>
-      <c r="G74" s="2">
         <v>45480</v>
       </c>
     </row>
@@ -2222,9 +2174,6 @@
         <v>132</v>
       </c>
       <c r="F75" s="2">
-        <v>45357</v>
-      </c>
-      <c r="G75" s="2">
         <v>45480</v>
       </c>
     </row>
@@ -2245,9 +2194,6 @@
         <v>114</v>
       </c>
       <c r="F76" s="2">
-        <v>45273</v>
-      </c>
-      <c r="G76" s="2">
         <v>45481</v>
       </c>
     </row>
@@ -2268,9 +2214,6 @@
         <v>114</v>
       </c>
       <c r="F77" s="2">
-        <v>45273</v>
-      </c>
-      <c r="G77" s="2">
         <v>45481</v>
       </c>
     </row>
@@ -2290,7 +2233,7 @@
       <c r="E78" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="G78" s="2">
+      <c r="F78" s="2">
         <v>45493</v>
       </c>
     </row>
@@ -2311,13 +2254,10 @@
         <v>125</v>
       </c>
       <c r="F79" s="2">
-        <v>45366</v>
-      </c>
-      <c r="G79" s="2">
         <v>45480</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" s="5">
         <v>410</v>
       </c>
@@ -2354,13 +2294,13 @@
         <v>124</v>
       </c>
       <c r="F81" s="2">
-        <v>45355</v>
+        <v>45480</v>
       </c>
       <c r="G81" s="2">
-        <v>45480</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45546</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>441</v>
       </c>
@@ -2371,7 +2311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>442</v>
       </c>
@@ -2391,7 +2331,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>448</v>
       </c>
@@ -2427,8 +2367,7 @@
       <c r="E85" t="s">
         <v>124</v>
       </c>
-      <c r="F85" s="2"/>
-      <c r="G85" s="2">
+      <c r="F85" s="2">
         <v>45480</v>
       </c>
     </row>
@@ -2448,7 +2387,7 @@
       <c r="E86" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="G86" s="2">
+      <c r="F86" s="2">
         <v>45493</v>
       </c>
     </row>
@@ -2469,10 +2408,10 @@
         <v>125</v>
       </c>
       <c r="F87" s="2">
-        <v>45273</v>
+        <v>45468</v>
       </c>
       <c r="G87" s="2">
-        <v>45468</v>
+        <v>45546</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
@@ -2491,12 +2430,11 @@
       <c r="E88" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="F88" s="2"/>
-      <c r="G88" s="2">
+      <c r="F88" s="2">
         <v>45484</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>633</v>
       </c>
@@ -2507,7 +2445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>645</v>
       </c>
@@ -2544,13 +2482,10 @@
         <v>114</v>
       </c>
       <c r="F91" s="2">
-        <v>45273</v>
-      </c>
-      <c r="G91" s="2">
         <v>45468</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>744</v>
       </c>
@@ -2570,7 +2505,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>771</v>
       </c>
@@ -2590,7 +2525,7 @@
         <v>45355</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>804</v>
       </c>
@@ -2601,7 +2536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>832</v>
       </c>
@@ -2612,7 +2547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>844</v>
       </c>
@@ -2632,7 +2567,7 @@
         <v>45366</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>852</v>
       </c>
@@ -2669,13 +2604,10 @@
         <v>132</v>
       </c>
       <c r="F98" s="2">
-        <v>45326</v>
-      </c>
-      <c r="G98" s="2">
         <v>45481</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>876</v>
       </c>
@@ -2695,7 +2627,7 @@
         <v>45366</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>921</v>
       </c>
@@ -2722,11 +2654,14 @@
       <c r="E101" s="1" t="s">
         <v>132</v>
       </c>
+      <c r="F101" s="2">
+        <v>45518</v>
+      </c>
       <c r="G101" s="2">
-        <v>45518</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45546</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>1016</v>
       </c>
@@ -2737,7 +2672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>1095</v>
       </c>
@@ -2773,11 +2708,14 @@
       <c r="E104" s="1" t="s">
         <v>132</v>
       </c>
+      <c r="F104" s="2">
+        <v>45518</v>
+      </c>
       <c r="G104" s="2">
-        <v>45518</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45546</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>1290</v>
       </c>
@@ -2814,9 +2752,6 @@
         <v>132</v>
       </c>
       <c r="F106" s="2">
-        <v>45273</v>
-      </c>
-      <c r="G106" s="2">
         <v>45468</v>
       </c>
     </row>
@@ -2837,13 +2772,10 @@
         <v>124</v>
       </c>
       <c r="F107" s="2">
-        <v>45273</v>
-      </c>
-      <c r="G107" s="2">
         <v>45468</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>1346</v>
       </c>
@@ -2854,7 +2786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>1492</v>
       </c>
@@ -2882,13 +2814,10 @@
         <v>132</v>
       </c>
       <c r="F110" s="2">
-        <v>45326</v>
-      </c>
-      <c r="G110" s="2">
         <v>45482</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>1672</v>
       </c>
@@ -2924,11 +2853,14 @@
       <c r="E112" s="1" t="s">
         <v>132</v>
       </c>
+      <c r="F112" s="2">
+        <v>45482</v>
+      </c>
       <c r="G112" s="2">
-        <v>45482</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45546</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>2221</v>
       </c>
@@ -2956,13 +2888,13 @@
         <v>124</v>
       </c>
       <c r="F114" s="2">
-        <v>45273</v>
+        <v>45468</v>
       </c>
       <c r="G114" s="2">
-        <v>45468</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45546</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>2293</v>
       </c>
@@ -2989,7 +2921,7 @@
       <c r="E116" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="G116" s="2">
+      <c r="F116" s="2">
         <v>45482</v>
       </c>
     </row>
@@ -3010,9 +2942,6 @@
         <v>132</v>
       </c>
       <c r="F117" s="2">
-        <v>45370</v>
-      </c>
-      <c r="G117" s="2">
         <v>45482</v>
       </c>
     </row>
@@ -3032,8 +2961,7 @@
       <c r="E118" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="F118" s="2"/>
-      <c r="G118" s="2">
+      <c r="F118" s="2">
         <v>45482</v>
       </c>
     </row>
@@ -3047,8 +2975,7 @@
       <c r="C119" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F119" s="2"/>
-      <c r="G119" s="2">
+      <c r="F119" s="2">
         <v>45493</v>
       </c>
     </row>
@@ -3068,8 +2995,7 @@
       <c r="E120" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="F120" s="2"/>
-      <c r="G120" s="2">
+      <c r="F120" s="2">
         <v>45482</v>
       </c>
     </row>
@@ -3090,13 +3016,21 @@
         <v>132</v>
       </c>
       <c r="F121" s="2">
-        <v>45370</v>
-      </c>
-      <c r="G121" s="2">
         <v>45482</v>
       </c>
     </row>
-    <row r="133" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:7" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="123" spans="1:7" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="124" spans="1:7" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="125" spans="1:7" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="126" spans="1:7" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="127" spans="1:7" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="128" spans="1:7" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="129" spans="6:7" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="130" spans="6:7" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="131" spans="6:7" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="132" spans="6:7" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="133" spans="6:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="F133" s="1" t="s">
         <v>131</v>
       </c>
@@ -3104,7 +3038,21 @@
         <v>131</v>
       </c>
     </row>
+    <row r="135" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F135" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="F1:F133" xr:uid="{3C0ADE24-140B-4EE6-A32B-01D05623BF43}">
+    <filterColumn colId="0">
+      <filters>
+        <dateGroupItem year="2024" month="6" dateTimeGrouping="month"/>
+        <dateGroupItem year="2024" month="7" dateTimeGrouping="month"/>
+        <dateGroupItem year="2024" month="8" dateTimeGrouping="month"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <hyperlinks>
     <hyperlink ref="B118" r:id="rId1" display="https://leetcode.com/problems/prime-in-diagonal/" xr:uid="{B83FE3AB-D732-44D0-80B5-778583C1517E}"/>
   </hyperlinks>

--- a/Leetcode problem tracker.xlsx
+++ b/Leetcode problem tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Coding\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB08A642-216E-4108-9311-07F2B3289D9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{679329A5-0CC0-45AB-A5F6-F890827A6D50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{365DB2E8-E54E-499E-9AF1-AA44A1C62DEA}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Algos" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Problems!$F$1:$F$133</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Problems!$F$1:$F$135</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -891,8 +891,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:G135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F52" sqref="F52"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="G55" sqref="G55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -949,6 +949,9 @@
       <c r="F3" s="2">
         <v>45468</v>
       </c>
+      <c r="G3" s="2">
+        <v>45549</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
@@ -1026,6 +1029,9 @@
       <c r="F7" s="2">
         <v>45480</v>
       </c>
+      <c r="G7" s="2">
+        <v>45549</v>
+      </c>
     </row>
     <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
@@ -1057,6 +1063,9 @@
       <c r="F9" s="2">
         <v>45480</v>
       </c>
+      <c r="G9" s="2">
+        <v>45555</v>
+      </c>
     </row>
     <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
@@ -1171,7 +1180,7 @@
         <v>45292</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>34</v>
       </c>
@@ -1190,8 +1199,11 @@
       <c r="F17" s="2">
         <v>45484</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G17" s="2">
+        <v>45560</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>35</v>
       </c>
@@ -1210,8 +1222,11 @@
       <c r="F18" s="2">
         <v>45468</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G18" s="2">
+        <v>45559</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>36</v>
       </c>
@@ -1222,7 +1237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>37</v>
       </c>
@@ -1233,7 +1248,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>41</v>
       </c>
@@ -1253,7 +1268,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>46</v>
       </c>
@@ -1264,7 +1279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>47</v>
       </c>
@@ -1275,7 +1290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>51</v>
       </c>
@@ -1286,7 +1301,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>52</v>
       </c>
@@ -1297,7 +1312,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>58</v>
       </c>
@@ -1316,8 +1331,11 @@
       <c r="F26" s="2">
         <v>45482</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G26" s="2">
+        <v>45552</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>61</v>
       </c>
@@ -1328,7 +1346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>66</v>
       </c>
@@ -1347,8 +1365,11 @@
       <c r="F28" s="2">
         <v>45470</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G28" s="2">
+        <v>45549</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>67</v>
       </c>
@@ -1367,8 +1388,11 @@
       <c r="F29" s="2">
         <v>45480</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G29" s="2">
+        <v>45555</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>69</v>
       </c>
@@ -1387,8 +1411,11 @@
       <c r="F30" s="2">
         <v>45468</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G30" s="2">
+        <v>45549</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>73</v>
       </c>
@@ -1408,7 +1435,7 @@
         <v>45361</v>
       </c>
     </row>
-    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>74</v>
       </c>
@@ -1542,6 +1569,9 @@
       <c r="F40" s="2">
         <v>45484</v>
       </c>
+      <c r="G40" s="2">
+        <v>45560</v>
+      </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
@@ -1562,6 +1592,9 @@
       <c r="F41" s="2">
         <v>45484</v>
       </c>
+      <c r="G41" s="2">
+        <v>45560</v>
+      </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
@@ -1582,6 +1615,9 @@
       <c r="F42" s="2">
         <v>45468</v>
       </c>
+      <c r="G42" s="2">
+        <v>45552</v>
+      </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
@@ -1761,6 +1797,9 @@
       <c r="F52" s="2">
         <v>45469</v>
       </c>
+      <c r="G52" s="2">
+        <v>45552</v>
+      </c>
     </row>
     <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
@@ -1832,6 +1871,9 @@
       <c r="F56" s="2">
         <v>45480</v>
       </c>
+      <c r="G56" s="2">
+        <v>45559</v>
+      </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
@@ -1852,6 +1894,9 @@
       <c r="F57" s="2">
         <v>45469</v>
       </c>
+      <c r="G57" s="2">
+        <v>45559</v>
+      </c>
     </row>
     <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
@@ -1914,6 +1959,9 @@
       <c r="F61" s="2">
         <v>45469</v>
       </c>
+      <c r="G61" s="2">
+        <v>45552</v>
+      </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
@@ -1999,6 +2047,9 @@
       <c r="F66" s="2">
         <v>45468</v>
       </c>
+      <c r="G66" s="2">
+        <v>45552</v>
+      </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
@@ -2019,6 +2070,9 @@
       <c r="F67" s="2">
         <v>45469</v>
       </c>
+      <c r="G67" s="2">
+        <v>45559</v>
+      </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
@@ -2039,6 +2093,9 @@
       <c r="F68" s="2">
         <v>45469</v>
       </c>
+      <c r="G68" s="2">
+        <v>45560</v>
+      </c>
     </row>
     <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
@@ -2156,6 +2213,9 @@
       <c r="F74" s="2">
         <v>45480</v>
       </c>
+      <c r="G74" s="2">
+        <v>45549</v>
+      </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
@@ -2176,6 +2236,9 @@
       <c r="F75" s="2">
         <v>45480</v>
       </c>
+      <c r="G75" s="2">
+        <v>45549</v>
+      </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
@@ -2196,6 +2259,9 @@
       <c r="F76" s="2">
         <v>45481</v>
       </c>
+      <c r="G76" s="2">
+        <v>45549</v>
+      </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
@@ -2216,6 +2282,9 @@
       <c r="F77" s="2">
         <v>45481</v>
       </c>
+      <c r="G77" s="2">
+        <v>45549</v>
+      </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
@@ -2390,6 +2459,9 @@
       <c r="F86" s="2">
         <v>45493</v>
       </c>
+      <c r="G86" s="2">
+        <v>45549</v>
+      </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
@@ -2484,6 +2556,9 @@
       <c r="F91" s="2">
         <v>45468</v>
       </c>
+      <c r="G91" s="2">
+        <v>45549</v>
+      </c>
     </row>
     <row r="92" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
@@ -2754,6 +2829,9 @@
       <c r="F106" s="2">
         <v>45468</v>
       </c>
+      <c r="G106" s="2">
+        <v>45549</v>
+      </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
@@ -2816,6 +2894,9 @@
       <c r="F110" s="2">
         <v>45482</v>
       </c>
+      <c r="G110" s="2">
+        <v>45560</v>
+      </c>
     </row>
     <row r="111" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
@@ -2963,6 +3044,9 @@
       </c>
       <c r="F118" s="2">
         <v>45482</v>
+      </c>
+      <c r="G118" s="2">
+        <v>45560</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.3">
@@ -3038,13 +3122,14 @@
         <v>131</v>
       </c>
     </row>
-    <row r="135" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="134" spans="6:7" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="135" spans="6:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="F135" s="1" t="s">
         <v>127</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="F1:F133" xr:uid="{3C0ADE24-140B-4EE6-A32B-01D05623BF43}">
+  <autoFilter ref="F1:F135" xr:uid="{3C0ADE24-140B-4EE6-A32B-01D05623BF43}">
     <filterColumn colId="0">
       <filters>
         <dateGroupItem year="2024" month="6" dateTimeGrouping="month"/>
@@ -3066,7 +3151,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3126,7 +3211,7 @@
         <v>45273</v>
       </c>
       <c r="F3" s="2">
-        <v>45468</v>
+        <v>45559</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -3143,7 +3228,7 @@
         <v>45273</v>
       </c>
       <c r="F4" s="2">
-        <v>45468</v>
+        <v>45559</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -3160,7 +3245,7 @@
         <v>45273</v>
       </c>
       <c r="F5" s="2">
-        <v>45468</v>
+        <v>45559</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">

--- a/Leetcode problem tracker.xlsx
+++ b/Leetcode problem tracker.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Coding\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{679329A5-0CC0-45AB-A5F6-F890827A6D50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A1CAEF7-176F-4A50-8BCF-62D73A19484F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{365DB2E8-E54E-499E-9AF1-AA44A1C62DEA}"/>
   </bookViews>
@@ -891,8 +891,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:G135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="G55" sqref="G55"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1434,6 +1434,9 @@
       <c r="F31" s="2">
         <v>45361</v>
       </c>
+      <c r="G31" s="2">
+        <v>45568</v>
+      </c>
     </row>
     <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
@@ -1831,6 +1834,9 @@
       <c r="F54" s="2">
         <v>45484</v>
       </c>
+      <c r="G54" s="2">
+        <v>45560</v>
+      </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
@@ -1851,6 +1857,9 @@
       <c r="F55" s="2">
         <v>45484</v>
       </c>
+      <c r="G55" s="2">
+        <v>45560</v>
+      </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
@@ -2305,6 +2314,9 @@
       <c r="F78" s="2">
         <v>45493</v>
       </c>
+      <c r="G78" s="2">
+        <v>45568</v>
+      </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
@@ -2325,6 +2337,9 @@
       <c r="F79" s="2">
         <v>45480</v>
       </c>
+      <c r="G79" s="2">
+        <v>45568</v>
+      </c>
     </row>
     <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" s="5">
@@ -2439,6 +2454,9 @@
       <c r="F85" s="2">
         <v>45480</v>
       </c>
+      <c r="G85" s="2">
+        <v>45568</v>
+      </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
@@ -2505,6 +2523,9 @@
       <c r="F88" s="2">
         <v>45484</v>
       </c>
+      <c r="G88" s="2">
+        <v>45568</v>
+      </c>
     </row>
     <row r="89" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
@@ -2681,6 +2702,9 @@
       <c r="F98" s="2">
         <v>45481</v>
       </c>
+      <c r="G98" s="2">
+        <v>45568</v>
+      </c>
     </row>
     <row r="99" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
@@ -2852,6 +2876,9 @@
       <c r="F107" s="2">
         <v>45468</v>
       </c>
+      <c r="G107" s="2">
+        <v>45568</v>
+      </c>
     </row>
     <row r="108" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
@@ -3005,6 +3032,9 @@
       <c r="F116" s="2">
         <v>45482</v>
       </c>
+      <c r="G116" s="2">
+        <v>45568</v>
+      </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
@@ -3025,6 +3055,9 @@
       <c r="F117" s="2">
         <v>45482</v>
       </c>
+      <c r="G117" s="2">
+        <v>45568</v>
+      </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
@@ -3062,6 +3095,9 @@
       <c r="F119" s="2">
         <v>45493</v>
       </c>
+      <c r="G119" s="2">
+        <v>45568</v>
+      </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
@@ -3082,6 +3118,9 @@
       <c r="F120" s="2">
         <v>45482</v>
       </c>
+      <c r="G120" s="2">
+        <v>45568</v>
+      </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
@@ -3101,6 +3140,9 @@
       </c>
       <c r="F121" s="2">
         <v>45482</v>
+      </c>
+      <c r="G121" s="2">
+        <v>45568</v>
       </c>
     </row>
     <row r="122" spans="1:7" hidden="1" x14ac:dyDescent="0.3"/>

--- a/Leetcode problem tracker.xlsx
+++ b/Leetcode problem tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Coding\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A1CAEF7-176F-4A50-8BCF-62D73A19484F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6349F9B-2E83-433F-95BB-9345DFDFC8B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{365DB2E8-E54E-499E-9AF1-AA44A1C62DEA}"/>
   </bookViews>
@@ -892,7 +892,7 @@
   <dimension ref="A1:G135"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1248,7 +1248,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>41</v>
       </c>
@@ -1438,7 +1438,7 @@
         <v>45568</v>
       </c>
     </row>
-    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>74</v>
       </c>
@@ -1456,6 +1456,9 @@
       </c>
       <c r="F32" s="2">
         <v>45273</v>
+      </c>
+      <c r="G32" s="2">
+        <v>45595</v>
       </c>
     </row>
     <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -1761,7 +1764,7 @@
         <v>45310</v>
       </c>
     </row>
-    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="5">
         <v>162</v>
       </c>
@@ -2017,7 +2020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>240</v>
       </c>
@@ -2035,6 +2038,9 @@
       </c>
       <c r="F65" s="2">
         <v>45273</v>
+      </c>
+      <c r="G65" s="2">
+        <v>45595</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
@@ -2106,7 +2112,7 @@
         <v>45560</v>
       </c>
     </row>
-    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>268</v>
       </c>
@@ -2126,7 +2132,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>287</v>
       </c>
@@ -2395,7 +2401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>442</v>
       </c>
@@ -2415,7 +2421,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>448</v>
       </c>
@@ -2538,7 +2544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>645</v>
       </c>
@@ -2581,7 +2587,7 @@
         <v>45549</v>
       </c>
     </row>
-    <row r="92" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>744</v>
       </c>
@@ -2663,7 +2669,7 @@
         <v>45366</v>
       </c>
     </row>
-    <row r="97" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>852</v>
       </c>
@@ -2771,7 +2777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>1095</v>
       </c>
@@ -2925,7 +2931,7 @@
         <v>45560</v>
       </c>
     </row>
-    <row r="111" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>1672</v>
       </c>
@@ -2943,6 +2949,9 @@
       </c>
       <c r="F111" s="2">
         <v>45273</v>
+      </c>
+      <c r="G111" s="2">
+        <v>45595</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.3">
@@ -3177,6 +3186,7 @@
         <dateGroupItem year="2024" month="6" dateTimeGrouping="month"/>
         <dateGroupItem year="2024" month="7" dateTimeGrouping="month"/>
         <dateGroupItem year="2024" month="8" dateTimeGrouping="month"/>
+        <dateGroupItem year="2023" dateTimeGrouping="year"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -3193,7 +3203,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3237,7 +3247,9 @@
       <c r="E2" s="2">
         <v>45196</v>
       </c>
-      <c r="F2" s="2"/>
+      <c r="F2" s="2">
+        <v>45595</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
@@ -3303,7 +3315,9 @@
       <c r="E6" s="2">
         <v>45213</v>
       </c>
-      <c r="F6" s="2"/>
+      <c r="F6" s="2">
+        <v>45595</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">

--- a/Leetcode problem tracker.xlsx
+++ b/Leetcode problem tracker.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Coding\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B82AA555-F9F3-4E7B-8E96-10E89B55EF8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6349F9B-2E83-433F-95BB-9345DFDFC8B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{365DB2E8-E54E-499E-9AF1-AA44A1C62DEA}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Algos" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Problems!$G$1:$G$128</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Problems!$F$1:$F$135</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="155">
   <si>
     <t>Medium</t>
   </si>
@@ -479,13 +479,28 @@
   </si>
   <si>
     <t>Single Number II</t>
+  </si>
+  <si>
+    <t>Number Complement</t>
+  </si>
+  <si>
+    <t>Prime In Diagonal</t>
+  </si>
+  <si>
+    <t>Modify the Matrix</t>
+  </si>
+  <si>
+    <t>Find Customer Referee</t>
+  </si>
+  <si>
+    <t>Number of Changing Keys</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -503,6 +518,14 @@
       <sz val="11"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -528,10 +551,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -545,8 +569,13 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -859,10 +888,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C0ADE24-140B-4EE6-A32B-01D05623BF43}">
-  <dimension ref="A1:G128"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:G135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="G79" sqref="G79"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -899,6 +929,7 @@
         <v>133</v>
       </c>
     </row>
+    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
@@ -916,10 +947,10 @@
         <v>135</v>
       </c>
       <c r="F3" s="2">
-        <v>45326</v>
+        <v>45468</v>
       </c>
       <c r="G3" s="2">
-        <v>45468</v>
+        <v>45549</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -939,10 +970,10 @@
         <v>124</v>
       </c>
       <c r="F4" s="2">
-        <v>45273</v>
+        <v>45468</v>
       </c>
       <c r="G4" s="2">
-        <v>45468</v>
+        <v>45546</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -962,13 +993,13 @@
         <v>124</v>
       </c>
       <c r="F5" s="2">
-        <v>45273</v>
+        <v>45468</v>
       </c>
       <c r="G5" s="2">
-        <v>45468</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45546</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>13</v>
       </c>
@@ -996,13 +1027,13 @@
         <v>136</v>
       </c>
       <c r="F7" s="2">
-        <v>45335</v>
+        <v>45480</v>
       </c>
       <c r="G7" s="2">
-        <v>45480</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45549</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>17</v>
       </c>
@@ -1030,13 +1061,13 @@
         <v>138</v>
       </c>
       <c r="F9" s="2">
-        <v>45351</v>
+        <v>45480</v>
       </c>
       <c r="G9" s="2">
-        <v>45480</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45555</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>21</v>
       </c>
@@ -1047,7 +1078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>25</v>
       </c>
@@ -1058,7 +1089,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>26</v>
       </c>
@@ -1078,7 +1109,7 @@
         <v>45351</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>27</v>
       </c>
@@ -1098,7 +1129,7 @@
         <v>45351</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>28</v>
       </c>
@@ -1118,7 +1149,7 @@
         <v>45361</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>29</v>
       </c>
@@ -1129,7 +1160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>33</v>
       </c>
@@ -1166,7 +1197,10 @@
         <v>114</v>
       </c>
       <c r="F17" s="2">
-        <v>45273</v>
+        <v>45484</v>
+      </c>
+      <c r="G17" s="2">
+        <v>45560</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -1186,13 +1220,13 @@
         <v>114</v>
       </c>
       <c r="F18" s="2">
-        <v>45273</v>
+        <v>45468</v>
       </c>
       <c r="G18" s="2">
-        <v>45468</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45559</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>36</v>
       </c>
@@ -1203,7 +1237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>37</v>
       </c>
@@ -1234,7 +1268,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>46</v>
       </c>
@@ -1245,7 +1279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>47</v>
       </c>
@@ -1256,7 +1290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>51</v>
       </c>
@@ -1267,7 +1301,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>52</v>
       </c>
@@ -1288,8 +1322,20 @@
       <c r="C26" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D26" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F26" s="2">
+        <v>45482</v>
+      </c>
+      <c r="G26" s="2">
+        <v>45552</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>61</v>
       </c>
@@ -1317,10 +1363,10 @@
         <v>124</v>
       </c>
       <c r="F28" s="2">
-        <v>45273</v>
+        <v>45470</v>
       </c>
       <c r="G28" s="2">
-        <v>45470</v>
+        <v>45549</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
@@ -1340,10 +1386,10 @@
         <v>124</v>
       </c>
       <c r="F29" s="2">
-        <v>45351</v>
+        <v>45480</v>
       </c>
       <c r="G29" s="2">
-        <v>45480</v>
+        <v>45555</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
@@ -1363,13 +1409,13 @@
         <v>114</v>
       </c>
       <c r="F30" s="2">
-        <v>45273</v>
+        <v>45468</v>
       </c>
       <c r="G30" s="2">
-        <v>45468</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45549</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>73</v>
       </c>
@@ -1387,6 +1433,9 @@
       </c>
       <c r="F31" s="2">
         <v>45361</v>
+      </c>
+      <c r="G31" s="2">
+        <v>45568</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
@@ -1408,8 +1457,11 @@
       <c r="F32" s="2">
         <v>45273</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G32" s="2">
+        <v>45595</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>75</v>
       </c>
@@ -1429,7 +1481,7 @@
         <v>45351</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>78</v>
       </c>
@@ -1440,7 +1492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="5">
         <v>81</v>
       </c>
@@ -1460,7 +1512,7 @@
         <v>45310</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>83</v>
       </c>
@@ -1471,7 +1523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>88</v>
       </c>
@@ -1482,7 +1534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>90</v>
       </c>
@@ -1493,7 +1545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>92</v>
       </c>
@@ -1521,7 +1573,10 @@
         <v>132</v>
       </c>
       <c r="F40" s="2">
-        <v>45351</v>
+        <v>45484</v>
+      </c>
+      <c r="G40" s="2">
+        <v>45560</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
@@ -1541,7 +1596,10 @@
         <v>132</v>
       </c>
       <c r="F41" s="2">
-        <v>45351</v>
+        <v>45484</v>
+      </c>
+      <c r="G41" s="2">
+        <v>45560</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
@@ -1561,10 +1619,10 @@
         <v>136</v>
       </c>
       <c r="F42" s="2">
-        <v>45357</v>
+        <v>45468</v>
       </c>
       <c r="G42" s="2">
-        <v>45468</v>
+        <v>45552</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
@@ -1584,10 +1642,10 @@
         <v>135</v>
       </c>
       <c r="F43" s="2">
-        <v>45357</v>
+        <v>45469</v>
       </c>
       <c r="G43" s="2">
-        <v>45469</v>
+        <v>45546</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
@@ -1606,12 +1664,14 @@
       <c r="E44" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="F44" s="2"/>
+      <c r="F44" s="2">
+        <v>45469</v>
+      </c>
       <c r="G44" s="2">
-        <v>45469</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45546</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>141</v>
       </c>
@@ -1631,7 +1691,7 @@
         <v>45366</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>142</v>
       </c>
@@ -1642,7 +1702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>143</v>
       </c>
@@ -1653,7 +1713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>148</v>
       </c>
@@ -1664,7 +1724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:7" ht="16.8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A49" s="1">
         <v>153</v>
       </c>
@@ -1684,7 +1744,7 @@
         <v>45292</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:7" ht="16.8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A50" s="1">
         <v>154</v>
       </c>
@@ -1741,13 +1801,13 @@
         <v>135</v>
       </c>
       <c r="F52" s="2">
-        <v>45357</v>
+        <v>45469</v>
       </c>
       <c r="G52" s="2">
-        <v>45469</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45552</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>172</v>
       </c>
@@ -1775,7 +1835,10 @@
         <v>143</v>
       </c>
       <c r="F54" s="2">
-        <v>45351</v>
+        <v>45484</v>
+      </c>
+      <c r="G54" s="2">
+        <v>45560</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
@@ -1795,7 +1858,10 @@
         <v>143</v>
       </c>
       <c r="F55" s="2">
-        <v>45351</v>
+        <v>45484</v>
+      </c>
+      <c r="G55" s="2">
+        <v>45560</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
@@ -1815,7 +1881,10 @@
         <v>134</v>
       </c>
       <c r="F56" s="2">
-        <v>45326</v>
+        <v>45480</v>
+      </c>
+      <c r="G56" s="2">
+        <v>45559</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
@@ -1835,13 +1904,13 @@
         <v>124</v>
       </c>
       <c r="F57" s="2">
-        <v>45273</v>
+        <v>45469</v>
       </c>
       <c r="G57" s="2">
-        <v>45469</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45559</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>206</v>
       </c>
@@ -1852,7 +1921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>215</v>
       </c>
@@ -1863,7 +1932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>217</v>
       </c>
@@ -1900,10 +1969,10 @@
         <v>135</v>
       </c>
       <c r="F61" s="2">
-        <v>45357</v>
+        <v>45469</v>
       </c>
       <c r="G61" s="2">
-        <v>45469</v>
+        <v>45552</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
@@ -1916,8 +1985,20 @@
       <c r="C62" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D62" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F62" s="2">
+        <v>45518</v>
+      </c>
+      <c r="G62" s="2">
+        <v>45546</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>232</v>
       </c>
@@ -1928,7 +2009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>234</v>
       </c>
@@ -1958,6 +2039,9 @@
       <c r="F65" s="2">
         <v>45273</v>
       </c>
+      <c r="G65" s="2">
+        <v>45595</v>
+      </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
@@ -1976,10 +2060,10 @@
         <v>135</v>
       </c>
       <c r="F66" s="2">
-        <v>45355</v>
+        <v>45468</v>
       </c>
       <c r="G66" s="2">
-        <v>45468</v>
+        <v>45552</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
@@ -1999,10 +2083,10 @@
         <v>124</v>
       </c>
       <c r="F67" s="2">
-        <v>45273</v>
+        <v>45469</v>
       </c>
       <c r="G67" s="2">
-        <v>45469</v>
+        <v>45559</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
@@ -2021,9 +2105,11 @@
       <c r="E68" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="F68" s="2"/>
+      <c r="F68" s="2">
+        <v>45469</v>
+      </c>
       <c r="G68" s="2">
-        <v>45469</v>
+        <v>45560</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
@@ -2076,8 +2162,20 @@
       <c r="C71" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D71" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F71" s="2">
+        <v>45518</v>
+      </c>
+      <c r="G71" s="2">
+        <v>45546</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>338</v>
       </c>
@@ -2098,6 +2196,18 @@
       <c r="C73" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="D73" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F73" s="2">
+        <v>45518</v>
+      </c>
+      <c r="G73" s="2">
+        <v>45546</v>
+      </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
@@ -2116,10 +2226,10 @@
         <v>132</v>
       </c>
       <c r="F74" s="2">
-        <v>45357</v>
+        <v>45480</v>
       </c>
       <c r="G74" s="2">
-        <v>45480</v>
+        <v>45549</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
@@ -2139,10 +2249,10 @@
         <v>132</v>
       </c>
       <c r="F75" s="2">
-        <v>45357</v>
+        <v>45480</v>
       </c>
       <c r="G75" s="2">
-        <v>45480</v>
+        <v>45549</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
@@ -2162,7 +2272,10 @@
         <v>114</v>
       </c>
       <c r="F76" s="2">
-        <v>45273</v>
+        <v>45481</v>
+      </c>
+      <c r="G76" s="2">
+        <v>45549</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
@@ -2182,7 +2295,10 @@
         <v>114</v>
       </c>
       <c r="F77" s="2">
-        <v>45273</v>
+        <v>45481</v>
+      </c>
+      <c r="G77" s="2">
+        <v>45549</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
@@ -2195,6 +2311,18 @@
       <c r="C78" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="D78" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F78" s="2">
+        <v>45493</v>
+      </c>
+      <c r="G78" s="2">
+        <v>45568</v>
+      </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
@@ -2213,13 +2341,13 @@
         <v>125</v>
       </c>
       <c r="F79" s="2">
-        <v>45366</v>
+        <v>45480</v>
       </c>
       <c r="G79" s="2">
-        <v>45480</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45568</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" s="5">
         <v>410</v>
       </c>
@@ -2256,10 +2384,13 @@
         <v>124</v>
       </c>
       <c r="F81" s="2">
-        <v>45355</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45480</v>
+      </c>
+      <c r="G81" s="2">
+        <v>45546</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>441</v>
       </c>
@@ -2312,107 +2443,122 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
-        <v>500</v>
+        <v>476</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>98</v>
+        <v>150</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>1</v>
+      </c>
+      <c r="D85" t="s">
+        <v>124</v>
+      </c>
+      <c r="E85" t="s">
+        <v>124</v>
+      </c>
+      <c r="F85" s="2">
+        <v>45480</v>
+      </c>
+      <c r="G85" s="2">
+        <v>45568</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
-        <v>509</v>
+        <v>500</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="F86" s="2">
-        <v>45273</v>
+        <v>45493</v>
       </c>
       <c r="G86" s="2">
-        <v>45468</v>
+        <v>45549</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
-        <v>633</v>
+        <v>509</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F87" s="2">
+        <v>45468</v>
+      </c>
+      <c r="G87" s="2">
+        <v>45546</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
-        <v>645</v>
+        <v>584</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>101</v>
+        <v>153</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D88" t="s">
-        <v>123</v>
-      </c>
-      <c r="E88" t="s">
-        <v>132</v>
+      <c r="D88" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>143</v>
       </c>
       <c r="F88" s="2">
-        <v>45273</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45484</v>
+      </c>
+      <c r="G88" s="2">
+        <v>45568</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
-        <v>704</v>
+        <v>633</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F89" s="2">
-        <v>45273</v>
-      </c>
-      <c r="G89" s="2">
-        <v>45468</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
-        <v>744</v>
+        <v>645</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D90" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>114</v>
+      <c r="D90" t="s">
+        <v>123</v>
+      </c>
+      <c r="E90" t="s">
+        <v>132</v>
       </c>
       <c r="F90" s="2">
         <v>45273</v>
@@ -2420,154 +2566,178 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
-        <v>771</v>
+        <v>704</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>142</v>
+        <v>102</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="F91" s="2">
-        <v>45355</v>
+        <v>45468</v>
+      </c>
+      <c r="G91" s="2">
+        <v>45549</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
+        <v>744</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F92" s="2">
+        <v>45273</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="1">
+        <v>771</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F93" s="2">
+        <v>45355</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="1">
         <v>804</v>
       </c>
-      <c r="B92" s="3" t="s">
+      <c r="B94" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C92" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A93" s="1">
+      <c r="C94" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="1">
         <v>832</v>
       </c>
-      <c r="B93" s="3" t="s">
+      <c r="B95" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C93" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A94" s="1">
+      <c r="C95" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="1">
         <v>844</v>
       </c>
-      <c r="B94" s="3" t="s">
+      <c r="B96" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C94" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D94" s="1" t="s">
+      <c r="C96" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D96" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="E94" s="1" t="s">
+      <c r="E96" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="F94" s="2">
+      <c r="F96" s="2">
         <v>45366</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A95" s="1">
-        <v>852</v>
-      </c>
-      <c r="B95" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F95" s="2">
-        <v>45273</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A96" s="1">
-        <v>867</v>
-      </c>
-      <c r="B96" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="E96" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="F96" s="2">
-        <v>45326</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
-        <v>876</v>
+        <v>852</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>144</v>
+        <v>114</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>144</v>
+        <v>114</v>
       </c>
       <c r="F97" s="2">
-        <v>45366</v>
+        <v>45273</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
+        <v>867</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F98" s="2">
+        <v>45481</v>
+      </c>
+      <c r="G98" s="2">
+        <v>45568</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="1">
+        <v>876</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F99" s="2">
+        <v>45366</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="1">
         <v>921</v>
       </c>
-      <c r="B98" s="3" t="s">
+      <c r="B100" s="3" t="s">
         <v>110</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A99" s="1">
-        <v>961</v>
-      </c>
-      <c r="B99" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A100" s="1">
-        <v>1016</v>
-      </c>
-      <c r="B100" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>0</v>
@@ -2575,282 +2745,456 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
-        <v>1095</v>
+        <v>961</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="F101" s="2">
-        <v>45273</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45518</v>
+      </c>
+      <c r="G101" s="2">
+        <v>45546</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
-        <v>1137</v>
+        <v>1016</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
-        <v>1290</v>
+        <v>1095</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>144</v>
+        <v>114</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>144</v>
+        <v>114</v>
       </c>
       <c r="F103" s="2">
-        <v>45366</v>
+        <v>45273</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
-        <v>1295</v>
+        <v>1137</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>132</v>
       </c>
       <c r="F104" s="2">
-        <v>45273</v>
+        <v>45518</v>
       </c>
       <c r="G104" s="2">
-        <v>45468</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45546</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
-        <v>1342</v>
+        <v>1290</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="F105" s="2">
-        <v>45273</v>
-      </c>
-      <c r="G105" s="2">
-        <v>45468</v>
+        <v>45366</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
-        <v>1346</v>
+        <v>1295</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>1</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F106" s="2">
+        <v>45468</v>
+      </c>
+      <c r="G106" s="2">
+        <v>45549</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
+        <v>1342</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F107" s="2">
+        <v>45468</v>
+      </c>
+      <c r="G107" s="2">
+        <v>45568</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="1">
+        <v>1346</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="1">
         <v>1492</v>
       </c>
-      <c r="B107" s="3" t="s">
+      <c r="B109" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C107" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A108" s="1">
-        <v>1572</v>
-      </c>
-      <c r="B108" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="E108" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="F108" s="2">
-        <v>45326</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A109" s="1">
-        <v>1672</v>
-      </c>
-      <c r="B109" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="C109" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="E109" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="F109" s="2">
-        <v>45273</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
-        <v>1929</v>
+        <v>1572</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>1</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F110" s="2">
+        <v>45482</v>
+      </c>
+      <c r="G110" s="2">
+        <v>45560</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
-        <v>2221</v>
+        <v>1672</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F111" s="2">
+        <v>45273</v>
+      </c>
+      <c r="G111" s="2">
+        <v>45595</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
-        <v>2235</v>
+        <v>1929</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="F112" s="2">
-        <v>45273</v>
+        <v>45482</v>
       </c>
       <c r="G112" s="2">
-        <v>45468</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45546</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
-        <v>2293</v>
+        <v>2221</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
-        <v>2319</v>
+        <v>2235</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D114" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F114" s="2">
+        <v>45468</v>
+      </c>
+      <c r="G114" s="2">
+        <v>45546</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
-        <v>2427</v>
+        <v>2293</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="D115" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="E115" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="F115" s="2">
-        <v>45370</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
+        <v>2319</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F116" s="2">
+        <v>45482</v>
+      </c>
+      <c r="G116" s="2">
+        <v>45568</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A117" s="1">
+        <v>2427</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F117" s="2">
+        <v>45482</v>
+      </c>
+      <c r="G117" s="2">
+        <v>45568</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A118" s="1">
+        <v>2614</v>
+      </c>
+      <c r="B118" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F118" s="2">
+        <v>45482</v>
+      </c>
+      <c r="G118" s="2">
+        <v>45560</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A119" s="1">
+        <v>3019</v>
+      </c>
+      <c r="B119" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F119" s="2">
+        <v>45493</v>
+      </c>
+      <c r="G119" s="2">
+        <v>45568</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A120" s="1">
+        <v>3033</v>
+      </c>
+      <c r="B120" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F120" s="2">
+        <v>45482</v>
+      </c>
+      <c r="G120" s="2">
+        <v>45568</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A121" s="1">
         <v>3074</v>
       </c>
-      <c r="B116" s="3" t="s">
+      <c r="B121" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="C116" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D116" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="E116" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="F116" s="2">
-        <v>45370</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F128" s="1" t="s">
+      <c r="C121" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F121" s="2">
+        <v>45482</v>
+      </c>
+      <c r="G121" s="2">
+        <v>45568</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="123" spans="1:7" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="124" spans="1:7" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="125" spans="1:7" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="126" spans="1:7" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="127" spans="1:7" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="128" spans="1:7" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="129" spans="6:7" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="130" spans="6:7" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="131" spans="6:7" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="132" spans="6:7" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="133" spans="6:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F133" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="G128" s="1" t="s">
+      <c r="G133" s="1" t="s">
         <v>131</v>
       </c>
     </row>
+    <row r="134" spans="6:7" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="135" spans="6:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F135" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="G1:G128" xr:uid="{3C0ADE24-140B-4EE6-A32B-01D05623BF43}"/>
+  <autoFilter ref="F1:F135" xr:uid="{3C0ADE24-140B-4EE6-A32B-01D05623BF43}">
+    <filterColumn colId="0">
+      <filters>
+        <dateGroupItem year="2024" month="6" dateTimeGrouping="month"/>
+        <dateGroupItem year="2024" month="7" dateTimeGrouping="month"/>
+        <dateGroupItem year="2024" month="8" dateTimeGrouping="month"/>
+        <dateGroupItem year="2023" dateTimeGrouping="year"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <hyperlinks>
+    <hyperlink ref="B118" r:id="rId1" display="https://leetcode.com/problems/prime-in-diagonal/" xr:uid="{B83FE3AB-D732-44D0-80B5-778583C1517E}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2859,7 +3203,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2903,7 +3247,9 @@
       <c r="E2" s="2">
         <v>45196</v>
       </c>
-      <c r="F2" s="2"/>
+      <c r="F2" s="2">
+        <v>45595</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
@@ -2919,7 +3265,7 @@
         <v>45273</v>
       </c>
       <c r="F3" s="2">
-        <v>45468</v>
+        <v>45559</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -2936,7 +3282,7 @@
         <v>45273</v>
       </c>
       <c r="F4" s="2">
-        <v>45468</v>
+        <v>45559</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -2953,7 +3299,7 @@
         <v>45273</v>
       </c>
       <c r="F5" s="2">
-        <v>45468</v>
+        <v>45559</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -2969,7 +3315,9 @@
       <c r="E6" s="2">
         <v>45213</v>
       </c>
-      <c r="F6" s="2"/>
+      <c r="F6" s="2">
+        <v>45595</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">

--- a/Leetcode problem tracker.xlsx
+++ b/Leetcode problem tracker.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Coding\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6349F9B-2E83-433F-95BB-9345DFDFC8B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D10D2A1-6055-4837-BD4C-7770DF26DFD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{365DB2E8-E54E-499E-9AF1-AA44A1C62DEA}"/>
   </bookViews>
@@ -892,7 +892,7 @@
   <dimension ref="A1:G135"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1160,7 +1160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>33</v>
       </c>
@@ -1267,6 +1267,9 @@
       <c r="F21" s="2">
         <v>45273</v>
       </c>
+      <c r="G21" s="2">
+        <v>45615</v>
+      </c>
     </row>
     <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
@@ -1492,7 +1495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="5">
         <v>81</v>
       </c>
@@ -1724,7 +1727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="16.8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A49" s="1">
         <v>153</v>
       </c>
@@ -1744,7 +1747,7 @@
         <v>45292</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="16.8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A50" s="1">
         <v>154</v>
       </c>
@@ -1783,6 +1786,9 @@
       <c r="F51" s="2">
         <v>45273</v>
       </c>
+      <c r="G51" s="2">
+        <v>45614</v>
+      </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
@@ -2131,6 +2137,9 @@
       <c r="F69" s="2">
         <v>45273</v>
       </c>
+      <c r="G69" s="2">
+        <v>45614</v>
+      </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
@@ -2151,6 +2160,9 @@
       <c r="F70" s="2">
         <v>45273</v>
       </c>
+      <c r="G70" s="2">
+        <v>45614</v>
+      </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
@@ -2347,7 +2359,7 @@
         <v>45568</v>
       </c>
     </row>
-    <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="5">
         <v>410</v>
       </c>
@@ -2420,6 +2432,9 @@
       <c r="F83" s="2">
         <v>45273</v>
       </c>
+      <c r="G83" s="2">
+        <v>45614</v>
+      </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
@@ -2440,6 +2455,9 @@
       <c r="F84" s="2">
         <v>45273</v>
       </c>
+      <c r="G84" s="2">
+        <v>45614</v>
+      </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
@@ -2563,6 +2581,9 @@
       <c r="F90" s="2">
         <v>45273</v>
       </c>
+      <c r="G90" s="2">
+        <v>45614</v>
+      </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
@@ -2606,6 +2627,9 @@
       <c r="F92" s="2">
         <v>45273</v>
       </c>
+      <c r="G92" s="2">
+        <v>45614</v>
+      </c>
     </row>
     <row r="93" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
@@ -2688,6 +2712,9 @@
       <c r="F97" s="2">
         <v>45273</v>
       </c>
+      <c r="G97" s="2">
+        <v>45614</v>
+      </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
@@ -2795,6 +2822,9 @@
       </c>
       <c r="F103" s="2">
         <v>45273</v>
+      </c>
+      <c r="G103" s="2">
+        <v>45614</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.3">
@@ -3183,6 +3213,7 @@
   <autoFilter ref="F1:F135" xr:uid="{3C0ADE24-140B-4EE6-A32B-01D05623BF43}">
     <filterColumn colId="0">
       <filters>
+        <dateGroupItem year="2024" month="1" dateTimeGrouping="month"/>
         <dateGroupItem year="2024" month="6" dateTimeGrouping="month"/>
         <dateGroupItem year="2024" month="7" dateTimeGrouping="month"/>
         <dateGroupItem year="2024" month="8" dateTimeGrouping="month"/>
@@ -3203,7 +3234,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3362,7 +3393,9 @@
       <c r="E9" s="2">
         <v>45273</v>
       </c>
-      <c r="F9" s="2"/>
+      <c r="F9" s="2">
+        <v>45614</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">

--- a/Leetcode problem tracker.xlsx
+++ b/Leetcode problem tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Coding\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D10D2A1-6055-4837-BD4C-7770DF26DFD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D2B3A8D-D8B2-4E01-9FB9-A9C92559163F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{365DB2E8-E54E-499E-9AF1-AA44A1C62DEA}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="155">
   <si>
     <t>Medium</t>
   </si>
@@ -892,7 +892,7 @@
   <dimension ref="A1:G135"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1089,7 +1089,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>26</v>
       </c>
@@ -1108,8 +1108,11 @@
       <c r="F12" s="2">
         <v>45351</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G12" s="2">
+        <v>45618</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>27</v>
       </c>
@@ -1128,8 +1131,11 @@
       <c r="F13" s="2">
         <v>45351</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G13" s="2">
+        <v>45618</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>28</v>
       </c>
@@ -1147,6 +1153,9 @@
       </c>
       <c r="F14" s="2">
         <v>45361</v>
+      </c>
+      <c r="G14" s="2">
+        <v>45622</v>
       </c>
     </row>
     <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -1179,6 +1188,9 @@
       <c r="F16" s="2">
         <v>45292</v>
       </c>
+      <c r="G16" s="2">
+        <v>45615</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
@@ -1418,7 +1430,7 @@
         <v>45549</v>
       </c>
     </row>
-    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>73</v>
       </c>
@@ -1464,7 +1476,7 @@
         <v>45595</v>
       </c>
     </row>
-    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>75</v>
       </c>
@@ -1482,6 +1494,9 @@
       </c>
       <c r="F33" s="2">
         <v>45351</v>
+      </c>
+      <c r="G33" s="2">
+        <v>45622</v>
       </c>
     </row>
     <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -1514,6 +1529,9 @@
       <c r="F35" s="2">
         <v>45310</v>
       </c>
+      <c r="G35" s="2">
+        <v>45615</v>
+      </c>
     </row>
     <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
@@ -1674,7 +1692,7 @@
         <v>45546</v>
       </c>
     </row>
-    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>141</v>
       </c>
@@ -1692,6 +1710,9 @@
       </c>
       <c r="F45" s="2">
         <v>45366</v>
+      </c>
+      <c r="G45" s="2">
+        <v>45618</v>
       </c>
     </row>
     <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -1746,6 +1767,9 @@
       <c r="F49" s="2">
         <v>45292</v>
       </c>
+      <c r="G49" s="2">
+        <v>45615</v>
+      </c>
     </row>
     <row r="50" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A50" s="1">
@@ -1766,6 +1790,9 @@
       <c r="F50" s="2">
         <v>45310</v>
       </c>
+      <c r="G50" s="2">
+        <v>45615</v>
+      </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="5">
@@ -1938,7 +1965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>217</v>
       </c>
@@ -1956,6 +1983,9 @@
       </c>
       <c r="F60" s="2">
         <v>45357</v>
+      </c>
+      <c r="G60" s="2">
+        <v>45618</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
@@ -2378,6 +2408,9 @@
       <c r="F80" s="2">
         <v>45292</v>
       </c>
+      <c r="G80" s="2">
+        <v>45615</v>
+      </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
@@ -2631,7 +2664,7 @@
         <v>45614</v>
       </c>
     </row>
-    <row r="93" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>771</v>
       </c>
@@ -2649,6 +2682,9 @@
       </c>
       <c r="F93" s="2">
         <v>45355</v>
+      </c>
+      <c r="G93" s="2">
+        <v>45622</v>
       </c>
     </row>
     <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -2673,7 +2709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>844</v>
       </c>
@@ -2691,6 +2727,9 @@
       </c>
       <c r="F96" s="2">
         <v>45366</v>
+      </c>
+      <c r="G96" s="2">
+        <v>45622</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.3">
@@ -2739,7 +2778,7 @@
         <v>45568</v>
       </c>
     </row>
-    <row r="99" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>876</v>
       </c>
@@ -2757,6 +2796,9 @@
       </c>
       <c r="F99" s="2">
         <v>45366</v>
+      </c>
+      <c r="G99" s="2">
+        <v>45618</v>
       </c>
     </row>
     <row r="100" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -2850,7 +2892,7 @@
         <v>45546</v>
       </c>
     </row>
-    <row r="105" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>1290</v>
       </c>
@@ -2868,6 +2910,9 @@
       </c>
       <c r="F105" s="2">
         <v>45366</v>
+      </c>
+      <c r="G105" s="2">
+        <v>45622</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.3">
@@ -3130,6 +3175,12 @@
       </c>
       <c r="C119" s="1" t="s">
         <v>1</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>132</v>
       </c>
       <c r="F119" s="2">
         <v>45493</v>
@@ -3212,13 +3263,9 @@
   </sheetData>
   <autoFilter ref="F1:F135" xr:uid="{3C0ADE24-140B-4EE6-A32B-01D05623BF43}">
     <filterColumn colId="0">
-      <filters>
-        <dateGroupItem year="2024" month="1" dateTimeGrouping="month"/>
-        <dateGroupItem year="2024" month="6" dateTimeGrouping="month"/>
-        <dateGroupItem year="2024" month="7" dateTimeGrouping="month"/>
-        <dateGroupItem year="2024" month="8" dateTimeGrouping="month"/>
-        <dateGroupItem year="2023" dateTimeGrouping="year"/>
-      </filters>
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
     </filterColumn>
   </autoFilter>
   <hyperlinks>

--- a/Leetcode problem tracker.xlsx
+++ b/Leetcode problem tracker.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Coding\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6349F9B-2E83-433F-95BB-9345DFDFC8B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D2B3A8D-D8B2-4E01-9FB9-A9C92559163F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{365DB2E8-E54E-499E-9AF1-AA44A1C62DEA}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="155">
   <si>
     <t>Medium</t>
   </si>
@@ -892,7 +892,7 @@
   <dimension ref="A1:G135"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1089,7 +1089,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>26</v>
       </c>
@@ -1108,8 +1108,11 @@
       <c r="F12" s="2">
         <v>45351</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G12" s="2">
+        <v>45618</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>27</v>
       </c>
@@ -1128,8 +1131,11 @@
       <c r="F13" s="2">
         <v>45351</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G13" s="2">
+        <v>45618</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>28</v>
       </c>
@@ -1147,6 +1153,9 @@
       </c>
       <c r="F14" s="2">
         <v>45361</v>
+      </c>
+      <c r="G14" s="2">
+        <v>45622</v>
       </c>
     </row>
     <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -1160,7 +1169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>33</v>
       </c>
@@ -1178,6 +1187,9 @@
       </c>
       <c r="F16" s="2">
         <v>45292</v>
+      </c>
+      <c r="G16" s="2">
+        <v>45615</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -1267,6 +1279,9 @@
       <c r="F21" s="2">
         <v>45273</v>
       </c>
+      <c r="G21" s="2">
+        <v>45615</v>
+      </c>
     </row>
     <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
@@ -1415,7 +1430,7 @@
         <v>45549</v>
       </c>
     </row>
-    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>73</v>
       </c>
@@ -1461,7 +1476,7 @@
         <v>45595</v>
       </c>
     </row>
-    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>75</v>
       </c>
@@ -1479,6 +1494,9 @@
       </c>
       <c r="F33" s="2">
         <v>45351</v>
+      </c>
+      <c r="G33" s="2">
+        <v>45622</v>
       </c>
     </row>
     <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -1492,7 +1510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="5">
         <v>81</v>
       </c>
@@ -1510,6 +1528,9 @@
       </c>
       <c r="F35" s="2">
         <v>45310</v>
+      </c>
+      <c r="G35" s="2">
+        <v>45615</v>
       </c>
     </row>
     <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -1671,7 +1692,7 @@
         <v>45546</v>
       </c>
     </row>
-    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>141</v>
       </c>
@@ -1689,6 +1710,9 @@
       </c>
       <c r="F45" s="2">
         <v>45366</v>
+      </c>
+      <c r="G45" s="2">
+        <v>45618</v>
       </c>
     </row>
     <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -1724,7 +1748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="16.8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A49" s="1">
         <v>153</v>
       </c>
@@ -1743,8 +1767,11 @@
       <c r="F49" s="2">
         <v>45292</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" ht="16.8" hidden="1" x14ac:dyDescent="0.4">
+      <c r="G49" s="2">
+        <v>45615</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A50" s="1">
         <v>154</v>
       </c>
@@ -1762,6 +1789,9 @@
       </c>
       <c r="F50" s="2">
         <v>45310</v>
+      </c>
+      <c r="G50" s="2">
+        <v>45615</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
@@ -1783,6 +1813,9 @@
       <c r="F51" s="2">
         <v>45273</v>
       </c>
+      <c r="G51" s="2">
+        <v>45614</v>
+      </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
@@ -1932,7 +1965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>217</v>
       </c>
@@ -1950,6 +1983,9 @@
       </c>
       <c r="F60" s="2">
         <v>45357</v>
+      </c>
+      <c r="G60" s="2">
+        <v>45618</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
@@ -2131,6 +2167,9 @@
       <c r="F69" s="2">
         <v>45273</v>
       </c>
+      <c r="G69" s="2">
+        <v>45614</v>
+      </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
@@ -2151,6 +2190,9 @@
       <c r="F70" s="2">
         <v>45273</v>
       </c>
+      <c r="G70" s="2">
+        <v>45614</v>
+      </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
@@ -2347,7 +2389,7 @@
         <v>45568</v>
       </c>
     </row>
-    <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="5">
         <v>410</v>
       </c>
@@ -2365,6 +2407,9 @@
       </c>
       <c r="F80" s="2">
         <v>45292</v>
+      </c>
+      <c r="G80" s="2">
+        <v>45615</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
@@ -2420,6 +2465,9 @@
       <c r="F83" s="2">
         <v>45273</v>
       </c>
+      <c r="G83" s="2">
+        <v>45614</v>
+      </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
@@ -2440,6 +2488,9 @@
       <c r="F84" s="2">
         <v>45273</v>
       </c>
+      <c r="G84" s="2">
+        <v>45614</v>
+      </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
@@ -2563,6 +2614,9 @@
       <c r="F90" s="2">
         <v>45273</v>
       </c>
+      <c r="G90" s="2">
+        <v>45614</v>
+      </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
@@ -2606,8 +2660,11 @@
       <c r="F92" s="2">
         <v>45273</v>
       </c>
-    </row>
-    <row r="93" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G92" s="2">
+        <v>45614</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>771</v>
       </c>
@@ -2625,6 +2682,9 @@
       </c>
       <c r="F93" s="2">
         <v>45355</v>
+      </c>
+      <c r="G93" s="2">
+        <v>45622</v>
       </c>
     </row>
     <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -2649,7 +2709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>844</v>
       </c>
@@ -2667,6 +2727,9 @@
       </c>
       <c r="F96" s="2">
         <v>45366</v>
+      </c>
+      <c r="G96" s="2">
+        <v>45622</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.3">
@@ -2688,6 +2751,9 @@
       <c r="F97" s="2">
         <v>45273</v>
       </c>
+      <c r="G97" s="2">
+        <v>45614</v>
+      </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
@@ -2712,7 +2778,7 @@
         <v>45568</v>
       </c>
     </row>
-    <row r="99" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>876</v>
       </c>
@@ -2730,6 +2796,9 @@
       </c>
       <c r="F99" s="2">
         <v>45366</v>
+      </c>
+      <c r="G99" s="2">
+        <v>45618</v>
       </c>
     </row>
     <row r="100" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -2796,6 +2865,9 @@
       <c r="F103" s="2">
         <v>45273</v>
       </c>
+      <c r="G103" s="2">
+        <v>45614</v>
+      </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
@@ -2820,7 +2892,7 @@
         <v>45546</v>
       </c>
     </row>
-    <row r="105" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>1290</v>
       </c>
@@ -2838,6 +2910,9 @@
       </c>
       <c r="F105" s="2">
         <v>45366</v>
+      </c>
+      <c r="G105" s="2">
+        <v>45622</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.3">
@@ -3100,6 +3175,12 @@
       </c>
       <c r="C119" s="1" t="s">
         <v>1</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>132</v>
       </c>
       <c r="F119" s="2">
         <v>45493</v>
@@ -3182,12 +3263,9 @@
   </sheetData>
   <autoFilter ref="F1:F135" xr:uid="{3C0ADE24-140B-4EE6-A32B-01D05623BF43}">
     <filterColumn colId="0">
-      <filters>
-        <dateGroupItem year="2024" month="6" dateTimeGrouping="month"/>
-        <dateGroupItem year="2024" month="7" dateTimeGrouping="month"/>
-        <dateGroupItem year="2024" month="8" dateTimeGrouping="month"/>
-        <dateGroupItem year="2023" dateTimeGrouping="year"/>
-      </filters>
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
     </filterColumn>
   </autoFilter>
   <hyperlinks>
@@ -3203,7 +3281,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3362,7 +3440,9 @@
       <c r="E9" s="2">
         <v>45273</v>
       </c>
-      <c r="F9" s="2"/>
+      <c r="F9" s="2">
+        <v>45614</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">

--- a/Leetcode problem tracker.xlsx
+++ b/Leetcode problem tracker.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Coding\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D2B3A8D-D8B2-4E01-9FB9-A9C92559163F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B7A3582-F68F-465E-930B-FD7D8B440373}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{365DB2E8-E54E-499E-9AF1-AA44A1C62DEA}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Algos" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Problems!$F$1:$F$135</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Problems!$G$1:$G$135</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="155">
   <si>
     <t>Medium</t>
   </si>
@@ -888,11 +888,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C0ADE24-140B-4EE6-A32B-01D05623BF43}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:G135"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -929,7 +928,6 @@
         <v>133</v>
       </c>
     </row>
-    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
@@ -999,7 +997,7 @@
         <v>45546</v>
       </c>
     </row>
-    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>13</v>
       </c>
@@ -1033,7 +1031,7 @@
         <v>45549</v>
       </c>
     </row>
-    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>17</v>
       </c>
@@ -1067,7 +1065,7 @@
         <v>45555</v>
       </c>
     </row>
-    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>21</v>
       </c>
@@ -1078,7 +1076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>25</v>
       </c>
@@ -1154,11 +1152,11 @@
       <c r="F14" s="2">
         <v>45361</v>
       </c>
-      <c r="G14" s="2">
-        <v>45622</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G14" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>29</v>
       </c>
@@ -1238,7 +1236,7 @@
         <v>45559</v>
       </c>
     </row>
-    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>36</v>
       </c>
@@ -1249,7 +1247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>37</v>
       </c>
@@ -1283,7 +1281,7 @@
         <v>45615</v>
       </c>
     </row>
-    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>46</v>
       </c>
@@ -1294,7 +1292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>47</v>
       </c>
@@ -1305,7 +1303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>51</v>
       </c>
@@ -1316,7 +1314,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>52</v>
       </c>
@@ -1350,7 +1348,7 @@
         <v>45552</v>
       </c>
     </row>
-    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>61</v>
       </c>
@@ -1499,7 +1497,7 @@
         <v>45622</v>
       </c>
     </row>
-    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>78</v>
       </c>
@@ -1533,7 +1531,7 @@
         <v>45615</v>
       </c>
     </row>
-    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>83</v>
       </c>
@@ -1544,7 +1542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>88</v>
       </c>
@@ -1555,7 +1553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>90</v>
       </c>
@@ -1566,7 +1564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>92</v>
       </c>
@@ -1715,7 +1713,7 @@
         <v>45618</v>
       </c>
     </row>
-    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>142</v>
       </c>
@@ -1726,7 +1724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>143</v>
       </c>
@@ -1737,7 +1735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>148</v>
       </c>
@@ -1840,7 +1838,7 @@
         <v>45552</v>
       </c>
     </row>
-    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>172</v>
       </c>
@@ -1943,7 +1941,7 @@
         <v>45559</v>
       </c>
     </row>
-    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>206</v>
       </c>
@@ -1954,7 +1952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>215</v>
       </c>
@@ -2034,7 +2032,7 @@
         <v>45546</v>
       </c>
     </row>
-    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>232</v>
       </c>
@@ -2045,7 +2043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>234</v>
       </c>
@@ -2217,7 +2215,7 @@
         <v>45546</v>
       </c>
     </row>
-    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>338</v>
       </c>
@@ -2435,7 +2433,7 @@
         <v>45546</v>
       </c>
     </row>
-    <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>441</v>
       </c>
@@ -2584,7 +2582,7 @@
         <v>45568</v>
       </c>
     </row>
-    <row r="89" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>633</v>
       </c>
@@ -2687,7 +2685,7 @@
         <v>45622</v>
       </c>
     </row>
-    <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>804</v>
       </c>
@@ -2698,7 +2696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>832</v>
       </c>
@@ -2801,7 +2799,7 @@
         <v>45618</v>
       </c>
     </row>
-    <row r="100" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>921</v>
       </c>
@@ -2835,7 +2833,7 @@
         <v>45546</v>
       </c>
     </row>
-    <row r="102" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>1016</v>
       </c>
@@ -2961,7 +2959,7 @@
         <v>45568</v>
       </c>
     </row>
-    <row r="108" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>1346</v>
       </c>
@@ -2972,7 +2970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>1492</v>
       </c>
@@ -3052,7 +3050,7 @@
         <v>45546</v>
       </c>
     </row>
-    <row r="113" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>2221</v>
       </c>
@@ -3086,7 +3084,7 @@
         <v>45546</v>
       </c>
     </row>
-    <row r="115" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>2293</v>
       </c>
@@ -3235,18 +3233,7 @@
         <v>45568</v>
       </c>
     </row>
-    <row r="122" spans="1:7" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="123" spans="1:7" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="124" spans="1:7" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="125" spans="1:7" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="126" spans="1:7" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="127" spans="1:7" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="128" spans="1:7" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="129" spans="6:7" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="130" spans="6:7" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="131" spans="6:7" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="132" spans="6:7" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="133" spans="6:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F133" s="1" t="s">
         <v>131</v>
       </c>
@@ -3254,20 +3241,13 @@
         <v>131</v>
       </c>
     </row>
-    <row r="134" spans="6:7" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="135" spans="6:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F135" s="1" t="s">
         <v>127</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="F1:F135" xr:uid="{3C0ADE24-140B-4EE6-A32B-01D05623BF43}">
-    <filterColumn colId="0">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="G1:G135" xr:uid="{3C0ADE24-140B-4EE6-A32B-01D05623BF43}"/>
   <hyperlinks>
     <hyperlink ref="B118" r:id="rId1" display="https://leetcode.com/problems/prime-in-diagonal/" xr:uid="{B83FE3AB-D732-44D0-80B5-778583C1517E}"/>
   </hyperlinks>
@@ -3281,7 +3261,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3410,7 +3390,9 @@
       <c r="E7" s="2">
         <v>45213</v>
       </c>
-      <c r="F7" s="2"/>
+      <c r="F7" s="2">
+        <v>45629</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
@@ -3425,7 +3407,9 @@
       <c r="E8" s="2">
         <v>45213</v>
       </c>
-      <c r="F8" s="2"/>
+      <c r="F8" s="2">
+        <v>45629</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">

--- a/Leetcode problem tracker.xlsx
+++ b/Leetcode problem tracker.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Coding\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B7A3582-F68F-465E-930B-FD7D8B440373}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93F1FBE7-4B6B-4BCD-B8D7-AFD97EAEF025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{365DB2E8-E54E-499E-9AF1-AA44A1C62DEA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{365DB2E8-E54E-499E-9AF1-AA44A1C62DEA}"/>
   </bookViews>
   <sheets>
     <sheet name="Problems" sheetId="1" r:id="rId1"/>
@@ -890,8 +890,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C0ADE24-140B-4EE6-A32B-01D05623BF43}">
   <dimension ref="A1:G135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView topLeftCell="A93" workbookViewId="0">
+      <selection activeCell="G107" sqref="G107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2956,7 +2956,7 @@
         <v>45468</v>
       </c>
       <c r="G107" s="2">
-        <v>45568</v>
+        <v>45763</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.3">
@@ -3260,8 +3260,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9012F27-8156-41DB-A126-E4212B4AC01C}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3441,7 +3441,9 @@
       <c r="E10" s="2">
         <v>45230</v>
       </c>
-      <c r="F10" s="2"/>
+      <c r="F10" s="2">
+        <v>45761</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
@@ -3459,7 +3461,9 @@
       <c r="E11" s="2">
         <v>45233</v>
       </c>
-      <c r="F11" s="2"/>
+      <c r="F11" s="2">
+        <v>45763</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
@@ -3474,7 +3478,9 @@
       <c r="E12" s="2">
         <v>45233</v>
       </c>
-      <c r="F12" s="2"/>
+      <c r="F12" s="2">
+        <v>45763</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">

--- a/Leetcode problem tracker.xlsx
+++ b/Leetcode problem tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Coding\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93F1FBE7-4B6B-4BCD-B8D7-AFD97EAEF025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC7760D0-2087-4A0C-AFE2-04C1013629D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{365DB2E8-E54E-499E-9AF1-AA44A1C62DEA}"/>
   </bookViews>
@@ -891,7 +891,7 @@
   <dimension ref="A1:G135"/>
   <sheetViews>
     <sheetView topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="G107" sqref="G107"/>
+      <selection activeCell="D108" sqref="D108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3261,7 +3261,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3495,7 +3495,9 @@
       <c r="E13" s="2">
         <v>45233</v>
       </c>
-      <c r="F13" s="2"/>
+      <c r="F13" s="2">
+        <v>45765</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
